--- a/ArticleManage/main_working_folder/output_folders/Data 74 Preparation and evaluation of/Data74_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 74 Preparation and evaluation of/Data74_all_graphs_excel.xlsx
@@ -5,17 +5,19 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="ACK-0.5-6" sheetId="1" r:id="rId1"/>
-    <sheet name="ACK-1-6" sheetId="2" r:id="rId4"/>
-    <sheet name="ACK-2-6" sheetId="3" r:id="rId5"/>
-    <sheet name="ACK-2-7" sheetId="4" r:id="rId6"/>
-    <sheet name="ACK-2-8" sheetId="5" r:id="rId7"/>
-    <sheet name="ACK-3-6" sheetId="6" r:id="rId8"/>
-    <sheet name="ACK-3-7" sheetId="7" r:id="rId9"/>
-    <sheet name="ACK-3-8" sheetId="8" r:id="rId10"/>
-    <sheet name="ACZ-1-6" sheetId="9" r:id="rId11"/>
-    <sheet name="ACZ-2-6" sheetId="10" r:id="rId12"/>
-    <sheet name="ACZ-3-6" sheetId="11" r:id="rId13"/>
+    <sheet name="Figure 2_1 ACK-0.5-6  0-1-0-400" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2_1 ACK-1-6  0-1-0-400 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2_1 ACK-2-6  0-1-0-400 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2_1 ACK-3-6  0-1-0-400 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2_2 ACZ-1-6  0-1-0-500 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2_2 ACZ-2-6  0-1-0-500 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2_2 ACZ-3-6  0-1-0-500 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 3_1 ACK-2-6  0-1-0-750 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 3_1 ACK-2-7  0-1-0-750 " sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 3_1 ACK-2-8  0-1-0-750 " sheetId="10" r:id="rId12"/>
+    <sheet name="Figure 3_2 ACK-3-6  0-1-0-650 " sheetId="11" r:id="rId13"/>
+    <sheet name="Figure 3_2 ACK-3-7  0-1-0-650 " sheetId="12" r:id="rId14"/>
+    <sheet name="Figure 3_2 ACK-3-8  0-1-0-650 " sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -39,19 +41,7 @@
     <t>ACK-2-6</t>
   </si>
   <si>
-    <t>ACK-2-7</t>
-  </si>
-  <si>
-    <t>ACK-2-8</t>
-  </si>
-  <si>
     <t>ACK-3-6</t>
-  </si>
-  <si>
-    <t>ACK-3-7</t>
-  </si>
-  <si>
-    <t>ACK-3-8</t>
   </si>
   <si>
     <t>ACZ-1-6</t>
@@ -61,6 +51,18 @@
   </si>
   <si>
     <t>ACZ-3-6</t>
+  </si>
+  <si>
+    <t>ACK-2-7</t>
+  </si>
+  <si>
+    <t>ACK-2-8</t>
+  </si>
+  <si>
+    <t>ACK-3-7</t>
+  </si>
+  <si>
+    <t>ACK-3-8</t>
   </si>
 </sst>
 </file>
@@ -137,7 +139,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ACK-0.5-6</a:t>
+              <a:t>Izoterma adsorpcji probki ACK-0.5-6 z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -196,12 +198,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'ACK-0.5-6'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_1 ACK-0.5-6  0-1-0-400'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ACK-0.5-6'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_1 ACK-0.5-6  0-1-0-400'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -214,6 +216,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -283,6 +287,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="400"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -447,7 +453,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ACZ-2-6</a:t>
+              <a:t>Izoterma adsorpcji probki ACK-2-8 z wykresu 'Figure 3_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -506,12 +512,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'ACZ-2-6'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3_1 ACK-2-8  0-1-0-750 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ACZ-2-6'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3_1 ACK-2-8  0-1-0-750 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -524,6 +530,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -593,6 +601,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="750"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -757,7 +767,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ACZ-3-6</a:t>
+              <a:t>Izoterma adsorpcji probki ACK-3-6 z wykresu 'Figure 3_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -816,12 +826,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'ACZ-3-6'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3_2 ACK-3-6  0-1-0-650 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ACZ-3-6'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3_2 ACK-3-6  0-1-0-650 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -834,6 +844,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -903,6 +915,636 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="650"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki ACK-3-7 z wykresu 'Figure 3_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3_2 ACK-3-7  0-1-0-650 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3_2 ACK-3-7  0-1-0-650 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="650"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki ACK-3-8 z wykresu 'Figure 3_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3_2 ACK-3-8  0-1-0-650 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3_2 ACK-3-8  0-1-0-650 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="650"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1067,7 +1709,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ACK-1-6</a:t>
+              <a:t>Izoterma adsorpcji probki ACK-1-6 z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1126,12 +1768,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'ACK-1-6'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_1 ACK-1-6  0-1-0-400 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ACK-1-6'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_1 ACK-1-6  0-1-0-400 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1144,6 +1786,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1213,6 +1857,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="400"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1377,7 +2023,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ACK-2-6</a:t>
+              <a:t>Izoterma adsorpcji probki ACK-2-6 z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1436,12 +2082,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'ACK-2-6'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_1 ACK-2-6  0-1-0-400 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ACK-2-6'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_1 ACK-2-6  0-1-0-400 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1454,6 +2100,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1523,6 +2171,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="400"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1687,7 +2337,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ACK-2-7</a:t>
+              <a:t>Izoterma adsorpcji probki ACK-3-6 z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1746,12 +2396,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'ACK-2-7'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_1 ACK-3-6  0-1-0-400 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ACK-2-7'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_1 ACK-3-6  0-1-0-400 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1764,6 +2414,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1833,6 +2485,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="400"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1997,7 +2651,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ACK-2-8</a:t>
+              <a:t>Izoterma adsorpcji probki ACZ-1-6 z wykresu 'Figure 2_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2056,12 +2710,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'ACK-2-8'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_2 ACZ-1-6  0-1-0-500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ACK-2-8'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_2 ACZ-1-6  0-1-0-500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2074,6 +2728,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2143,6 +2799,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2307,7 +2965,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ACK-3-6</a:t>
+              <a:t>Izoterma adsorpcji probki ACZ-2-6 z wykresu 'Figure 2_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2366,12 +3024,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'ACK-3-6'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_2 ACZ-2-6  0-1-0-500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ACK-3-6'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_2 ACZ-2-6  0-1-0-500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2384,6 +3042,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2453,6 +3113,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2617,7 +3279,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ACK-3-7</a:t>
+              <a:t>Izoterma adsorpcji probki ACZ-3-6 z wykresu 'Figure 2_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2676,12 +3338,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'ACK-3-7'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_2 ACZ-3-6  0-1-0-500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ACK-3-7'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_2 ACZ-3-6  0-1-0-500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2694,6 +3356,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2763,6 +3427,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2927,7 +3593,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ACK-3-8</a:t>
+              <a:t>Izoterma adsorpcji probki ACK-2-6 z wykresu 'Figure 3_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2986,12 +3652,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'ACK-3-8'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3_1 ACK-2-6  0-1-0-750 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ACK-3-8'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3_1 ACK-2-6  0-1-0-750 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3004,6 +3670,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3073,6 +3741,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="750"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3237,7 +3907,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ACZ-1-6</a:t>
+              <a:t>Izoterma adsorpcji probki ACK-2-7 z wykresu 'Figure 3_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3296,12 +3966,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'ACZ-1-6'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3_1 ACK-2-7  0-1-0-750 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ACZ-1-6'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3_1 ACK-2-7  0-1-0-750 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3314,6 +3984,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3383,6 +4055,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="750"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3595,6 +4269,86 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5517,6 +6271,1048 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -9773,6 +11569,76 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="12" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10803,7 +12669,919 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.24</v>
+      </c>
+      <c r="B3" s="0">
+        <v>525.4106</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.26</v>
+      </c>
+      <c r="B4" s="0">
+        <v>539.1512</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.28</v>
+      </c>
+      <c r="B5" s="0">
+        <v>552.9254</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.3</v>
+      </c>
+      <c r="B6" s="0">
+        <v>564.3366</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.32</v>
+      </c>
+      <c r="B7" s="0">
+        <v>574.3487</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.34</v>
+      </c>
+      <c r="B8" s="0">
+        <v>585.1218</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.36</v>
+      </c>
+      <c r="B9" s="0">
+        <v>594.5931</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.38</v>
+      </c>
+      <c r="B10" s="0">
+        <v>601.2009</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.4</v>
+      </c>
+      <c r="B11" s="0">
+        <v>606.0403</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.42</v>
+      </c>
+      <c r="B12" s="0">
+        <v>613.9224</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.44</v>
+      </c>
+      <c r="B13" s="0">
+        <v>621.1161</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.46</v>
+      </c>
+      <c r="B14" s="0">
+        <v>627.3009</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.48</v>
+      </c>
+      <c r="B15" s="0">
+        <v>633.7912</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="B16" s="0">
+        <v>636.7764</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.52</v>
+      </c>
+      <c r="B17" s="0">
+        <v>641.3451</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.54</v>
+      </c>
+      <c r="B18" s="0">
+        <v>644.7222</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.56</v>
+      </c>
+      <c r="B19" s="0">
+        <v>645.3525</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.58</v>
+      </c>
+      <c r="B20" s="0">
+        <v>647.3568</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.6</v>
+      </c>
+      <c r="B21" s="0">
+        <v>648.7749</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.62</v>
+      </c>
+      <c r="B22" s="0">
+        <v>650.3821</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.64</v>
+      </c>
+      <c r="B23" s="0">
+        <v>653.2462</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.66</v>
+      </c>
+      <c r="B24" s="0">
+        <v>655.4867</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.68</v>
+      </c>
+      <c r="B25" s="0">
+        <v>657.3188</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.7</v>
+      </c>
+      <c r="B26" s="0">
+        <v>659.9625</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.72</v>
+      </c>
+      <c r="B27" s="0">
+        <v>662.6052</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.74</v>
+      </c>
+      <c r="B28" s="0">
+        <v>663.9786</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.76</v>
+      </c>
+      <c r="B29" s="0">
+        <v>666.6647</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.78</v>
+      </c>
+      <c r="B30" s="0">
+        <v>670.4828</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.8</v>
+      </c>
+      <c r="B31" s="0">
+        <v>672.5771</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.82</v>
+      </c>
+      <c r="B32" s="0">
+        <v>676.0157</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.84</v>
+      </c>
+      <c r="B33" s="0">
+        <v>679.7812</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.86</v>
+      </c>
+      <c r="B34" s="0">
+        <v>682.803</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.88</v>
+      </c>
+      <c r="B35" s="0">
+        <v>686.4804</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="B36" s="0">
+        <v>689.1866</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.92</v>
+      </c>
+      <c r="B37" s="0">
+        <v>692.3911</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.94</v>
+      </c>
+      <c r="B38" s="0">
+        <v>697.0739</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.96</v>
+      </c>
+      <c r="B39" s="0">
+        <v>701.5646</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.98</v>
+      </c>
+      <c r="B40" s="0">
+        <v>706.9025</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.2116</v>
+      </c>
+      <c r="B41" s="0">
+        <v>502.0325</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.1855</v>
+      </c>
+      <c r="B42" s="0">
+        <v>482.7236</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.1702</v>
+      </c>
+      <c r="B43" s="0">
+        <v>464.4309</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.1563</v>
+      </c>
+      <c r="B44" s="0">
+        <v>451.2195</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.1425</v>
+      </c>
+      <c r="B45" s="0">
+        <v>433.9431</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.1302</v>
+      </c>
+      <c r="B46" s="0">
+        <v>419.7154</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.118</v>
+      </c>
+      <c r="B47" s="0">
+        <v>402.439</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.1072</v>
+      </c>
+      <c r="B48" s="0">
+        <v>380.0813</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.098</v>
+      </c>
+      <c r="B49" s="0">
+        <v>353.6585</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.0919</v>
+      </c>
+      <c r="B50" s="0">
+        <v>320.122</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.0904</v>
+      </c>
+      <c r="B51" s="0">
+        <v>268.2927</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.0905</v>
+      </c>
+      <c r="B52" s="0">
+        <v>214.4309</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.0905</v>
+      </c>
+      <c r="B53" s="0">
+        <v>161.5854</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0.0914</v>
+      </c>
+      <c r="B54" s="0">
+        <v>106.7073</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>0.0906</v>
+      </c>
+      <c r="B55" s="0">
+        <v>52.8455</v>
+      </c>
+    </row>
+    <row r="56"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.14</v>
+      </c>
+      <c r="B3" s="0">
+        <v>278.7671</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.16</v>
+      </c>
+      <c r="B4" s="0">
+        <v>282.8494</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.18</v>
+      </c>
+      <c r="B5" s="0">
+        <v>286.0738</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.2</v>
+      </c>
+      <c r="B6" s="0">
+        <v>289.0095</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.22</v>
+      </c>
+      <c r="B7" s="0">
+        <v>291.4834</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.24</v>
+      </c>
+      <c r="B8" s="0">
+        <v>292.6244</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.26</v>
+      </c>
+      <c r="B9" s="0">
+        <v>293.8503</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.28</v>
+      </c>
+      <c r="B10" s="0">
+        <v>295.1185</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.3</v>
+      </c>
+      <c r="B11" s="0">
+        <v>296.6155</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.32</v>
+      </c>
+      <c r="B12" s="0">
+        <v>300.6877</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.34</v>
+      </c>
+      <c r="B13" s="0">
+        <v>302.1784</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.36</v>
+      </c>
+      <c r="B14" s="0">
+        <v>299.5189</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.38</v>
+      </c>
+      <c r="B15" s="0">
+        <v>298.7259</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.4</v>
+      </c>
+      <c r="B16" s="0">
+        <v>299.7169</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.42</v>
+      </c>
+      <c r="B17" s="0">
+        <v>301.3908</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.44</v>
+      </c>
+      <c r="B18" s="0">
+        <v>302.3164</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.46</v>
+      </c>
+      <c r="B19" s="0">
+        <v>303.424</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.48</v>
+      </c>
+      <c r="B20" s="0">
+        <v>304.7059</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="B21" s="0">
+        <v>305.7923</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.52</v>
+      </c>
+      <c r="B22" s="0">
+        <v>304.9134</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.54</v>
+      </c>
+      <c r="B23" s="0">
+        <v>306.2647</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.56</v>
+      </c>
+      <c r="B24" s="0">
+        <v>308.255</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.58</v>
+      </c>
+      <c r="B25" s="0">
+        <v>308.2636</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.6</v>
+      </c>
+      <c r="B26" s="0">
+        <v>308.3017</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.62</v>
+      </c>
+      <c r="B27" s="0">
+        <v>308.9918</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.64</v>
+      </c>
+      <c r="B28" s="0">
+        <v>309.2803</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.66</v>
+      </c>
+      <c r="B29" s="0">
+        <v>309.9626</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.68</v>
+      </c>
+      <c r="B30" s="0">
+        <v>312.954</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.7</v>
+      </c>
+      <c r="B31" s="0">
+        <v>314.79</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.72</v>
+      </c>
+      <c r="B32" s="0">
+        <v>315.662</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.74</v>
+      </c>
+      <c r="B33" s="0">
+        <v>317.1247</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.76</v>
+      </c>
+      <c r="B34" s="0">
+        <v>317.6511</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.78</v>
+      </c>
+      <c r="B35" s="0">
+        <v>318.9987</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.8</v>
+      </c>
+      <c r="B36" s="0">
+        <v>320.0716</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.82</v>
+      </c>
+      <c r="B37" s="0">
+        <v>321.8406</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.84</v>
+      </c>
+      <c r="B38" s="0">
+        <v>323.9658</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.86</v>
+      </c>
+      <c r="B39" s="0">
+        <v>325.0023</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.88</v>
+      </c>
+      <c r="B40" s="0">
+        <v>326.3043</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="B41" s="0">
+        <v>327.5039</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.92</v>
+      </c>
+      <c r="B42" s="0">
+        <v>329.5514</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.94</v>
+      </c>
+      <c r="B43" s="0">
+        <v>333.2588</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.96</v>
+      </c>
+      <c r="B44" s="0">
+        <v>337.6841</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.98</v>
+      </c>
+      <c r="B45" s="0">
+        <v>344.1322</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.9915</v>
+      </c>
+      <c r="B46" s="0">
+        <v>347.5887</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.1261</v>
+      </c>
+      <c r="B47" s="0">
+        <v>272.9078</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.1106</v>
+      </c>
+      <c r="B48" s="0">
+        <v>264.6099</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.0974</v>
+      </c>
+      <c r="B49" s="0">
+        <v>248.0142</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.0905</v>
+      </c>
+      <c r="B50" s="0">
+        <v>223.1206</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.0905</v>
+      </c>
+      <c r="B51" s="0">
+        <v>200.9929</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.0905</v>
+      </c>
+      <c r="B52" s="0">
+        <v>188.0851</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.092</v>
+      </c>
+      <c r="B53" s="0">
+        <v>155.8156</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0.0913</v>
+      </c>
+      <c r="B54" s="0">
+        <v>118.0142</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>0.0897</v>
+      </c>
+      <c r="B55" s="0">
+        <v>71.9149</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>0.0889</v>
+      </c>
+      <c r="B56" s="0">
+        <v>23.9716</v>
+      </c>
+    </row>
+    <row r="57"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10824,430 +13602,382 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="B3" s="0">
-        <v>244.1611</v>
+        <v>312.0291</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="B4" s="0">
-        <v>253.2418</v>
+        <v>314.1842</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="B5" s="0">
-        <v>262.0439</v>
+        <v>316.9772</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1</v>
+        <v>0.26</v>
       </c>
       <c r="B6" s="0">
-        <v>269.0711</v>
+        <v>322.6746</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.12</v>
+        <v>0.28</v>
       </c>
       <c r="B7" s="0">
-        <v>274.7338</v>
+        <v>323.7198</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.14</v>
+        <v>0.3</v>
       </c>
       <c r="B8" s="0">
-        <v>279.4154</v>
+        <v>324.607</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="B9" s="0">
-        <v>284.6403</v>
+        <v>325.7092</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.18</v>
+        <v>0.34</v>
       </c>
       <c r="B10" s="0">
-        <v>289.3565</v>
+        <v>326.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
       <c r="B11" s="0">
-        <v>293.3192</v>
+        <v>328.4983</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.22</v>
+        <v>0.38</v>
       </c>
       <c r="B12" s="0">
-        <v>297.4776</v>
+        <v>330.0849</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="B13" s="0">
-        <v>301.2085</v>
+        <v>331.8049</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.26</v>
+        <v>0.42</v>
       </c>
       <c r="B14" s="0">
-        <v>303.9919</v>
+        <v>333.6566</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.28</v>
+        <v>0.44</v>
       </c>
       <c r="B15" s="0">
-        <v>306.865</v>
+        <v>335.383</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3</v>
+        <v>0.46</v>
       </c>
       <c r="B16" s="0">
-        <v>309.6776</v>
+        <v>337.173</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
       <c r="B17" s="0">
-        <v>312.884</v>
+        <v>339.0365</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.34</v>
+        <v>0.52</v>
       </c>
       <c r="B18" s="0">
-        <v>315.9801</v>
+        <v>339.2269</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.36</v>
+        <v>0.54</v>
       </c>
       <c r="B19" s="0">
-        <v>318.8808</v>
+        <v>339.6249</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.38</v>
+        <v>0.56</v>
       </c>
       <c r="B20" s="0">
-        <v>321.9921</v>
+        <v>340.4524</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4</v>
+        <v>0.74</v>
       </c>
       <c r="B21" s="0">
-        <v>324.8839</v>
+        <v>352.0339</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.42</v>
+        <v>0.78</v>
       </c>
       <c r="B22" s="0">
-        <v>328.7753</v>
+        <v>352.6271</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.44</v>
+        <v>0.8</v>
       </c>
       <c r="B23" s="0">
-        <v>332.2212</v>
+        <v>354.144</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.46</v>
+        <v>0.82</v>
       </c>
       <c r="B24" s="0">
-        <v>333.502</v>
+        <v>355.6148</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.48</v>
+        <v>0.86</v>
       </c>
       <c r="B25" s="0">
-        <v>335.1533</v>
+        <v>358.7593</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5</v>
+        <v>0.1632</v>
       </c>
       <c r="B26" s="0">
-        <v>337.6843</v>
+        <v>305.1773</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.52</v>
+        <v>0.1469</v>
       </c>
       <c r="B27" s="0">
-        <v>340.2257</v>
+        <v>302.4113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.54</v>
+        <v>0.1346</v>
       </c>
       <c r="B28" s="0">
-        <v>342.8132</v>
+        <v>293.1915</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.56</v>
+        <v>0.1199</v>
       </c>
       <c r="B29" s="0">
-        <v>345.1231</v>
+        <v>283.9716</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.58</v>
+        <v>0.1067</v>
       </c>
       <c r="B30" s="0">
-        <v>347.548</v>
+        <v>270.1418</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6</v>
+        <v>0.0951</v>
       </c>
       <c r="B31" s="0">
-        <v>349.9656</v>
+        <v>252.6241</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.62</v>
+        <v>0.0905</v>
       </c>
       <c r="B32" s="0">
-        <v>352.6685</v>
+        <v>220.3546</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.64</v>
+        <v>0.0897</v>
       </c>
       <c r="B33" s="0">
-        <v>355.0253</v>
+        <v>177.0213</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.66</v>
+        <v>0.0913</v>
       </c>
       <c r="B34" s="0">
-        <v>357.1556</v>
+        <v>133.6879</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.68</v>
+        <v>0.0913</v>
       </c>
       <c r="B35" s="0">
-        <v>359.4219</v>
+        <v>89.4326</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.7</v>
+        <v>0.0913</v>
       </c>
       <c r="B36" s="0">
-        <v>362.0214</v>
+        <v>45.1773</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.72</v>
+        <v>0.9273</v>
       </c>
       <c r="B37" s="0">
-        <v>364.4759</v>
+        <v>365.1064</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.74</v>
+        <v>0.8855</v>
       </c>
       <c r="B38" s="0">
-        <v>367.6398</v>
+        <v>359.5745</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.76</v>
+        <v>0.8438</v>
       </c>
       <c r="B39" s="0">
-        <v>369.7345</v>
+        <v>355.8865</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.78</v>
+        <v>0.7579</v>
       </c>
       <c r="B40" s="0">
-        <v>371.0645</v>
+        <v>351.2766</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.8</v>
+        <v>0.7154</v>
       </c>
       <c r="B41" s="0">
-        <v>373.0092</v>
+        <v>350.3546</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.82</v>
+        <v>0.6721</v>
       </c>
       <c r="B42" s="0">
-        <v>374.8083</v>
+        <v>347.5887</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.84</v>
+        <v>0.6295</v>
       </c>
       <c r="B43" s="0">
-        <v>376.8691</v>
+        <v>344.8227</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.86</v>
+        <v>0.587</v>
       </c>
       <c r="B44" s="0">
-        <v>378.6529</v>
+        <v>342.9787</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.88</v>
+        <v>0.2312</v>
       </c>
       <c r="B45" s="0">
-        <v>380.1804</v>
+        <v>319.9291</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.9</v>
+        <v>0.9691</v>
       </c>
       <c r="B46" s="0">
-        <v>383.0884</v>
+        <v>373.4043</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.92</v>
+        <v>0.9807</v>
       </c>
       <c r="B47" s="0">
-        <v>388.0965</v>
+        <v>376.1702</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.94</v>
+        <v>0.993</v>
       </c>
       <c r="B48" s="0">
-        <v>394.7285</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B49" s="0">
-        <v>400.6706</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B50" s="0">
-        <v>407.1443</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0231</v>
-      </c>
-      <c r="B51" s="0">
-        <v>231.979</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0044</v>
-      </c>
-      <c r="B52" s="0">
-        <v>203.1455</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0009</v>
-      </c>
-      <c r="B53" s="0">
-        <v>154.6527</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0</v>
-      </c>
-      <c r="B54" s="0">
-        <v>100.9174</v>
-      </c>
-    </row>
-    <row r="55"/>
+        <v>383.5461</v>
+      </c>
+    </row>
+    <row r="49"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11268,453 +13998,437 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="B3" s="0">
-        <v>227.7413</v>
+        <v>466.5678</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="B4" s="0">
-        <v>282.268</v>
+        <v>478.5407</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.22</v>
       </c>
       <c r="B5" s="0">
-        <v>299.5784</v>
+        <v>489.7892</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="B6" s="0">
-        <v>315.3309</v>
+        <v>501.4619</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.26</v>
       </c>
       <c r="B7" s="0">
-        <v>327.1511</v>
+        <v>511.3679</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.28</v>
       </c>
       <c r="B8" s="0">
-        <v>338.4696</v>
+        <v>519.7445</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.3</v>
       </c>
       <c r="B9" s="0">
-        <v>348.578</v>
+        <v>527.2507</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="B10" s="0">
-        <v>356.4607</v>
+        <v>533.8781</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.34</v>
       </c>
       <c r="B11" s="0">
-        <v>363.9456</v>
+        <v>539.5247</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
       <c r="B12" s="0">
-        <v>372.5296</v>
+        <v>544.216</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.38</v>
       </c>
       <c r="B13" s="0">
-        <v>379.7902</v>
+        <v>547.9846</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="B14" s="0">
-        <v>386.1467</v>
+        <v>551.1372</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.42</v>
       </c>
       <c r="B15" s="0">
-        <v>392.6901</v>
+        <v>554.0433</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.44</v>
       </c>
       <c r="B16" s="0">
-        <v>397.8257</v>
+        <v>556.7826</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.46</v>
       </c>
       <c r="B17" s="0">
-        <v>402.9469</v>
+        <v>559.2809</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
       <c r="B18" s="0">
-        <v>407.6563</v>
+        <v>561.5474</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
       <c r="B19" s="0">
-        <v>411.7876</v>
+        <v>563.7049</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.52</v>
       </c>
       <c r="B20" s="0">
-        <v>415.7694</v>
+        <v>565.8715</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.54</v>
       </c>
       <c r="B21" s="0">
-        <v>419.4983</v>
+        <v>568.2521</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.56</v>
       </c>
       <c r="B22" s="0">
-        <v>423.2597</v>
+        <v>570.6505</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.58</v>
       </c>
       <c r="B23" s="0">
-        <v>427.0541</v>
+        <v>572.5246</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.6</v>
       </c>
       <c r="B24" s="0">
-        <v>431.2089</v>
+        <v>573.9477</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.62</v>
       </c>
       <c r="B25" s="0">
-        <v>433.3868</v>
+        <v>574.8101</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.64</v>
       </c>
       <c r="B26" s="0">
-        <v>434.5421</v>
+        <v>575.9561</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.66</v>
       </c>
       <c r="B27" s="0">
-        <v>437.2552</v>
+        <v>578.2495</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.68</v>
       </c>
       <c r="B28" s="0">
-        <v>440.0738</v>
+        <v>581.1572</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.7</v>
       </c>
       <c r="B29" s="0">
-        <v>442.0536</v>
+        <v>584.0481</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.72</v>
       </c>
       <c r="B30" s="0">
-        <v>444.1017</v>
+        <v>586.2396</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.74</v>
       </c>
       <c r="B31" s="0">
-        <v>446.1714</v>
+        <v>587.7803</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6</v>
+        <v>0.76</v>
       </c>
       <c r="B32" s="0">
-        <v>448.0321</v>
+        <v>589.3423</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.62</v>
+        <v>0.78</v>
       </c>
       <c r="B33" s="0">
-        <v>449.8083</v>
+        <v>591.1781</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="B34" s="0">
-        <v>451.576</v>
+        <v>593.066</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.66</v>
+        <v>0.82</v>
       </c>
       <c r="B35" s="0">
-        <v>452.9093</v>
+        <v>594.7089</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.68</v>
+        <v>0.84</v>
       </c>
       <c r="B36" s="0">
-        <v>454.4797</v>
+        <v>596.2372</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7</v>
+        <v>0.86</v>
       </c>
       <c r="B37" s="0">
-        <v>455.8283</v>
+        <v>598.0019</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.72</v>
+        <v>0.88</v>
       </c>
       <c r="B38" s="0">
-        <v>457.1519</v>
+        <v>599.9911</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
       <c r="B39" s="0">
-        <v>458.7361</v>
+        <v>602.1455</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
       <c r="B40" s="0">
-        <v>460.1288</v>
+        <v>605.4603</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.78</v>
+        <v>0.94</v>
       </c>
       <c r="B41" s="0">
-        <v>461.5241</v>
+        <v>611.2288</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.8</v>
+        <v>0.1624</v>
       </c>
       <c r="B42" s="0">
-        <v>463.1657</v>
+        <v>451.773</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.82</v>
+        <v>0.1477</v>
       </c>
       <c r="B43" s="0">
-        <v>464.9321</v>
+        <v>440.7092</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.84</v>
+        <v>0.1346</v>
       </c>
       <c r="B44" s="0">
-        <v>466.5236</v>
+        <v>422.2695</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.86</v>
+        <v>0.123</v>
       </c>
       <c r="B45" s="0">
-        <v>468.1234</v>
+        <v>405.6738</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.88</v>
+        <v>0.1083</v>
       </c>
       <c r="B46" s="0">
-        <v>469.983</v>
+        <v>386.3121</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.9</v>
+        <v>0.1005</v>
       </c>
       <c r="B47" s="0">
-        <v>473.1747</v>
+        <v>360.4965</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.92</v>
+        <v>0.0928</v>
       </c>
       <c r="B48" s="0">
-        <v>475.9368</v>
+        <v>332.8369</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.94</v>
+        <v>0.092</v>
       </c>
       <c r="B49" s="0">
-        <v>477.8512</v>
+        <v>281.2057</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.96</v>
+        <v>0.0905</v>
       </c>
       <c r="B50" s="0">
-        <v>481.1053</v>
+        <v>224.0426</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.98</v>
+        <v>0.0905</v>
       </c>
       <c r="B51" s="0">
-        <v>486.8364</v>
+        <v>167.8014</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.0311</v>
+        <v>0.0913</v>
       </c>
       <c r="B52" s="0">
-        <v>272.6081</v>
+        <v>113.4043</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.0142</v>
+        <v>0.0913</v>
       </c>
       <c r="B53" s="0">
-        <v>245.0852</v>
+        <v>58.0851</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.0062</v>
+        <v>0.9776</v>
       </c>
       <c r="B54" s="0">
-        <v>213.6304</v>
+        <v>617.7305</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.0018</v>
+        <v>0.9899</v>
       </c>
       <c r="B55" s="0">
-        <v>173.0013</v>
+        <v>626.0284</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.0027</v>
+        <v>0.9575</v>
       </c>
       <c r="B56" s="0">
-        <v>131.7169</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>-0.0009</v>
-      </c>
-      <c r="B57" s="0">
-        <v>85.8453</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0">
-        <v>0</v>
-      </c>
-      <c r="B58" s="0">
-        <v>42.595</v>
-      </c>
-    </row>
-    <row r="59"/>
+        <v>610.3546</v>
+      </c>
+    </row>
+    <row r="57"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -12151,6 +14865,2234 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.08</v>
+      </c>
+      <c r="B3" s="0">
+        <v>318.2758</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.1</v>
+      </c>
+      <c r="B4" s="0">
+        <v>322.9666</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.12</v>
+      </c>
+      <c r="B5" s="0">
+        <v>324.5698</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.14</v>
+      </c>
+      <c r="B6" s="0">
+        <v>325.9978</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.16</v>
+      </c>
+      <c r="B7" s="0">
+        <v>327.5699</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.18</v>
+      </c>
+      <c r="B8" s="0">
+        <v>328.8025</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.2</v>
+      </c>
+      <c r="B9" s="0">
+        <v>329.7784</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.22</v>
+      </c>
+      <c r="B10" s="0">
+        <v>330.7713</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.24</v>
+      </c>
+      <c r="B11" s="0">
+        <v>331.8071</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.26</v>
+      </c>
+      <c r="B12" s="0">
+        <v>332.8076</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.28</v>
+      </c>
+      <c r="B13" s="0">
+        <v>333.8711</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3</v>
+      </c>
+      <c r="B14" s="0">
+        <v>335.0793</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.32</v>
+      </c>
+      <c r="B15" s="0">
+        <v>336.2427</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.34</v>
+      </c>
+      <c r="B16" s="0">
+        <v>337.1885</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.36</v>
+      </c>
+      <c r="B17" s="0">
+        <v>337.9149</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.38</v>
+      </c>
+      <c r="B18" s="0">
+        <v>338.5162</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.4</v>
+      </c>
+      <c r="B19" s="0">
+        <v>339.098</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.42</v>
+      </c>
+      <c r="B20" s="0">
+        <v>339.6667</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.44</v>
+      </c>
+      <c r="B21" s="0">
+        <v>340.2137</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.46</v>
+      </c>
+      <c r="B22" s="0">
+        <v>340.7655</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.48</v>
+      </c>
+      <c r="B23" s="0">
+        <v>341.2024</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="B24" s="0">
+        <v>341.594</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.52</v>
+      </c>
+      <c r="B25" s="0">
+        <v>342.0607</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.54</v>
+      </c>
+      <c r="B26" s="0">
+        <v>342.6394</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.56</v>
+      </c>
+      <c r="B27" s="0">
+        <v>343.2778</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.82</v>
+      </c>
+      <c r="B28" s="0">
+        <v>352.8377</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.84</v>
+      </c>
+      <c r="B29" s="0">
+        <v>354.7419</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.86</v>
+      </c>
+      <c r="B30" s="0">
+        <v>356.0518</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.88</v>
+      </c>
+      <c r="B31" s="0">
+        <v>357.2121</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="B32" s="0">
+        <v>358.621</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.92</v>
+      </c>
+      <c r="B33" s="0">
+        <v>360.6643</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.94</v>
+      </c>
+      <c r="B34" s="0">
+        <v>363.5043</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.96</v>
+      </c>
+      <c r="B35" s="0">
+        <v>366.8327</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.98</v>
+      </c>
+      <c r="B36" s="0">
+        <v>370.8066</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0624</v>
+      </c>
+      <c r="B37" s="0">
+        <v>314.4304</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.0362</v>
+      </c>
+      <c r="B38" s="0">
+        <v>305.8228</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.0118</v>
+      </c>
+      <c r="B39" s="0">
+        <v>282.5316</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.0018</v>
+      </c>
+      <c r="B40" s="0">
+        <v>247.0886</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.0009</v>
+      </c>
+      <c r="B41" s="0">
+        <v>197.4684</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>-0.0018</v>
+      </c>
+      <c r="B42" s="0">
+        <v>147.8481</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>-0.0009</v>
+      </c>
+      <c r="B43" s="0">
+        <v>99.7468</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.0009</v>
+      </c>
+      <c r="B44" s="0">
+        <v>49.6203</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.6112</v>
+      </c>
+      <c r="B45" s="0">
+        <v>342.2785</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.6637</v>
+      </c>
+      <c r="B46" s="0">
+        <v>341.7722</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.7179</v>
+      </c>
+      <c r="B47" s="0">
+        <v>343.2911</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.774</v>
+      </c>
+      <c r="B48" s="0">
+        <v>344.3038</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.5868</v>
+      </c>
+      <c r="B49" s="0">
+        <v>341.7722</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.6365</v>
+      </c>
+      <c r="B50" s="0">
+        <v>342.2785</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.689</v>
+      </c>
+      <c r="B51" s="0">
+        <v>342.7848</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.7459</v>
+      </c>
+      <c r="B52" s="0">
+        <v>343.7975</v>
+      </c>
+    </row>
+    <row r="53"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.06</v>
+      </c>
+      <c r="B3" s="0">
+        <v>301.0582</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.08</v>
+      </c>
+      <c r="B4" s="0">
+        <v>306.4183</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.1</v>
+      </c>
+      <c r="B5" s="0">
+        <v>309.1364</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.12</v>
+      </c>
+      <c r="B6" s="0">
+        <v>311.5973</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.14</v>
+      </c>
+      <c r="B7" s="0">
+        <v>313.2131</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.16</v>
+      </c>
+      <c r="B8" s="0">
+        <v>314.6324</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.18</v>
+      </c>
+      <c r="B9" s="0">
+        <v>316.0684</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.2</v>
+      </c>
+      <c r="B10" s="0">
+        <v>316.9674</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.22</v>
+      </c>
+      <c r="B11" s="0">
+        <v>317.5747</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.24</v>
+      </c>
+      <c r="B12" s="0">
+        <v>318.5885</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.26</v>
+      </c>
+      <c r="B13" s="0">
+        <v>319.5155</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.28</v>
+      </c>
+      <c r="B14" s="0">
+        <v>320.0359</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3</v>
+      </c>
+      <c r="B15" s="0">
+        <v>320.8435</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.32</v>
+      </c>
+      <c r="B16" s="0">
+        <v>321.5902</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.34</v>
+      </c>
+      <c r="B17" s="0">
+        <v>322.1411</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.36</v>
+      </c>
+      <c r="B18" s="0">
+        <v>322.7794</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.38</v>
+      </c>
+      <c r="B19" s="0">
+        <v>323.2673</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.4</v>
+      </c>
+      <c r="B20" s="0">
+        <v>323.9864</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.42</v>
+      </c>
+      <c r="B21" s="0">
+        <v>325.2576</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.44</v>
+      </c>
+      <c r="B22" s="0">
+        <v>325.6385</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.46</v>
+      </c>
+      <c r="B23" s="0">
+        <v>325.7671</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.48</v>
+      </c>
+      <c r="B24" s="0">
+        <v>326.1259</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="B25" s="0">
+        <v>326.8763</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.52</v>
+      </c>
+      <c r="B26" s="0">
+        <v>327.6579</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.54</v>
+      </c>
+      <c r="B27" s="0">
+        <v>328.1424</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.56</v>
+      </c>
+      <c r="B28" s="0">
+        <v>328.9626</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.58</v>
+      </c>
+      <c r="B29" s="0">
+        <v>329.8396</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.6</v>
+      </c>
+      <c r="B30" s="0">
+        <v>330.5376</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.62</v>
+      </c>
+      <c r="B31" s="0">
+        <v>330.6502</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.64</v>
+      </c>
+      <c r="B32" s="0">
+        <v>330.7793</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.66</v>
+      </c>
+      <c r="B33" s="0">
+        <v>331.7135</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.68</v>
+      </c>
+      <c r="B34" s="0">
+        <v>332.8216</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.7</v>
+      </c>
+      <c r="B35" s="0">
+        <v>333.4861</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.72</v>
+      </c>
+      <c r="B36" s="0">
+        <v>334.245</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.74</v>
+      </c>
+      <c r="B37" s="0">
+        <v>334.9971</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.76</v>
+      </c>
+      <c r="B38" s="0">
+        <v>335.4046</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.78</v>
+      </c>
+      <c r="B39" s="0">
+        <v>336.0449</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.8</v>
+      </c>
+      <c r="B40" s="0">
+        <v>337.3376</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.82</v>
+      </c>
+      <c r="B41" s="0">
+        <v>338.8022</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.84</v>
+      </c>
+      <c r="B42" s="0">
+        <v>339.6994</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.86</v>
+      </c>
+      <c r="B43" s="0">
+        <v>340.377</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.88</v>
+      </c>
+      <c r="B44" s="0">
+        <v>341.5771</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="B45" s="0">
+        <v>343.5743</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.92</v>
+      </c>
+      <c r="B46" s="0">
+        <v>345.2346</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.94</v>
+      </c>
+      <c r="B47" s="0">
+        <v>346.5092</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.96</v>
+      </c>
+      <c r="B48" s="0">
+        <v>348.5669</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.98</v>
+      </c>
+      <c r="B49" s="0">
+        <v>350.6606</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.0271</v>
+      </c>
+      <c r="B50" s="0">
+        <v>290.6329</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.0054</v>
+      </c>
+      <c r="B51" s="0">
+        <v>262.2785</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.0009</v>
+      </c>
+      <c r="B52" s="0">
+        <v>203.038</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.0009</v>
+      </c>
+      <c r="B53" s="0">
+        <v>134.1772</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0.0009</v>
+      </c>
+      <c r="B54" s="0">
+        <v>66.8354</v>
+      </c>
+    </row>
+    <row r="55"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.14</v>
+      </c>
+      <c r="B3" s="0">
+        <v>279.327</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.16</v>
+      </c>
+      <c r="B4" s="0">
+        <v>280.8598</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.18</v>
+      </c>
+      <c r="B5" s="0">
+        <v>281.3139</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.2</v>
+      </c>
+      <c r="B6" s="0">
+        <v>281.976</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.22</v>
+      </c>
+      <c r="B7" s="0">
+        <v>283.1059</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.24</v>
+      </c>
+      <c r="B8" s="0">
+        <v>284.3109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.26</v>
+      </c>
+      <c r="B9" s="0">
+        <v>285.2627</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.28</v>
+      </c>
+      <c r="B10" s="0">
+        <v>286.0642</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.3</v>
+      </c>
+      <c r="B11" s="0">
+        <v>286.737</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.32</v>
+      </c>
+      <c r="B12" s="0">
+        <v>287.3187</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.34</v>
+      </c>
+      <c r="B13" s="0">
+        <v>287.8545</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.36</v>
+      </c>
+      <c r="B14" s="0">
+        <v>288.392</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.38</v>
+      </c>
+      <c r="B15" s="0">
+        <v>288.9682</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.4</v>
+      </c>
+      <c r="B16" s="0">
+        <v>289.6526</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.42</v>
+      </c>
+      <c r="B17" s="0">
+        <v>290.5311</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.44</v>
+      </c>
+      <c r="B18" s="0">
+        <v>291.6959</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.46</v>
+      </c>
+      <c r="B19" s="0">
+        <v>292.8883</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.48</v>
+      </c>
+      <c r="B20" s="0">
+        <v>293.757</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.52</v>
+      </c>
+      <c r="B21" s="0">
+        <v>294.9191</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.54</v>
+      </c>
+      <c r="B22" s="0">
+        <v>295.3135</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.56</v>
+      </c>
+      <c r="B23" s="0">
+        <v>295.6663</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.6</v>
+      </c>
+      <c r="B24" s="0">
+        <v>296.4062</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.62</v>
+      </c>
+      <c r="B25" s="0">
+        <v>296.9449</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.66</v>
+      </c>
+      <c r="B26" s="0">
+        <v>298.2008</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.68</v>
+      </c>
+      <c r="B27" s="0">
+        <v>298.8363</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.7</v>
+      </c>
+      <c r="B28" s="0">
+        <v>299.429</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.74</v>
+      </c>
+      <c r="B29" s="0">
+        <v>300.8296</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.76</v>
+      </c>
+      <c r="B30" s="0">
+        <v>301.6204</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.8</v>
+      </c>
+      <c r="B31" s="0">
+        <v>302.7858</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.82</v>
+      </c>
+      <c r="B32" s="0">
+        <v>303.4808</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.84</v>
+      </c>
+      <c r="B33" s="0">
+        <v>304.4834</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.88</v>
+      </c>
+      <c r="B34" s="0">
+        <v>307.5608</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.1165</v>
+      </c>
+      <c r="B35" s="0">
+        <v>275.2294</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0819</v>
+      </c>
+      <c r="B36" s="0">
+        <v>269.9869</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0507</v>
+      </c>
+      <c r="B37" s="0">
+        <v>262.7785</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.0249</v>
+      </c>
+      <c r="B38" s="0">
+        <v>249.017</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.0071</v>
+      </c>
+      <c r="B39" s="0">
+        <v>228.7025</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.0018</v>
+      </c>
+      <c r="B40" s="0">
+        <v>195.2818</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>-0.0018</v>
+      </c>
+      <c r="B41" s="0">
+        <v>158.5845</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0</v>
+      </c>
+      <c r="B42" s="0">
+        <v>117.9554</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0</v>
+      </c>
+      <c r="B43" s="0">
+        <v>77.3263</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>-0.0009</v>
+      </c>
+      <c r="B44" s="0">
+        <v>38.0079</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.984</v>
+      </c>
+      <c r="B45" s="0">
+        <v>326.3434</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.9466</v>
+      </c>
+      <c r="B46" s="0">
+        <v>317.1691</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.9084</v>
+      </c>
+      <c r="B47" s="0">
+        <v>309.9607</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.8639</v>
+      </c>
+      <c r="B48" s="0">
+        <v>305.3735</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.7722</v>
+      </c>
+      <c r="B49" s="0">
+        <v>300.7864</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.7251</v>
+      </c>
+      <c r="B50" s="0">
+        <v>300.1311</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.6326</v>
+      </c>
+      <c r="B51" s="0">
+        <v>296.8545</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.5863</v>
+      </c>
+      <c r="B52" s="0">
+        <v>294.8886</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.4938</v>
+      </c>
+      <c r="B53" s="0">
+        <v>292.9227</v>
+      </c>
+    </row>
+    <row r="54"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.04</v>
+      </c>
+      <c r="B3" s="0">
+        <v>244.1611</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.06</v>
+      </c>
+      <c r="B4" s="0">
+        <v>253.2418</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.08</v>
+      </c>
+      <c r="B5" s="0">
+        <v>262.0439</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.1</v>
+      </c>
+      <c r="B6" s="0">
+        <v>269.0711</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.12</v>
+      </c>
+      <c r="B7" s="0">
+        <v>274.7338</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.14</v>
+      </c>
+      <c r="B8" s="0">
+        <v>279.4154</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.16</v>
+      </c>
+      <c r="B9" s="0">
+        <v>284.6403</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.18</v>
+      </c>
+      <c r="B10" s="0">
+        <v>289.3565</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2</v>
+      </c>
+      <c r="B11" s="0">
+        <v>293.3192</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.22</v>
+      </c>
+      <c r="B12" s="0">
+        <v>297.4776</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.24</v>
+      </c>
+      <c r="B13" s="0">
+        <v>301.2085</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.26</v>
+      </c>
+      <c r="B14" s="0">
+        <v>303.9919</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.28</v>
+      </c>
+      <c r="B15" s="0">
+        <v>306.865</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3</v>
+      </c>
+      <c r="B16" s="0">
+        <v>309.6776</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.32</v>
+      </c>
+      <c r="B17" s="0">
+        <v>312.884</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.34</v>
+      </c>
+      <c r="B18" s="0">
+        <v>315.9801</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.36</v>
+      </c>
+      <c r="B19" s="0">
+        <v>318.8808</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.38</v>
+      </c>
+      <c r="B20" s="0">
+        <v>321.9921</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.4</v>
+      </c>
+      <c r="B21" s="0">
+        <v>324.8839</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.42</v>
+      </c>
+      <c r="B22" s="0">
+        <v>328.7753</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.44</v>
+      </c>
+      <c r="B23" s="0">
+        <v>332.2212</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.46</v>
+      </c>
+      <c r="B24" s="0">
+        <v>333.502</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.48</v>
+      </c>
+      <c r="B25" s="0">
+        <v>335.1533</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="B26" s="0">
+        <v>337.6843</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.52</v>
+      </c>
+      <c r="B27" s="0">
+        <v>340.2257</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.54</v>
+      </c>
+      <c r="B28" s="0">
+        <v>342.8132</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.56</v>
+      </c>
+      <c r="B29" s="0">
+        <v>345.1231</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.58</v>
+      </c>
+      <c r="B30" s="0">
+        <v>347.548</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.6</v>
+      </c>
+      <c r="B31" s="0">
+        <v>349.9656</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.62</v>
+      </c>
+      <c r="B32" s="0">
+        <v>352.6685</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.64</v>
+      </c>
+      <c r="B33" s="0">
+        <v>355.0253</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.66</v>
+      </c>
+      <c r="B34" s="0">
+        <v>357.1556</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.68</v>
+      </c>
+      <c r="B35" s="0">
+        <v>359.4219</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.7</v>
+      </c>
+      <c r="B36" s="0">
+        <v>362.0214</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.72</v>
+      </c>
+      <c r="B37" s="0">
+        <v>364.4759</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.74</v>
+      </c>
+      <c r="B38" s="0">
+        <v>367.6398</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.76</v>
+      </c>
+      <c r="B39" s="0">
+        <v>369.7345</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.78</v>
+      </c>
+      <c r="B40" s="0">
+        <v>371.0645</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.8</v>
+      </c>
+      <c r="B41" s="0">
+        <v>373.0092</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.82</v>
+      </c>
+      <c r="B42" s="0">
+        <v>374.8083</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.84</v>
+      </c>
+      <c r="B43" s="0">
+        <v>376.8691</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.86</v>
+      </c>
+      <c r="B44" s="0">
+        <v>378.6529</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.88</v>
+      </c>
+      <c r="B45" s="0">
+        <v>380.1804</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="B46" s="0">
+        <v>383.0884</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.92</v>
+      </c>
+      <c r="B47" s="0">
+        <v>388.0965</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.94</v>
+      </c>
+      <c r="B48" s="0">
+        <v>394.7285</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.96</v>
+      </c>
+      <c r="B49" s="0">
+        <v>400.6706</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.98</v>
+      </c>
+      <c r="B50" s="0">
+        <v>407.1443</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.0231</v>
+      </c>
+      <c r="B51" s="0">
+        <v>231.979</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.0044</v>
+      </c>
+      <c r="B52" s="0">
+        <v>203.1455</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.0009</v>
+      </c>
+      <c r="B53" s="0">
+        <v>154.6527</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0</v>
+      </c>
+      <c r="B54" s="0">
+        <v>100.9174</v>
+      </c>
+    </row>
+    <row r="55"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.02</v>
+      </c>
+      <c r="B3" s="0">
+        <v>227.7413</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.04</v>
+      </c>
+      <c r="B4" s="0">
+        <v>282.268</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.06</v>
+      </c>
+      <c r="B5" s="0">
+        <v>299.5784</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.08</v>
+      </c>
+      <c r="B6" s="0">
+        <v>315.3309</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.1</v>
+      </c>
+      <c r="B7" s="0">
+        <v>327.1511</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.12</v>
+      </c>
+      <c r="B8" s="0">
+        <v>338.4696</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.14</v>
+      </c>
+      <c r="B9" s="0">
+        <v>348.578</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.16</v>
+      </c>
+      <c r="B10" s="0">
+        <v>356.4607</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.18</v>
+      </c>
+      <c r="B11" s="0">
+        <v>363.9456</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2</v>
+      </c>
+      <c r="B12" s="0">
+        <v>372.5296</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.22</v>
+      </c>
+      <c r="B13" s="0">
+        <v>379.7902</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.24</v>
+      </c>
+      <c r="B14" s="0">
+        <v>386.1467</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.26</v>
+      </c>
+      <c r="B15" s="0">
+        <v>392.6901</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.28</v>
+      </c>
+      <c r="B16" s="0">
+        <v>397.8257</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3</v>
+      </c>
+      <c r="B17" s="0">
+        <v>402.9469</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.32</v>
+      </c>
+      <c r="B18" s="0">
+        <v>407.6563</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.34</v>
+      </c>
+      <c r="B19" s="0">
+        <v>411.7876</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.36</v>
+      </c>
+      <c r="B20" s="0">
+        <v>415.7694</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.38</v>
+      </c>
+      <c r="B21" s="0">
+        <v>419.4983</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.4</v>
+      </c>
+      <c r="B22" s="0">
+        <v>423.2597</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.42</v>
+      </c>
+      <c r="B23" s="0">
+        <v>427.0541</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.44</v>
+      </c>
+      <c r="B24" s="0">
+        <v>431.2089</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.46</v>
+      </c>
+      <c r="B25" s="0">
+        <v>433.3868</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.48</v>
+      </c>
+      <c r="B26" s="0">
+        <v>434.5421</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="B27" s="0">
+        <v>437.2552</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.52</v>
+      </c>
+      <c r="B28" s="0">
+        <v>440.0738</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.54</v>
+      </c>
+      <c r="B29" s="0">
+        <v>442.0536</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.56</v>
+      </c>
+      <c r="B30" s="0">
+        <v>444.1017</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.58</v>
+      </c>
+      <c r="B31" s="0">
+        <v>446.1714</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.6</v>
+      </c>
+      <c r="B32" s="0">
+        <v>448.0321</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.62</v>
+      </c>
+      <c r="B33" s="0">
+        <v>449.8083</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.64</v>
+      </c>
+      <c r="B34" s="0">
+        <v>451.576</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.66</v>
+      </c>
+      <c r="B35" s="0">
+        <v>452.9093</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.68</v>
+      </c>
+      <c r="B36" s="0">
+        <v>454.4797</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.7</v>
+      </c>
+      <c r="B37" s="0">
+        <v>455.8283</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.72</v>
+      </c>
+      <c r="B38" s="0">
+        <v>457.1519</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.74</v>
+      </c>
+      <c r="B39" s="0">
+        <v>458.7361</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.76</v>
+      </c>
+      <c r="B40" s="0">
+        <v>460.1288</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.78</v>
+      </c>
+      <c r="B41" s="0">
+        <v>461.5241</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.8</v>
+      </c>
+      <c r="B42" s="0">
+        <v>463.1657</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.82</v>
+      </c>
+      <c r="B43" s="0">
+        <v>464.9321</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.84</v>
+      </c>
+      <c r="B44" s="0">
+        <v>466.5236</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.86</v>
+      </c>
+      <c r="B45" s="0">
+        <v>468.1234</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.88</v>
+      </c>
+      <c r="B46" s="0">
+        <v>469.983</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="B47" s="0">
+        <v>473.1747</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.92</v>
+      </c>
+      <c r="B48" s="0">
+        <v>475.9368</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.94</v>
+      </c>
+      <c r="B49" s="0">
+        <v>477.8512</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.96</v>
+      </c>
+      <c r="B50" s="0">
+        <v>481.1053</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.98</v>
+      </c>
+      <c r="B51" s="0">
+        <v>486.8364</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.0311</v>
+      </c>
+      <c r="B52" s="0">
+        <v>272.6081</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.0142</v>
+      </c>
+      <c r="B53" s="0">
+        <v>245.0852</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0.0062</v>
+      </c>
+      <c r="B54" s="0">
+        <v>213.6304</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>0.0018</v>
+      </c>
+      <c r="B55" s="0">
+        <v>173.0013</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>0.0027</v>
+      </c>
+      <c r="B56" s="0">
+        <v>131.7169</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>-0.0009</v>
+      </c>
+      <c r="B57" s="0">
+        <v>85.8453</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>0</v>
+      </c>
+      <c r="B58" s="0">
+        <v>42.595</v>
+      </c>
+    </row>
+    <row r="59"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12553,7 +17495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B48"/>
   <sheetViews>
@@ -12563,7 +17505,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -12939,2208 +17881,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B56"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.24</v>
-      </c>
-      <c r="B3" s="0">
-        <v>525.4106</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.26</v>
-      </c>
-      <c r="B4" s="0">
-        <v>539.1512</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.28</v>
-      </c>
-      <c r="B5" s="0">
-        <v>552.9254</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.3</v>
-      </c>
-      <c r="B6" s="0">
-        <v>564.3366</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.32</v>
-      </c>
-      <c r="B7" s="0">
-        <v>574.3487</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.34</v>
-      </c>
-      <c r="B8" s="0">
-        <v>585.1218</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.36</v>
-      </c>
-      <c r="B9" s="0">
-        <v>594.5931</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.38</v>
-      </c>
-      <c r="B10" s="0">
-        <v>601.2009</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.4</v>
-      </c>
-      <c r="B11" s="0">
-        <v>606.0403</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.42</v>
-      </c>
-      <c r="B12" s="0">
-        <v>613.9224</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.44</v>
-      </c>
-      <c r="B13" s="0">
-        <v>621.1161</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.46</v>
-      </c>
-      <c r="B14" s="0">
-        <v>627.3009</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.48</v>
-      </c>
-      <c r="B15" s="0">
-        <v>633.7912</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="B16" s="0">
-        <v>636.7764</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B17" s="0">
-        <v>641.3451</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B18" s="0">
-        <v>644.7222</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B19" s="0">
-        <v>645.3525</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B20" s="0">
-        <v>647.3568</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B21" s="0">
-        <v>648.7749</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B22" s="0">
-        <v>650.3821</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B23" s="0">
-        <v>653.2462</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B24" s="0">
-        <v>655.4867</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B25" s="0">
-        <v>657.3188</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B26" s="0">
-        <v>659.9625</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B27" s="0">
-        <v>662.6052</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B28" s="0">
-        <v>663.9786</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B29" s="0">
-        <v>666.6647</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B30" s="0">
-        <v>670.4828</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B31" s="0">
-        <v>672.5771</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B32" s="0">
-        <v>676.0157</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B33" s="0">
-        <v>679.7812</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B34" s="0">
-        <v>682.803</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B35" s="0">
-        <v>686.4804</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B36" s="0">
-        <v>689.1866</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B37" s="0">
-        <v>692.3911</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B38" s="0">
-        <v>697.0739</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B39" s="0">
-        <v>701.5646</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B40" s="0">
-        <v>706.9025</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.2116</v>
-      </c>
-      <c r="B41" s="0">
-        <v>502.0325</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.1855</v>
-      </c>
-      <c r="B42" s="0">
-        <v>482.7236</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.1702</v>
-      </c>
-      <c r="B43" s="0">
-        <v>464.4309</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.1563</v>
-      </c>
-      <c r="B44" s="0">
-        <v>451.2195</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.1425</v>
-      </c>
-      <c r="B45" s="0">
-        <v>433.9431</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.1302</v>
-      </c>
-      <c r="B46" s="0">
-        <v>419.7154</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.118</v>
-      </c>
-      <c r="B47" s="0">
-        <v>402.439</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.1072</v>
-      </c>
-      <c r="B48" s="0">
-        <v>380.0813</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.098</v>
-      </c>
-      <c r="B49" s="0">
-        <v>353.6585</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0919</v>
-      </c>
-      <c r="B50" s="0">
-        <v>320.122</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0904</v>
-      </c>
-      <c r="B51" s="0">
-        <v>268.2927</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0905</v>
-      </c>
-      <c r="B52" s="0">
-        <v>214.4309</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0905</v>
-      </c>
-      <c r="B53" s="0">
-        <v>161.5854</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0914</v>
-      </c>
-      <c r="B54" s="0">
-        <v>106.7073</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.0906</v>
-      </c>
-      <c r="B55" s="0">
-        <v>52.8455</v>
-      </c>
-    </row>
-    <row r="56"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.14</v>
-      </c>
-      <c r="B3" s="0">
-        <v>278.7671</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.16</v>
-      </c>
-      <c r="B4" s="0">
-        <v>282.8494</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.18</v>
-      </c>
-      <c r="B5" s="0">
-        <v>286.0738</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.2</v>
-      </c>
-      <c r="B6" s="0">
-        <v>289.0095</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.22</v>
-      </c>
-      <c r="B7" s="0">
-        <v>291.4834</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.24</v>
-      </c>
-      <c r="B8" s="0">
-        <v>292.6244</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.26</v>
-      </c>
-      <c r="B9" s="0">
-        <v>293.8503</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.28</v>
-      </c>
-      <c r="B10" s="0">
-        <v>295.1185</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.3</v>
-      </c>
-      <c r="B11" s="0">
-        <v>296.6155</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.32</v>
-      </c>
-      <c r="B12" s="0">
-        <v>300.6877</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.34</v>
-      </c>
-      <c r="B13" s="0">
-        <v>302.1784</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.36</v>
-      </c>
-      <c r="B14" s="0">
-        <v>299.5189</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.38</v>
-      </c>
-      <c r="B15" s="0">
-        <v>298.7259</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.4</v>
-      </c>
-      <c r="B16" s="0">
-        <v>299.7169</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.42</v>
-      </c>
-      <c r="B17" s="0">
-        <v>301.3908</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.44</v>
-      </c>
-      <c r="B18" s="0">
-        <v>302.3164</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.46</v>
-      </c>
-      <c r="B19" s="0">
-        <v>303.424</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.48</v>
-      </c>
-      <c r="B20" s="0">
-        <v>304.7059</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="B21" s="0">
-        <v>305.7923</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B22" s="0">
-        <v>304.9134</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B23" s="0">
-        <v>306.2647</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B24" s="0">
-        <v>308.255</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B25" s="0">
-        <v>308.2636</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B26" s="0">
-        <v>308.3017</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B27" s="0">
-        <v>308.9918</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B28" s="0">
-        <v>309.2803</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B29" s="0">
-        <v>309.9626</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B30" s="0">
-        <v>312.954</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B31" s="0">
-        <v>314.79</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B32" s="0">
-        <v>315.662</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B33" s="0">
-        <v>317.1247</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B34" s="0">
-        <v>317.6511</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B35" s="0">
-        <v>318.9987</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B36" s="0">
-        <v>320.0716</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B37" s="0">
-        <v>321.8406</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B38" s="0">
-        <v>323.9658</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B39" s="0">
-        <v>325.0023</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B40" s="0">
-        <v>326.3043</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B41" s="0">
-        <v>327.5039</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B42" s="0">
-        <v>329.5514</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B43" s="0">
-        <v>333.2588</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B44" s="0">
-        <v>337.6841</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B45" s="0">
-        <v>344.1322</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9915</v>
-      </c>
-      <c r="B46" s="0">
-        <v>347.5887</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.1261</v>
-      </c>
-      <c r="B47" s="0">
-        <v>272.9078</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.1106</v>
-      </c>
-      <c r="B48" s="0">
-        <v>264.6099</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0974</v>
-      </c>
-      <c r="B49" s="0">
-        <v>248.0142</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0905</v>
-      </c>
-      <c r="B50" s="0">
-        <v>223.1206</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0905</v>
-      </c>
-      <c r="B51" s="0">
-        <v>200.9929</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0905</v>
-      </c>
-      <c r="B52" s="0">
-        <v>188.0851</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.092</v>
-      </c>
-      <c r="B53" s="0">
-        <v>155.8156</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0913</v>
-      </c>
-      <c r="B54" s="0">
-        <v>118.0142</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.0897</v>
-      </c>
-      <c r="B55" s="0">
-        <v>71.9149</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.0889</v>
-      </c>
-      <c r="B56" s="0">
-        <v>23.9716</v>
-      </c>
-    </row>
-    <row r="57"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.18</v>
-      </c>
-      <c r="B3" s="0">
-        <v>312.0291</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.2</v>
-      </c>
-      <c r="B4" s="0">
-        <v>314.1842</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.22</v>
-      </c>
-      <c r="B5" s="0">
-        <v>316.9772</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.26</v>
-      </c>
-      <c r="B6" s="0">
-        <v>322.6746</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.28</v>
-      </c>
-      <c r="B7" s="0">
-        <v>323.7198</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.3</v>
-      </c>
-      <c r="B8" s="0">
-        <v>324.607</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.32</v>
-      </c>
-      <c r="B9" s="0">
-        <v>325.7092</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.34</v>
-      </c>
-      <c r="B10" s="0">
-        <v>326.9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.36</v>
-      </c>
-      <c r="B11" s="0">
-        <v>328.4983</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.38</v>
-      </c>
-      <c r="B12" s="0">
-        <v>330.0849</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.4</v>
-      </c>
-      <c r="B13" s="0">
-        <v>331.8049</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.42</v>
-      </c>
-      <c r="B14" s="0">
-        <v>333.6566</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.44</v>
-      </c>
-      <c r="B15" s="0">
-        <v>335.383</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.46</v>
-      </c>
-      <c r="B16" s="0">
-        <v>337.173</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="B17" s="0">
-        <v>339.0365</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B18" s="0">
-        <v>339.2269</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B19" s="0">
-        <v>339.6249</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B20" s="0">
-        <v>340.4524</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B21" s="0">
-        <v>352.0339</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B22" s="0">
-        <v>352.6271</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B23" s="0">
-        <v>354.144</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B24" s="0">
-        <v>355.6148</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B25" s="0">
-        <v>358.7593</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.1632</v>
-      </c>
-      <c r="B26" s="0">
-        <v>305.1773</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.1469</v>
-      </c>
-      <c r="B27" s="0">
-        <v>302.4113</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.1346</v>
-      </c>
-      <c r="B28" s="0">
-        <v>293.1915</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.1199</v>
-      </c>
-      <c r="B29" s="0">
-        <v>283.9716</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.1067</v>
-      </c>
-      <c r="B30" s="0">
-        <v>270.1418</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.0951</v>
-      </c>
-      <c r="B31" s="0">
-        <v>252.6241</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.0905</v>
-      </c>
-      <c r="B32" s="0">
-        <v>220.3546</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.0897</v>
-      </c>
-      <c r="B33" s="0">
-        <v>177.0213</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.0913</v>
-      </c>
-      <c r="B34" s="0">
-        <v>133.6879</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.0913</v>
-      </c>
-      <c r="B35" s="0">
-        <v>89.4326</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.0913</v>
-      </c>
-      <c r="B36" s="0">
-        <v>45.1773</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.9273</v>
-      </c>
-      <c r="B37" s="0">
-        <v>365.1064</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.8855</v>
-      </c>
-      <c r="B38" s="0">
-        <v>359.5745</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8438</v>
-      </c>
-      <c r="B39" s="0">
-        <v>355.8865</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.7579</v>
-      </c>
-      <c r="B40" s="0">
-        <v>351.2766</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.7154</v>
-      </c>
-      <c r="B41" s="0">
-        <v>350.3546</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.6721</v>
-      </c>
-      <c r="B42" s="0">
-        <v>347.5887</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.6295</v>
-      </c>
-      <c r="B43" s="0">
-        <v>344.8227</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.587</v>
-      </c>
-      <c r="B44" s="0">
-        <v>342.9787</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.2312</v>
-      </c>
-      <c r="B45" s="0">
-        <v>319.9291</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9691</v>
-      </c>
-      <c r="B46" s="0">
-        <v>373.4043</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9807</v>
-      </c>
-      <c r="B47" s="0">
-        <v>376.1702</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.993</v>
-      </c>
-      <c r="B48" s="0">
-        <v>383.5461</v>
-      </c>
-    </row>
-    <row r="49"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.18</v>
-      </c>
-      <c r="B3" s="0">
-        <v>466.5678</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.2</v>
-      </c>
-      <c r="B4" s="0">
-        <v>478.5407</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.22</v>
-      </c>
-      <c r="B5" s="0">
-        <v>489.7892</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.24</v>
-      </c>
-      <c r="B6" s="0">
-        <v>501.4619</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.26</v>
-      </c>
-      <c r="B7" s="0">
-        <v>511.3679</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.28</v>
-      </c>
-      <c r="B8" s="0">
-        <v>519.7445</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.3</v>
-      </c>
-      <c r="B9" s="0">
-        <v>527.2507</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.32</v>
-      </c>
-      <c r="B10" s="0">
-        <v>533.8781</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.34</v>
-      </c>
-      <c r="B11" s="0">
-        <v>539.5247</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.36</v>
-      </c>
-      <c r="B12" s="0">
-        <v>544.216</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.38</v>
-      </c>
-      <c r="B13" s="0">
-        <v>547.9846</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.4</v>
-      </c>
-      <c r="B14" s="0">
-        <v>551.1372</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.42</v>
-      </c>
-      <c r="B15" s="0">
-        <v>554.0433</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.44</v>
-      </c>
-      <c r="B16" s="0">
-        <v>556.7826</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.46</v>
-      </c>
-      <c r="B17" s="0">
-        <v>559.2809</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.48</v>
-      </c>
-      <c r="B18" s="0">
-        <v>561.5474</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="B19" s="0">
-        <v>563.7049</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B20" s="0">
-        <v>565.8715</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B21" s="0">
-        <v>568.2521</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B22" s="0">
-        <v>570.6505</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B23" s="0">
-        <v>572.5246</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B24" s="0">
-        <v>573.9477</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B25" s="0">
-        <v>574.8101</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B26" s="0">
-        <v>575.9561</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B27" s="0">
-        <v>578.2495</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B28" s="0">
-        <v>581.1572</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B29" s="0">
-        <v>584.0481</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B30" s="0">
-        <v>586.2396</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B31" s="0">
-        <v>587.7803</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B32" s="0">
-        <v>589.3423</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B33" s="0">
-        <v>591.1781</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B34" s="0">
-        <v>593.066</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B35" s="0">
-        <v>594.7089</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B36" s="0">
-        <v>596.2372</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B37" s="0">
-        <v>598.0019</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B38" s="0">
-        <v>599.9911</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B39" s="0">
-        <v>602.1455</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B40" s="0">
-        <v>605.4603</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B41" s="0">
-        <v>611.2288</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.1624</v>
-      </c>
-      <c r="B42" s="0">
-        <v>451.773</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.1477</v>
-      </c>
-      <c r="B43" s="0">
-        <v>440.7092</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.1346</v>
-      </c>
-      <c r="B44" s="0">
-        <v>422.2695</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.123</v>
-      </c>
-      <c r="B45" s="0">
-        <v>405.6738</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.1083</v>
-      </c>
-      <c r="B46" s="0">
-        <v>386.3121</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.1005</v>
-      </c>
-      <c r="B47" s="0">
-        <v>360.4965</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0928</v>
-      </c>
-      <c r="B48" s="0">
-        <v>332.8369</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.092</v>
-      </c>
-      <c r="B49" s="0">
-        <v>281.2057</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0905</v>
-      </c>
-      <c r="B50" s="0">
-        <v>224.0426</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0905</v>
-      </c>
-      <c r="B51" s="0">
-        <v>167.8014</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0913</v>
-      </c>
-      <c r="B52" s="0">
-        <v>113.4043</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0913</v>
-      </c>
-      <c r="B53" s="0">
-        <v>58.0851</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.9776</v>
-      </c>
-      <c r="B54" s="0">
-        <v>617.7305</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.9899</v>
-      </c>
-      <c r="B55" s="0">
-        <v>626.0284</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.9575</v>
-      </c>
-      <c r="B56" s="0">
-        <v>610.3546</v>
-      </c>
-    </row>
-    <row r="57"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.14</v>
-      </c>
-      <c r="B3" s="0">
-        <v>279.327</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.16</v>
-      </c>
-      <c r="B4" s="0">
-        <v>280.8598</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.18</v>
-      </c>
-      <c r="B5" s="0">
-        <v>281.3139</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.2</v>
-      </c>
-      <c r="B6" s="0">
-        <v>281.976</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.22</v>
-      </c>
-      <c r="B7" s="0">
-        <v>283.1059</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.24</v>
-      </c>
-      <c r="B8" s="0">
-        <v>284.3109</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.26</v>
-      </c>
-      <c r="B9" s="0">
-        <v>285.2627</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.28</v>
-      </c>
-      <c r="B10" s="0">
-        <v>286.0642</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.3</v>
-      </c>
-      <c r="B11" s="0">
-        <v>286.737</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.32</v>
-      </c>
-      <c r="B12" s="0">
-        <v>287.3187</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.34</v>
-      </c>
-      <c r="B13" s="0">
-        <v>287.8545</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.36</v>
-      </c>
-      <c r="B14" s="0">
-        <v>288.392</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.38</v>
-      </c>
-      <c r="B15" s="0">
-        <v>288.9682</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.4</v>
-      </c>
-      <c r="B16" s="0">
-        <v>289.6526</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.42</v>
-      </c>
-      <c r="B17" s="0">
-        <v>290.5311</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.44</v>
-      </c>
-      <c r="B18" s="0">
-        <v>291.6959</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.46</v>
-      </c>
-      <c r="B19" s="0">
-        <v>292.8883</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.48</v>
-      </c>
-      <c r="B20" s="0">
-        <v>293.757</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B21" s="0">
-        <v>294.9191</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B22" s="0">
-        <v>295.3135</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B23" s="0">
-        <v>295.6663</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B24" s="0">
-        <v>296.4062</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B25" s="0">
-        <v>296.9449</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B26" s="0">
-        <v>298.2008</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B27" s="0">
-        <v>298.8363</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B28" s="0">
-        <v>299.429</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B29" s="0">
-        <v>300.8296</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B30" s="0">
-        <v>301.6204</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B31" s="0">
-        <v>302.7858</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B32" s="0">
-        <v>303.4808</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B33" s="0">
-        <v>304.4834</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B34" s="0">
-        <v>307.5608</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.1165</v>
-      </c>
-      <c r="B35" s="0">
-        <v>275.2294</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.0819</v>
-      </c>
-      <c r="B36" s="0">
-        <v>269.9869</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.0507</v>
-      </c>
-      <c r="B37" s="0">
-        <v>262.7785</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.0249</v>
-      </c>
-      <c r="B38" s="0">
-        <v>249.017</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.0071</v>
-      </c>
-      <c r="B39" s="0">
-        <v>228.7025</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.0018</v>
-      </c>
-      <c r="B40" s="0">
-        <v>195.2818</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>-0.0018</v>
-      </c>
-      <c r="B41" s="0">
-        <v>158.5845</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0</v>
-      </c>
-      <c r="B42" s="0">
-        <v>117.9554</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0</v>
-      </c>
-      <c r="B43" s="0">
-        <v>77.3263</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>-0.0009</v>
-      </c>
-      <c r="B44" s="0">
-        <v>38.0079</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.984</v>
-      </c>
-      <c r="B45" s="0">
-        <v>326.3434</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9466</v>
-      </c>
-      <c r="B46" s="0">
-        <v>317.1691</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9084</v>
-      </c>
-      <c r="B47" s="0">
-        <v>309.9607</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.8639</v>
-      </c>
-      <c r="B48" s="0">
-        <v>305.3735</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.7722</v>
-      </c>
-      <c r="B49" s="0">
-        <v>300.7864</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.7251</v>
-      </c>
-      <c r="B50" s="0">
-        <v>300.1311</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.6326</v>
-      </c>
-      <c r="B51" s="0">
-        <v>296.8545</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.5863</v>
-      </c>
-      <c r="B52" s="0">
-        <v>294.8886</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.4938</v>
-      </c>
-      <c r="B53" s="0">
-        <v>292.9227</v>
-      </c>
-    </row>
-    <row r="54"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/ArticleManage/main_working_folder/output_folders/Data 74 Preparation and evaluation of/Data74_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 74 Preparation and evaluation of/Data74_all_graphs_excel.xlsx
@@ -12233,7 +12233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12254,413 +12254,261 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.1</v>
+        <v>0.9928</v>
       </c>
       <c r="B3" s="0">
-        <v>200.2253</v>
+        <v>262.2785</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.12</v>
+        <v>0.9828</v>
       </c>
       <c r="B4" s="0">
-        <v>201.9309</v>
+        <v>256.7089</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.14</v>
+        <v>0.9458</v>
       </c>
       <c r="B5" s="0">
-        <v>202.9698</v>
+        <v>248.1013</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.16</v>
+        <v>0.9042</v>
       </c>
       <c r="B6" s="0">
-        <v>204.22</v>
+        <v>241.0127</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.18</v>
+        <v>0.8626</v>
       </c>
       <c r="B7" s="0">
-        <v>204.9242</v>
+        <v>236.4557</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.2</v>
+        <v>0.8192</v>
       </c>
       <c r="B8" s="0">
-        <v>205.6995</v>
+        <v>232.9114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.22</v>
+        <v>0.7749</v>
       </c>
       <c r="B9" s="0">
-        <v>206.5211</v>
+        <v>229.3671</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.24</v>
+        <v>0.7315</v>
       </c>
       <c r="B10" s="0">
-        <v>207.1638</v>
+        <v>225.8228</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.26</v>
+        <v>0.6863</v>
       </c>
       <c r="B11" s="0">
-        <v>207.8964</v>
+        <v>223.2911</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.28</v>
+        <v>0.641</v>
       </c>
       <c r="B12" s="0">
-        <v>208.8959</v>
+        <v>220.7595</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3</v>
+        <v>0.5949</v>
       </c>
       <c r="B13" s="0">
-        <v>209.3546</v>
+        <v>218.7342</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.32</v>
+        <v>0.5488</v>
       </c>
       <c r="B14" s="0">
-        <v>209.8389</v>
+        <v>216.7089</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.34</v>
+        <v>0.5018</v>
       </c>
       <c r="B15" s="0">
-        <v>210.8158</v>
+        <v>215.1899</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.36</v>
+        <v>0.4557</v>
       </c>
       <c r="B16" s="0">
-        <v>211.301</v>
+        <v>213.6709</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.38</v>
+        <v>0.4096</v>
       </c>
       <c r="B17" s="0">
-        <v>212.0748</v>
+        <v>212.6582</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5</v>
+        <v>0.3626</v>
       </c>
       <c r="B18" s="0">
-        <v>215.3005</v>
+        <v>211.6456</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.52</v>
+        <v>0.3454</v>
       </c>
       <c r="B19" s="0">
-        <v>215.8458</v>
+        <v>211.1392</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.54</v>
+        <v>0.3146</v>
       </c>
       <c r="B20" s="0">
-        <v>216.5556</v>
+        <v>209.6203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.56</v>
+        <v>0.292</v>
       </c>
       <c r="B21" s="0">
-        <v>217.0144</v>
+        <v>209.1139</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.58</v>
+        <v>0.2758</v>
       </c>
       <c r="B22" s="0">
-        <v>217.711</v>
+        <v>208.6076</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.6</v>
+        <v>0.2369</v>
       </c>
       <c r="B23" s="0">
-        <v>218.2181</v>
+        <v>207.5949</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.62</v>
+        <v>0.198</v>
       </c>
       <c r="B24" s="0">
-        <v>219.423</v>
+        <v>206.0759</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.64</v>
+        <v>0.1844</v>
       </c>
       <c r="B25" s="0">
-        <v>220.4106</v>
+        <v>205.0633</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.66</v>
+        <v>0.16</v>
       </c>
       <c r="B26" s="0">
-        <v>221.2576</v>
+        <v>204.557</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.68</v>
+        <v>0.1239</v>
       </c>
       <c r="B27" s="0">
-        <v>222.5921</v>
+        <v>202.5316</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.7</v>
+        <v>0.0859</v>
       </c>
       <c r="B28" s="0">
-        <v>223.5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.72</v>
+        <v>0.0497</v>
       </c>
       <c r="B29" s="0">
-        <v>224.8638</v>
+        <v>195.443</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.74</v>
+        <v>0.0181</v>
       </c>
       <c r="B30" s="0">
-        <v>226.0272</v>
+        <v>188.8608</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="B31" s="0">
-        <v>227.614</v>
+        <v>170.6329</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="B32" s="0">
-        <v>228.7008</v>
+        <v>136.2025</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="B33" s="0">
-        <v>230.4928</v>
+        <v>68.8608</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.82</v>
+        <v>-0.0009</v>
       </c>
       <c r="B34" s="0">
-        <v>232.1148</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B35" s="0">
-        <v>233.7643</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B36" s="0">
-        <v>235.7231</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B37" s="0">
-        <v>237.5842</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B38" s="0">
-        <v>239.9546</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B39" s="0">
-        <v>242.91</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B40" s="0">
-        <v>246.9545</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B41" s="0">
-        <v>250.6382</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B42" s="0">
-        <v>256.4077</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.0497</v>
-      </c>
-      <c r="B43" s="0">
-        <v>195.9494</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.0859</v>
-      </c>
-      <c r="B44" s="0">
-        <v>199.4937</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.0181</v>
-      </c>
-      <c r="B45" s="0">
-        <v>188.8608</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0</v>
-      </c>
-      <c r="B46" s="0">
-        <v>170.6329</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>-0.0009</v>
-      </c>
-      <c r="B47" s="0">
-        <v>136.7089</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>-0.0009</v>
-      </c>
-      <c r="B48" s="0">
-        <v>69.3671</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0</v>
-      </c>
-      <c r="B49" s="0">
-        <v>33.9241</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.4566</v>
-      </c>
-      <c r="B50" s="0">
-        <v>214.1772</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.4783</v>
-      </c>
-      <c r="B51" s="0">
-        <v>214.6835</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.434</v>
-      </c>
-      <c r="B52" s="0">
-        <v>212.6582</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.4087</v>
-      </c>
-      <c r="B53" s="0">
-        <v>212.6582</v>
-      </c>
-    </row>
-    <row r="54"/>
+        <v>35.443</v>
+      </c>
+    </row>
+    <row r="35"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -12669,7 +12517,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12690,429 +12538,301 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.24</v>
+        <v>0.1702</v>
       </c>
       <c r="B3" s="0">
-        <v>525.4106</v>
+        <v>464.4309</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.26</v>
+        <v>0.1563</v>
       </c>
       <c r="B4" s="0">
-        <v>539.1512</v>
+        <v>451.2195</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.28</v>
+        <v>0.1425</v>
       </c>
       <c r="B5" s="0">
-        <v>552.9254</v>
+        <v>433.9431</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.3</v>
+        <v>0.1302</v>
       </c>
       <c r="B6" s="0">
-        <v>564.3366</v>
+        <v>419.7154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.32</v>
+        <v>0.118</v>
       </c>
       <c r="B7" s="0">
-        <v>574.3487</v>
+        <v>402.439</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.34</v>
+        <v>0.1072</v>
       </c>
       <c r="B8" s="0">
-        <v>585.1218</v>
+        <v>380.0813</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.36</v>
+        <v>0.098</v>
       </c>
       <c r="B9" s="0">
-        <v>594.5931</v>
+        <v>353.6585</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.38</v>
+        <v>0.0919</v>
       </c>
       <c r="B10" s="0">
-        <v>601.2009</v>
+        <v>320.122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.4</v>
+        <v>0.0904</v>
       </c>
       <c r="B11" s="0">
-        <v>606.0403</v>
+        <v>268.2927</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.42</v>
+        <v>0.0905</v>
       </c>
       <c r="B12" s="0">
-        <v>613.9224</v>
+        <v>214.4309</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.44</v>
+        <v>0.0905</v>
       </c>
       <c r="B13" s="0">
-        <v>621.1161</v>
+        <v>161.5854</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.46</v>
+        <v>0.0914</v>
       </c>
       <c r="B14" s="0">
-        <v>627.3009</v>
+        <v>106.7073</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.48</v>
+        <v>0.0906</v>
       </c>
       <c r="B15" s="0">
-        <v>633.7912</v>
+        <v>52.8455</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.5</v>
+        <v>0.184</v>
       </c>
       <c r="B16" s="0">
-        <v>636.7764</v>
+        <v>478.6585</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.52</v>
+        <v>0.2132</v>
       </c>
       <c r="B17" s="0">
-        <v>641.3451</v>
+        <v>503.0488</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.54</v>
+        <v>0.2416</v>
       </c>
       <c r="B18" s="0">
-        <v>644.7222</v>
+        <v>525.4065</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.56</v>
+        <v>0.2708</v>
       </c>
       <c r="B19" s="0">
-        <v>645.3525</v>
+        <v>544.7154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.58</v>
+        <v>0.3023</v>
       </c>
       <c r="B20" s="0">
-        <v>647.3568</v>
+        <v>561.9919</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6</v>
+        <v>0.3315</v>
       </c>
       <c r="B21" s="0">
-        <v>648.7749</v>
+        <v>582.3171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.62</v>
+        <v>0.3637</v>
       </c>
       <c r="B22" s="0">
-        <v>650.3821</v>
+        <v>596.5447</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.64</v>
+        <v>0.3768</v>
       </c>
       <c r="B23" s="0">
-        <v>653.2462</v>
+        <v>601.626</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.66</v>
+        <v>0.4029</v>
       </c>
       <c r="B24" s="0">
-        <v>655.4867</v>
+        <v>605.6911</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.68</v>
+        <v>0.4421</v>
       </c>
       <c r="B25" s="0">
-        <v>657.3188</v>
+        <v>616.8699</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.7</v>
+        <v>0.4836</v>
       </c>
       <c r="B26" s="0">
-        <v>659.9625</v>
+        <v>632.1138</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.72</v>
+        <v>0.5243</v>
       </c>
       <c r="B27" s="0">
-        <v>662.6052</v>
+        <v>639.2276</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.74</v>
+        <v>0.5658</v>
       </c>
       <c r="B28" s="0">
-        <v>663.9786</v>
+        <v>645.3252</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.76</v>
+        <v>0.6066</v>
       </c>
       <c r="B29" s="0">
-        <v>666.6647</v>
+        <v>649.3902</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.78</v>
+        <v>0.6481</v>
       </c>
       <c r="B30" s="0">
-        <v>670.4828</v>
+        <v>656.5041</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.8</v>
+        <v>0.6911</v>
       </c>
       <c r="B31" s="0">
-        <v>672.5771</v>
+        <v>659.5528</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.82</v>
+        <v>0.7318</v>
       </c>
       <c r="B32" s="0">
-        <v>676.0157</v>
+        <v>664.6341</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.84</v>
+        <v>0.7741</v>
       </c>
       <c r="B33" s="0">
-        <v>679.7812</v>
+        <v>667.6829</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.86</v>
+        <v>0.8156</v>
       </c>
       <c r="B34" s="0">
-        <v>682.803</v>
+        <v>674.7967</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.88</v>
+        <v>0.8571</v>
       </c>
       <c r="B35" s="0">
-        <v>686.4804</v>
+        <v>680.8943</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.9</v>
+        <v>0.8971</v>
       </c>
       <c r="B36" s="0">
-        <v>689.1866</v>
+        <v>685.9756</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.92</v>
+        <v>0.9386</v>
       </c>
       <c r="B37" s="0">
-        <v>692.3911</v>
+        <v>694.1057</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.94</v>
+        <v>0.9785</v>
       </c>
       <c r="B38" s="0">
-        <v>697.0739</v>
+        <v>704.2683</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.96</v>
+        <v>0.9885</v>
       </c>
       <c r="B39" s="0">
-        <v>701.5646</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B40" s="0">
-        <v>706.9025</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.2116</v>
-      </c>
-      <c r="B41" s="0">
-        <v>502.0325</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.1855</v>
-      </c>
-      <c r="B42" s="0">
-        <v>482.7236</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.1702</v>
-      </c>
-      <c r="B43" s="0">
-        <v>464.4309</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.1563</v>
-      </c>
-      <c r="B44" s="0">
-        <v>451.2195</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.1425</v>
-      </c>
-      <c r="B45" s="0">
-        <v>433.9431</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.1302</v>
-      </c>
-      <c r="B46" s="0">
-        <v>419.7154</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.118</v>
-      </c>
-      <c r="B47" s="0">
-        <v>402.439</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.1072</v>
-      </c>
-      <c r="B48" s="0">
-        <v>380.0813</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.098</v>
-      </c>
-      <c r="B49" s="0">
-        <v>353.6585</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0919</v>
-      </c>
-      <c r="B50" s="0">
-        <v>320.122</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0904</v>
-      </c>
-      <c r="B51" s="0">
-        <v>268.2927</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0905</v>
-      </c>
-      <c r="B52" s="0">
-        <v>214.4309</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0905</v>
-      </c>
-      <c r="B53" s="0">
-        <v>161.5854</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0914</v>
-      </c>
-      <c r="B54" s="0">
-        <v>106.7073</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.0906</v>
-      </c>
-      <c r="B55" s="0">
-        <v>52.8455</v>
-      </c>
-    </row>
-    <row r="56"/>
+        <v>711.3821</v>
+      </c>
+    </row>
+    <row r="40"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -13121,7 +12841,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13142,437 +12862,309 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.14</v>
+        <v>0.0897</v>
       </c>
       <c r="B3" s="0">
-        <v>278.7671</v>
+        <v>71.9149</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.16</v>
+        <v>0.0889</v>
       </c>
       <c r="B4" s="0">
-        <v>282.8494</v>
+        <v>23.9716</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.18</v>
+        <v>0.0897</v>
       </c>
       <c r="B5" s="0">
-        <v>286.0738</v>
+        <v>150.2837</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.2</v>
+        <v>0.0889</v>
       </c>
       <c r="B6" s="0">
-        <v>289.0095</v>
+        <v>196.383</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.22</v>
+        <v>0.0928</v>
       </c>
       <c r="B7" s="0">
-        <v>291.4834</v>
+        <v>239.7163</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.24</v>
+        <v>0.0982</v>
       </c>
       <c r="B8" s="0">
-        <v>292.6244</v>
+        <v>251.7021</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.26</v>
+        <v>0.1067</v>
       </c>
       <c r="B9" s="0">
-        <v>293.8503</v>
+        <v>261.844</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.28</v>
+        <v>0.1183</v>
       </c>
       <c r="B10" s="0">
-        <v>295.1185</v>
+        <v>268.2979</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.3</v>
+        <v>0.1261</v>
       </c>
       <c r="B11" s="0">
-        <v>296.6155</v>
+        <v>271.9858</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.32</v>
+        <v>0.1338</v>
       </c>
       <c r="B12" s="0">
-        <v>300.6877</v>
+        <v>276.5957</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.34</v>
+        <v>0.1415</v>
       </c>
       <c r="B13" s="0">
-        <v>302.1784</v>
+        <v>279.3617</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.36</v>
+        <v>0.1485</v>
       </c>
       <c r="B14" s="0">
-        <v>299.5189</v>
+        <v>281.2057</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.38</v>
+        <v>0.1562</v>
       </c>
       <c r="B15" s="0">
-        <v>298.7259</v>
+        <v>283.0496</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4</v>
+        <v>0.1663</v>
       </c>
       <c r="B16" s="0">
-        <v>299.7169</v>
+        <v>284.8936</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.42</v>
+        <v>0.1748</v>
       </c>
       <c r="B17" s="0">
-        <v>301.3908</v>
+        <v>286.7376</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.44</v>
+        <v>0.1825</v>
       </c>
       <c r="B18" s="0">
-        <v>302.3164</v>
+        <v>287.6596</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.46</v>
+        <v>0.215</v>
       </c>
       <c r="B19" s="0">
-        <v>303.424</v>
+        <v>292.2695</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.48</v>
+        <v>0.2405</v>
       </c>
       <c r="B20" s="0">
-        <v>304.7059</v>
+        <v>294.1135</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5</v>
+        <v>0.2514</v>
       </c>
       <c r="B21" s="0">
-        <v>305.7923</v>
+        <v>294.1135</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.52</v>
+        <v>0.2838</v>
       </c>
       <c r="B22" s="0">
-        <v>304.9134</v>
+        <v>295.9574</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.54</v>
+        <v>0.3202</v>
       </c>
       <c r="B23" s="0">
-        <v>306.2647</v>
+        <v>298.7234</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.56</v>
+        <v>0.355</v>
       </c>
       <c r="B24" s="0">
-        <v>308.255</v>
+        <v>300.5674</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.58</v>
+        <v>0.3906</v>
       </c>
       <c r="B25" s="0">
-        <v>308.2636</v>
+        <v>301.4894</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.6</v>
+        <v>0.4339</v>
       </c>
       <c r="B26" s="0">
-        <v>308.3017</v>
+        <v>303.3333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.62</v>
+        <v>0.4764</v>
       </c>
       <c r="B27" s="0">
-        <v>308.9918</v>
+        <v>305.1773</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.64</v>
+        <v>0.5197</v>
       </c>
       <c r="B28" s="0">
-        <v>309.2803</v>
+        <v>307.9433</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.66</v>
+        <v>0.5615</v>
       </c>
       <c r="B29" s="0">
-        <v>309.9626</v>
+        <v>307.9433</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.68</v>
+        <v>0.6056</v>
       </c>
       <c r="B30" s="0">
-        <v>312.954</v>
+        <v>308.8652</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.7</v>
+        <v>0.6481</v>
       </c>
       <c r="B31" s="0">
-        <v>314.79</v>
+        <v>310.7092</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.72</v>
+        <v>0.6899</v>
       </c>
       <c r="B32" s="0">
-        <v>315.662</v>
+        <v>312.5532</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.74</v>
+        <v>0.7316</v>
       </c>
       <c r="B33" s="0">
-        <v>317.1247</v>
+        <v>315.3191</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.76</v>
+        <v>0.7749</v>
       </c>
       <c r="B34" s="0">
-        <v>317.6511</v>
+        <v>317.1631</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.78</v>
+        <v>0.8167</v>
       </c>
       <c r="B35" s="0">
-        <v>318.9987</v>
+        <v>319.0071</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.8</v>
+        <v>0.8585</v>
       </c>
       <c r="B36" s="0">
-        <v>320.0716</v>
+        <v>321.773</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.82</v>
+        <v>0.8995</v>
       </c>
       <c r="B37" s="0">
-        <v>321.8406</v>
+        <v>325.461</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.84</v>
+        <v>0.942</v>
       </c>
       <c r="B38" s="0">
-        <v>323.9658</v>
+        <v>329.1489</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.86</v>
+        <v>0.9799</v>
       </c>
       <c r="B39" s="0">
-        <v>325.0023</v>
+        <v>341.1348</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.88</v>
+        <v>0.9907</v>
       </c>
       <c r="B40" s="0">
-        <v>326.3043</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B41" s="0">
-        <v>327.5039</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B42" s="0">
-        <v>329.5514</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B43" s="0">
-        <v>333.2588</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B44" s="0">
-        <v>337.6841</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B45" s="0">
-        <v>344.1322</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9915</v>
-      </c>
-      <c r="B46" s="0">
-        <v>347.5887</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.1261</v>
-      </c>
-      <c r="B47" s="0">
-        <v>272.9078</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.1106</v>
-      </c>
-      <c r="B48" s="0">
-        <v>264.6099</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0974</v>
-      </c>
-      <c r="B49" s="0">
-        <v>248.0142</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0905</v>
-      </c>
-      <c r="B50" s="0">
-        <v>223.1206</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0905</v>
-      </c>
-      <c r="B51" s="0">
-        <v>200.9929</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0905</v>
-      </c>
-      <c r="B52" s="0">
-        <v>188.0851</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.092</v>
-      </c>
-      <c r="B53" s="0">
-        <v>155.8156</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0913</v>
-      </c>
-      <c r="B54" s="0">
-        <v>118.0142</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.0897</v>
-      </c>
-      <c r="B55" s="0">
-        <v>71.9149</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.0889</v>
-      </c>
-      <c r="B56" s="0">
-        <v>23.9716</v>
-      </c>
-    </row>
-    <row r="57"/>
+        <v>349.4326</v>
+      </c>
+    </row>
+    <row r="41"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -13581,7 +13173,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13602,373 +13194,269 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.18</v>
+        <v>0.1632</v>
       </c>
       <c r="B3" s="0">
-        <v>312.0291</v>
+        <v>305.1773</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.2</v>
+        <v>0.1477</v>
       </c>
       <c r="B4" s="0">
-        <v>314.1842</v>
+        <v>301.0284</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.22</v>
+        <v>0.133</v>
       </c>
       <c r="B5" s="0">
-        <v>316.9772</v>
+        <v>293.1915</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.26</v>
+        <v>0.1199</v>
       </c>
       <c r="B6" s="0">
-        <v>322.6746</v>
+        <v>283.9716</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.28</v>
+        <v>0.1067</v>
       </c>
       <c r="B7" s="0">
-        <v>323.7198</v>
+        <v>270.1418</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.3</v>
+        <v>0.0951</v>
       </c>
       <c r="B8" s="0">
-        <v>324.607</v>
+        <v>252.6241</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.32</v>
+        <v>0.0905</v>
       </c>
       <c r="B9" s="0">
-        <v>325.7092</v>
+        <v>220.3546</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.34</v>
+        <v>0.0897</v>
       </c>
       <c r="B10" s="0">
-        <v>326.9</v>
+        <v>177.0213</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.36</v>
+        <v>0.0913</v>
       </c>
       <c r="B11" s="0">
-        <v>328.4983</v>
+        <v>133.6879</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.38</v>
+        <v>0.0913</v>
       </c>
       <c r="B12" s="0">
-        <v>330.0849</v>
+        <v>89.4326</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4</v>
+        <v>0.0913</v>
       </c>
       <c r="B13" s="0">
-        <v>331.8049</v>
+        <v>45.1773</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.42</v>
+        <v>0.1794</v>
       </c>
       <c r="B14" s="0">
-        <v>333.6566</v>
+        <v>311.6312</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.44</v>
+        <v>0.1964</v>
       </c>
       <c r="B15" s="0">
-        <v>335.383</v>
+        <v>316.2411</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.46</v>
+        <v>0.2312</v>
       </c>
       <c r="B16" s="0">
-        <v>337.173</v>
+        <v>320.8511</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.5</v>
+        <v>0.2622</v>
       </c>
       <c r="B17" s="0">
-        <v>339.0365</v>
+        <v>322.695</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.52</v>
+        <v>0.3109</v>
       </c>
       <c r="B18" s="0">
-        <v>339.2269</v>
+        <v>323.617</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.54</v>
+        <v>0.3627</v>
       </c>
       <c r="B19" s="0">
-        <v>339.6249</v>
+        <v>324.539</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.56</v>
+        <v>0.4215</v>
       </c>
       <c r="B20" s="0">
-        <v>340.4524</v>
+        <v>332.8369</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.74</v>
+        <v>0.4578</v>
       </c>
       <c r="B21" s="0">
-        <v>352.0339</v>
+        <v>335.6028</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.78</v>
+        <v>0.5004</v>
       </c>
       <c r="B22" s="0">
-        <v>352.6271</v>
+        <v>339.2908</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.8</v>
+        <v>0.5437</v>
       </c>
       <c r="B23" s="0">
-        <v>354.144</v>
+        <v>341.1348</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.82</v>
+        <v>0.587</v>
       </c>
       <c r="B24" s="0">
-        <v>355.6148</v>
+        <v>342.9787</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.86</v>
+        <v>0.6303</v>
       </c>
       <c r="B25" s="0">
-        <v>358.7593</v>
+        <v>344.8227</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.1632</v>
+        <v>0.6721</v>
       </c>
       <c r="B26" s="0">
-        <v>305.1773</v>
+        <v>346.6667</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.1469</v>
+        <v>0.7162</v>
       </c>
       <c r="B27" s="0">
-        <v>302.4113</v>
+        <v>348.5106</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.1346</v>
+        <v>0.7572</v>
       </c>
       <c r="B28" s="0">
-        <v>293.1915</v>
+        <v>350.3546</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.1199</v>
+        <v>0.7997</v>
       </c>
       <c r="B29" s="0">
-        <v>283.9716</v>
+        <v>354.9645</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.1067</v>
+        <v>0.8438</v>
       </c>
       <c r="B30" s="0">
-        <v>270.1418</v>
+        <v>356.8085</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0951</v>
+        <v>0.8863</v>
       </c>
       <c r="B31" s="0">
-        <v>252.6241</v>
+        <v>360.4965</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0905</v>
+        <v>0.9281</v>
       </c>
       <c r="B32" s="0">
-        <v>220.3546</v>
+        <v>366.0284</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0897</v>
+        <v>0.9683</v>
       </c>
       <c r="B33" s="0">
-        <v>177.0213</v>
+        <v>372.4823</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0913</v>
+        <v>0.9807</v>
       </c>
       <c r="B34" s="0">
-        <v>133.6879</v>
+        <v>378.0142</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.0913</v>
+        <v>0.993</v>
       </c>
       <c r="B35" s="0">
-        <v>89.4326</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.0913</v>
-      </c>
-      <c r="B36" s="0">
-        <v>45.1773</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.9273</v>
-      </c>
-      <c r="B37" s="0">
-        <v>365.1064</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.8855</v>
-      </c>
-      <c r="B38" s="0">
-        <v>359.5745</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8438</v>
-      </c>
-      <c r="B39" s="0">
-        <v>355.8865</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.7579</v>
-      </c>
-      <c r="B40" s="0">
-        <v>351.2766</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.7154</v>
-      </c>
-      <c r="B41" s="0">
-        <v>350.3546</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.6721</v>
-      </c>
-      <c r="B42" s="0">
-        <v>347.5887</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.6295</v>
-      </c>
-      <c r="B43" s="0">
-        <v>344.8227</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.587</v>
-      </c>
-      <c r="B44" s="0">
-        <v>342.9787</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.2312</v>
-      </c>
-      <c r="B45" s="0">
-        <v>319.9291</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9691</v>
-      </c>
-      <c r="B46" s="0">
-        <v>373.4043</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9807</v>
-      </c>
-      <c r="B47" s="0">
-        <v>376.1702</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.993</v>
-      </c>
-      <c r="B48" s="0">
         <v>383.5461</v>
       </c>
     </row>
-    <row r="49"/>
+    <row r="36"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -13977,7 +13465,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13998,437 +13486,301 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.18</v>
+        <v>0.1481</v>
       </c>
       <c r="B3" s="0">
-        <v>466.5678</v>
+        <v>437.9433</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.2</v>
+        <v>0.135</v>
       </c>
       <c r="B4" s="0">
-        <v>478.5407</v>
+        <v>422.7305</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.22</v>
+        <v>0.1222</v>
       </c>
       <c r="B5" s="0">
-        <v>489.7892</v>
+        <v>406.1348</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.24</v>
+        <v>0.1102</v>
       </c>
       <c r="B6" s="0">
-        <v>501.4619</v>
+        <v>385.8511</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.26</v>
+        <v>0.1002</v>
       </c>
       <c r="B7" s="0">
-        <v>511.3679</v>
+        <v>361.4184</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.28</v>
+        <v>0.0928</v>
       </c>
       <c r="B8" s="0">
-        <v>519.7445</v>
+        <v>329.6099</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.3</v>
+        <v>0.0913</v>
       </c>
       <c r="B9" s="0">
-        <v>527.2507</v>
+        <v>278.9007</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.32</v>
+        <v>0.0905</v>
       </c>
       <c r="B10" s="0">
-        <v>533.8781</v>
+        <v>224.0426</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.34</v>
+        <v>0.0905</v>
       </c>
       <c r="B11" s="0">
-        <v>539.5247</v>
+        <v>167.8014</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.36</v>
+        <v>0.0913</v>
       </c>
       <c r="B12" s="0">
-        <v>544.216</v>
+        <v>113.4043</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.38</v>
+        <v>0.0913</v>
       </c>
       <c r="B13" s="0">
-        <v>547.9846</v>
+        <v>58.0851</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4</v>
+        <v>0.1632</v>
       </c>
       <c r="B14" s="0">
-        <v>551.1372</v>
+        <v>451.773</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.42</v>
+        <v>0.1756</v>
       </c>
       <c r="B15" s="0">
-        <v>554.0433</v>
+        <v>463.7589</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.44</v>
+        <v>0.1903</v>
       </c>
       <c r="B16" s="0">
-        <v>556.7826</v>
+        <v>476.6667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.46</v>
+        <v>0.2212</v>
       </c>
       <c r="B17" s="0">
-        <v>559.2809</v>
+        <v>495.1064</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.48</v>
+        <v>0.2398</v>
       </c>
       <c r="B18" s="0">
-        <v>561.5474</v>
+        <v>503.4043</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5</v>
+        <v>0.2514</v>
       </c>
       <c r="B19" s="0">
-        <v>563.7049</v>
+        <v>511.7021</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.52</v>
+        <v>0.2846</v>
       </c>
       <c r="B20" s="0">
-        <v>565.8715</v>
+        <v>524.6099</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.54</v>
+        <v>0.3179</v>
       </c>
       <c r="B21" s="0">
-        <v>568.2521</v>
+        <v>535.6738</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.56</v>
+        <v>0.331</v>
       </c>
       <c r="B22" s="0">
-        <v>570.6505</v>
+        <v>538.4397</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.58</v>
+        <v>0.3519</v>
       </c>
       <c r="B23" s="0">
-        <v>572.5246</v>
+        <v>544.8936</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.6</v>
+        <v>0.3797</v>
       </c>
       <c r="B24" s="0">
-        <v>573.9477</v>
+        <v>549.5035</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.62</v>
+        <v>0.4292</v>
       </c>
       <c r="B25" s="0">
-        <v>574.8101</v>
+        <v>556.8794</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.64</v>
+        <v>0.478</v>
       </c>
       <c r="B26" s="0">
-        <v>575.9561</v>
+        <v>562.4113</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.66</v>
+        <v>0.5282</v>
       </c>
       <c r="B27" s="0">
-        <v>578.2495</v>
+        <v>567.0213</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.68</v>
+        <v>0.5545</v>
       </c>
       <c r="B28" s="0">
-        <v>581.1572</v>
+        <v>570.7092</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.7</v>
+        <v>0.5986</v>
       </c>
       <c r="B29" s="0">
-        <v>584.0481</v>
+        <v>573.4752</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.72</v>
+        <v>0.6404</v>
       </c>
       <c r="B30" s="0">
-        <v>586.2396</v>
+        <v>578.0851</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.74</v>
+        <v>0.6821</v>
       </c>
       <c r="B31" s="0">
-        <v>587.7803</v>
+        <v>579.9291</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.76</v>
+        <v>0.7262</v>
       </c>
       <c r="B32" s="0">
-        <v>589.3423</v>
+        <v>584.539</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.78</v>
+        <v>0.7672</v>
       </c>
       <c r="B33" s="0">
-        <v>591.1781</v>
+        <v>586.383</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.8</v>
+        <v>0.8105</v>
       </c>
       <c r="B34" s="0">
-        <v>593.066</v>
+        <v>590.9929</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.82</v>
+        <v>0.8531</v>
       </c>
       <c r="B35" s="0">
-        <v>594.7089</v>
+        <v>596.5248</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.84</v>
+        <v>0.8948</v>
       </c>
       <c r="B36" s="0">
-        <v>596.2372</v>
+        <v>600.2128</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.86</v>
+        <v>0.9366</v>
       </c>
       <c r="B37" s="0">
-        <v>598.0019</v>
+        <v>606.6667</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.88</v>
+        <v>0.976</v>
       </c>
       <c r="B38" s="0">
-        <v>599.9911</v>
+        <v>616.8085</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.9</v>
+        <v>0.9884</v>
       </c>
       <c r="B39" s="0">
-        <v>602.1455</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B40" s="0">
-        <v>605.4603</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B41" s="0">
-        <v>611.2288</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.1624</v>
-      </c>
-      <c r="B42" s="0">
-        <v>451.773</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.1477</v>
-      </c>
-      <c r="B43" s="0">
-        <v>440.7092</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.1346</v>
-      </c>
-      <c r="B44" s="0">
-        <v>422.2695</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.123</v>
-      </c>
-      <c r="B45" s="0">
-        <v>405.6738</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.1083</v>
-      </c>
-      <c r="B46" s="0">
-        <v>386.3121</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.1005</v>
-      </c>
-      <c r="B47" s="0">
-        <v>360.4965</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0928</v>
-      </c>
-      <c r="B48" s="0">
-        <v>332.8369</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.092</v>
-      </c>
-      <c r="B49" s="0">
-        <v>281.2057</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0905</v>
-      </c>
-      <c r="B50" s="0">
-        <v>224.0426</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0905</v>
-      </c>
-      <c r="B51" s="0">
-        <v>167.8014</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0913</v>
-      </c>
-      <c r="B52" s="0">
-        <v>113.4043</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0913</v>
-      </c>
-      <c r="B53" s="0">
-        <v>58.0851</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.9776</v>
-      </c>
-      <c r="B54" s="0">
-        <v>617.7305</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.9899</v>
-      </c>
-      <c r="B55" s="0">
-        <v>626.0284</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.9575</v>
-      </c>
-      <c r="B56" s="0">
-        <v>610.3546</v>
-      </c>
-    </row>
-    <row r="57"/>
+        <v>626.9504</v>
+      </c>
+    </row>
+    <row r="40"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -14437,7 +13789,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14458,405 +13810,261 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.08</v>
+        <v>0.0045</v>
       </c>
       <c r="B3" s="0">
-        <v>216.9923</v>
+        <v>155.443</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>221.2074</v>
+        <v>105.3165</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.12</v>
+        <v>0.0018</v>
       </c>
       <c r="B5" s="0">
-        <v>222.256</v>
+        <v>53.6709</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.14</v>
+        <v>0.0154</v>
       </c>
       <c r="B6" s="0">
-        <v>223.8777</v>
+        <v>191.8987</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.16</v>
+        <v>0.0452</v>
       </c>
       <c r="B7" s="0">
-        <v>225.5783</v>
+        <v>210.6329</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.18</v>
+        <v>0.0787</v>
       </c>
       <c r="B8" s="0">
-        <v>226.6556</v>
+        <v>218.7342</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2</v>
+        <v>0.1157</v>
       </c>
       <c r="B9" s="0">
-        <v>227.3985</v>
+        <v>222.7848</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.22</v>
+        <v>0.1528</v>
       </c>
       <c r="B10" s="0">
-        <v>228.1204</v>
+        <v>225.8228</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.24</v>
+        <v>0.1863</v>
       </c>
       <c r="B11" s="0">
-        <v>228.823</v>
+        <v>227.3418</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.26</v>
+        <v>0.2387</v>
       </c>
       <c r="B12" s="0">
-        <v>229.4529</v>
+        <v>228.3544</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.28</v>
+        <v>0.2929</v>
       </c>
       <c r="B13" s="0">
-        <v>229.9399</v>
+        <v>229.3671</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3</v>
+        <v>0.3472</v>
       </c>
       <c r="B14" s="0">
-        <v>230.2936</v>
+        <v>230.3797</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.32</v>
+        <v>0.4123</v>
       </c>
       <c r="B15" s="0">
-        <v>230.7306</v>
+        <v>236.4557</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.34</v>
+        <v>0.4033</v>
       </c>
       <c r="B16" s="0">
-        <v>231.4408</v>
+        <v>235.9494</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.36</v>
+        <v>0.4494</v>
       </c>
       <c r="B17" s="0">
-        <v>232.4894</v>
+        <v>236.962</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.38</v>
+        <v>0.4647</v>
       </c>
       <c r="B18" s="0">
-        <v>233.8271</v>
+        <v>238.481</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4</v>
+        <v>0.4973</v>
       </c>
       <c r="B19" s="0">
-        <v>235.0807</v>
+        <v>238.9873</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.42</v>
+        <v>0.5181</v>
       </c>
       <c r="B20" s="0">
-        <v>235.9838</v>
+        <v>240.5063</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.44</v>
+        <v>0.5425</v>
       </c>
       <c r="B21" s="0">
-        <v>236.6074</v>
+        <v>240.5063</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.46</v>
+        <v>0.5723</v>
       </c>
       <c r="B22" s="0">
-        <v>237.0802</v>
+        <v>241.0127</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.48</v>
+        <v>0.5895</v>
       </c>
       <c r="B23" s="0">
-        <v>237.6248</v>
+        <v>242.0253</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5</v>
+        <v>0.6356</v>
       </c>
       <c r="B24" s="0">
-        <v>238.3767</v>
+        <v>244.557</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.52</v>
+        <v>0.6835</v>
       </c>
       <c r="B25" s="0">
-        <v>239.2263</v>
+        <v>246.0759</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.54</v>
+        <v>0.7297</v>
       </c>
       <c r="B26" s="0">
-        <v>240.0608</v>
+        <v>248.1013</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.56</v>
+        <v>0.7767</v>
       </c>
       <c r="B27" s="0">
-        <v>240.8515</v>
+        <v>249.6203</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.58</v>
+        <v>0.8228</v>
       </c>
       <c r="B28" s="0">
-        <v>241.6336</v>
+        <v>252.1519</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6</v>
+        <v>0.8689</v>
       </c>
       <c r="B29" s="0">
-        <v>242.5766</v>
+        <v>254.6835</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.62</v>
+        <v>0.9132</v>
       </c>
       <c r="B30" s="0">
-        <v>243.755</v>
+        <v>258.7342</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.64</v>
+        <v>0.9566</v>
       </c>
       <c r="B31" s="0">
-        <v>244.8366</v>
+        <v>265.3165</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.66</v>
+        <v>0.9693</v>
       </c>
       <c r="B32" s="0">
-        <v>245.57</v>
+        <v>268.3544</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.68</v>
+        <v>0.9819</v>
       </c>
       <c r="B33" s="0">
-        <v>246.0395</v>
+        <v>272.9114</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.7</v>
+        <v>0.9946</v>
       </c>
       <c r="B34" s="0">
-        <v>246.3896</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.9955</v>
-      </c>
-      <c r="B35" s="0">
         <v>277.9747</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.9828</v>
-      </c>
-      <c r="B36" s="0">
-        <v>272.9114</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.9702</v>
-      </c>
-      <c r="B37" s="0">
-        <v>268.3544</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.9566</v>
-      </c>
-      <c r="B38" s="0">
-        <v>265.3165</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.9349</v>
-      </c>
-      <c r="B39" s="0">
-        <v>261.7722</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.9123</v>
-      </c>
-      <c r="B40" s="0">
-        <v>258.7342</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8689</v>
-      </c>
-      <c r="B41" s="0">
-        <v>254.6835</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8897</v>
-      </c>
-      <c r="B42" s="0">
-        <v>256.2025</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.8228</v>
-      </c>
-      <c r="B43" s="0">
-        <v>252.1519</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.8391</v>
-      </c>
-      <c r="B44" s="0">
-        <v>252.6582</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.7957</v>
-      </c>
-      <c r="B45" s="0">
-        <v>250.6329</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.7767</v>
-      </c>
-      <c r="B46" s="0">
-        <v>249.6203</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.7297</v>
-      </c>
-      <c r="B47" s="0">
-        <v>247.5949</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0443</v>
-      </c>
-      <c r="B48" s="0">
-        <v>210.6329</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0172</v>
-      </c>
-      <c r="B49" s="0">
-        <v>191.8987</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0045</v>
-      </c>
-      <c r="B50" s="0">
-        <v>155.443</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0</v>
-      </c>
-      <c r="B51" s="0">
-        <v>105.3165</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0018</v>
-      </c>
-      <c r="B52" s="0">
-        <v>53.6709</v>
-      </c>
-    </row>
-    <row r="53"/>
+    <row r="35"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -14865,7 +14073,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14886,405 +14094,277 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.08</v>
+        <v>0.0009</v>
       </c>
       <c r="B3" s="0">
-        <v>318.2758</v>
+        <v>49.6203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1</v>
+        <v>-0.0009</v>
       </c>
       <c r="B4" s="0">
-        <v>322.9666</v>
+        <v>100.2532</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.12</v>
+        <v>-0.0009</v>
       </c>
       <c r="B5" s="0">
-        <v>324.5698</v>
+        <v>148.8608</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="B6" s="0">
-        <v>325.9978</v>
+        <v>198.481</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.16</v>
+        <v>0.0009</v>
       </c>
       <c r="B7" s="0">
-        <v>327.5699</v>
+        <v>247.5949</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.18</v>
+        <v>0.0118</v>
       </c>
       <c r="B8" s="0">
-        <v>328.8025</v>
+        <v>283.5443</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2</v>
+        <v>0.0353</v>
       </c>
       <c r="B9" s="0">
-        <v>329.7784</v>
+        <v>304.8101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.22</v>
+        <v>0.0651</v>
       </c>
       <c r="B10" s="0">
-        <v>330.7713</v>
+        <v>313.9241</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.24</v>
+        <v>0.1022</v>
       </c>
       <c r="B11" s="0">
-        <v>331.8071</v>
+        <v>322.5316</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.26</v>
+        <v>0.1374</v>
       </c>
       <c r="B12" s="0">
-        <v>332.8076</v>
+        <v>326.5823</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.28</v>
+        <v>0.1682</v>
       </c>
       <c r="B13" s="0">
-        <v>333.8711</v>
+        <v>328.6076</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3</v>
+        <v>0.1745</v>
       </c>
       <c r="B14" s="0">
-        <v>335.0793</v>
+        <v>329.1139</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.32</v>
+        <v>0.2206</v>
       </c>
       <c r="B15" s="0">
-        <v>336.2427</v>
+        <v>330.1266</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.34</v>
+        <v>0.2749</v>
       </c>
       <c r="B16" s="0">
-        <v>337.1885</v>
+        <v>331.6456</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.36</v>
+        <v>0.3318</v>
       </c>
       <c r="B17" s="0">
-        <v>337.9149</v>
+        <v>337.2152</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.38</v>
+        <v>0.3382</v>
       </c>
       <c r="B18" s="0">
-        <v>338.5162</v>
+        <v>338.7342</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4</v>
+        <v>0.3816</v>
       </c>
       <c r="B19" s="0">
-        <v>339.098</v>
+        <v>338.7342</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.42</v>
+        <v>0.3915</v>
       </c>
       <c r="B20" s="0">
-        <v>339.6667</v>
+        <v>339.7468</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.44</v>
+        <v>0.4268</v>
       </c>
       <c r="B21" s="0">
-        <v>340.2137</v>
+        <v>340.2532</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.46</v>
+        <v>0.4458</v>
       </c>
       <c r="B22" s="0">
-        <v>340.7655</v>
+        <v>340.2532</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.48</v>
+        <v>0.4738</v>
       </c>
       <c r="B23" s="0">
-        <v>341.2024</v>
+        <v>340.7595</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5</v>
+        <v>0.4991</v>
       </c>
       <c r="B24" s="0">
-        <v>341.594</v>
+        <v>341.7722</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.52</v>
+        <v>0.5199</v>
       </c>
       <c r="B25" s="0">
-        <v>342.0607</v>
+        <v>342.2785</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.54</v>
+        <v>0.5542</v>
       </c>
       <c r="B26" s="0">
-        <v>342.6394</v>
+        <v>342.2785</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.56</v>
+        <v>0.6094</v>
       </c>
       <c r="B27" s="0">
-        <v>343.2778</v>
+        <v>342.7848</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.82</v>
+        <v>0.6637</v>
       </c>
       <c r="B28" s="0">
-        <v>352.8377</v>
+        <v>343.2911</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.84</v>
+        <v>0.7179</v>
       </c>
       <c r="B29" s="0">
-        <v>354.7419</v>
+        <v>343.7975</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.86</v>
+        <v>0.7731</v>
       </c>
       <c r="B30" s="0">
-        <v>356.0518</v>
+        <v>344.8101</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.88</v>
+        <v>0.8345</v>
       </c>
       <c r="B31" s="0">
-        <v>357.2121</v>
+        <v>353.9241</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9</v>
+        <v>0.8472</v>
       </c>
       <c r="B32" s="0">
-        <v>358.621</v>
+        <v>354.9367</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.92</v>
+        <v>0.8942</v>
       </c>
       <c r="B33" s="0">
-        <v>360.6643</v>
+        <v>357.9747</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.94</v>
+        <v>0.9376</v>
       </c>
       <c r="B34" s="0">
-        <v>363.5043</v>
+        <v>361.519</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.96</v>
+        <v>0.9792</v>
       </c>
       <c r="B35" s="0">
-        <v>366.8327</v>
+        <v>369.6203</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.98</v>
+        <v>0.9919</v>
       </c>
       <c r="B36" s="0">
-        <v>370.8066</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.0624</v>
-      </c>
-      <c r="B37" s="0">
-        <v>314.4304</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.0362</v>
-      </c>
-      <c r="B38" s="0">
-        <v>305.8228</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.0118</v>
-      </c>
-      <c r="B39" s="0">
-        <v>282.5316</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.0018</v>
-      </c>
-      <c r="B40" s="0">
-        <v>247.0886</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.0009</v>
-      </c>
-      <c r="B41" s="0">
-        <v>197.4684</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>-0.0018</v>
-      </c>
-      <c r="B42" s="0">
-        <v>147.8481</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>-0.0009</v>
-      </c>
-      <c r="B43" s="0">
-        <v>99.7468</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.0009</v>
-      </c>
-      <c r="B44" s="0">
-        <v>49.6203</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.6112</v>
-      </c>
-      <c r="B45" s="0">
-        <v>342.2785</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.6637</v>
-      </c>
-      <c r="B46" s="0">
-        <v>341.7722</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.7179</v>
-      </c>
-      <c r="B47" s="0">
-        <v>343.2911</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.774</v>
-      </c>
-      <c r="B48" s="0">
-        <v>344.3038</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.5868</v>
-      </c>
-      <c r="B49" s="0">
-        <v>341.7722</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.6365</v>
-      </c>
-      <c r="B50" s="0">
-        <v>342.2785</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.689</v>
-      </c>
-      <c r="B51" s="0">
-        <v>342.7848</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.7459</v>
-      </c>
-      <c r="B52" s="0">
-        <v>343.7975</v>
-      </c>
-    </row>
-    <row r="53"/>
+        <v>374.1772</v>
+      </c>
+    </row>
+    <row r="37"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -15293,7 +14373,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15314,421 +14394,293 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.06</v>
+        <v>0.0271</v>
       </c>
       <c r="B3" s="0">
-        <v>301.0582</v>
+        <v>290.6329</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.08</v>
+        <v>0.0054</v>
       </c>
       <c r="B4" s="0">
-        <v>306.4183</v>
+        <v>262.2785</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1</v>
+        <v>0.0009</v>
       </c>
       <c r="B5" s="0">
-        <v>309.1364</v>
+        <v>203.038</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.12</v>
+        <v>0.0009</v>
       </c>
       <c r="B6" s="0">
-        <v>311.5973</v>
+        <v>134.1772</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.14</v>
+        <v>0.0009</v>
       </c>
       <c r="B7" s="0">
-        <v>313.2131</v>
+        <v>66.8354</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.16</v>
+        <v>0.0606</v>
       </c>
       <c r="B8" s="0">
-        <v>314.6324</v>
+        <v>302.7848</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.18</v>
+        <v>0.0958</v>
       </c>
       <c r="B9" s="0">
-        <v>316.0684</v>
+        <v>308.8608</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2</v>
+        <v>0.1329</v>
       </c>
       <c r="B10" s="0">
-        <v>316.9674</v>
+        <v>313.4177</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.22</v>
+        <v>0.1718</v>
       </c>
       <c r="B11" s="0">
-        <v>317.5747</v>
+        <v>316.4557</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.24</v>
+        <v>0.1817</v>
       </c>
       <c r="B12" s="0">
-        <v>318.5885</v>
+        <v>316.962</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.26</v>
+        <v>0.2116</v>
       </c>
       <c r="B13" s="0">
-        <v>319.5155</v>
+        <v>317.9747</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.28</v>
+        <v>0.2414</v>
       </c>
       <c r="B14" s="0">
-        <v>320.0359</v>
+        <v>318.9873</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3</v>
+        <v>0.2495</v>
       </c>
       <c r="B15" s="0">
-        <v>320.8435</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.32</v>
+        <v>0.2884</v>
       </c>
       <c r="B16" s="0">
-        <v>321.5902</v>
+        <v>321.0127</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.34</v>
+        <v>0.3038</v>
       </c>
       <c r="B17" s="0">
-        <v>322.1411</v>
+        <v>322.0253</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.36</v>
+        <v>0.3273</v>
       </c>
       <c r="B18" s="0">
-        <v>322.7794</v>
+        <v>322.5316</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.38</v>
+        <v>0.368</v>
       </c>
       <c r="B19" s="0">
-        <v>323.2673</v>
+        <v>323.5443</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4</v>
+        <v>0.3752</v>
       </c>
       <c r="B20" s="0">
-        <v>323.9864</v>
+        <v>323.5443</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.42</v>
+        <v>0.4213</v>
       </c>
       <c r="B21" s="0">
-        <v>325.2576</v>
+        <v>325.0633</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.44</v>
+        <v>0.4331</v>
       </c>
       <c r="B22" s="0">
-        <v>325.6385</v>
+        <v>325.5696</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.46</v>
+        <v>0.4702</v>
       </c>
       <c r="B23" s="0">
-        <v>325.7671</v>
+        <v>327.0886</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="B24" s="0">
-        <v>326.1259</v>
+        <v>327.5949</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5</v>
+        <v>0.5172</v>
       </c>
       <c r="B25" s="0">
-        <v>326.8763</v>
+        <v>328.1013</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.52</v>
+        <v>0.5687</v>
       </c>
       <c r="B26" s="0">
-        <v>327.6579</v>
+        <v>329.1139</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.54</v>
+        <v>0.6103</v>
       </c>
       <c r="B27" s="0">
-        <v>328.1424</v>
+        <v>331.1392</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.56</v>
+        <v>0.6365</v>
       </c>
       <c r="B28" s="0">
-        <v>328.9626</v>
+        <v>332.1519</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.58</v>
+        <v>0.6591</v>
       </c>
       <c r="B29" s="0">
-        <v>329.8396</v>
+        <v>332.6582</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6</v>
+        <v>0.7061</v>
       </c>
       <c r="B30" s="0">
-        <v>330.5376</v>
+        <v>334.6835</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.62</v>
+        <v>0.7514</v>
       </c>
       <c r="B31" s="0">
-        <v>330.6502</v>
+        <v>335.6962</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.64</v>
+        <v>0.7749</v>
       </c>
       <c r="B32" s="0">
-        <v>330.7793</v>
+        <v>336.7089</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.66</v>
+        <v>0.7984</v>
       </c>
       <c r="B33" s="0">
-        <v>331.7135</v>
+        <v>337.7215</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.68</v>
+        <v>0.8436</v>
       </c>
       <c r="B34" s="0">
-        <v>332.8216</v>
+        <v>340.2532</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.7</v>
+        <v>0.8906</v>
       </c>
       <c r="B35" s="0">
-        <v>333.4861</v>
+        <v>342.2785</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.72</v>
+        <v>0.9367</v>
       </c>
       <c r="B36" s="0">
-        <v>334.245</v>
+        <v>346.3291</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.74</v>
+        <v>0.981</v>
       </c>
       <c r="B37" s="0">
-        <v>334.9971</v>
+        <v>350.3797</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.76</v>
+        <v>0.9946</v>
       </c>
       <c r="B38" s="0">
-        <v>335.4046</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B39" s="0">
-        <v>336.0449</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B40" s="0">
-        <v>337.3376</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B41" s="0">
-        <v>338.8022</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B42" s="0">
-        <v>339.6994</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B43" s="0">
-        <v>340.377</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B44" s="0">
-        <v>341.5771</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B45" s="0">
-        <v>343.5743</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B46" s="0">
-        <v>345.2346</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B47" s="0">
-        <v>346.5092</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B48" s="0">
-        <v>348.5669</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B49" s="0">
-        <v>350.6606</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0271</v>
-      </c>
-      <c r="B50" s="0">
-        <v>290.6329</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0054</v>
-      </c>
-      <c r="B51" s="0">
-        <v>262.2785</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0009</v>
-      </c>
-      <c r="B52" s="0">
-        <v>203.038</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0009</v>
-      </c>
-      <c r="B53" s="0">
-        <v>134.1772</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0009</v>
-      </c>
-      <c r="B54" s="0">
-        <v>66.8354</v>
-      </c>
-    </row>
-    <row r="55"/>
+        <v>352.9114</v>
+      </c>
+    </row>
+    <row r="39"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -15737,7 +14689,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15758,413 +14710,277 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.14</v>
+        <v>0.1165</v>
       </c>
       <c r="B3" s="0">
-        <v>279.327</v>
+        <v>275.2294</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.16</v>
+        <v>0.0819</v>
       </c>
       <c r="B4" s="0">
-        <v>280.8598</v>
+        <v>269.9869</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.18</v>
+        <v>0.0507</v>
       </c>
       <c r="B5" s="0">
-        <v>281.3139</v>
+        <v>262.7785</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.2</v>
+        <v>0.0249</v>
       </c>
       <c r="B6" s="0">
-        <v>281.976</v>
+        <v>249.017</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.22</v>
+        <v>0.0071</v>
       </c>
       <c r="B7" s="0">
-        <v>283.1059</v>
+        <v>228.7025</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.24</v>
+        <v>0.0018</v>
       </c>
       <c r="B8" s="0">
-        <v>284.3109</v>
+        <v>195.2818</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.26</v>
+        <v>-0.0018</v>
       </c>
       <c r="B9" s="0">
-        <v>285.2627</v>
+        <v>158.5845</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="B10" s="0">
-        <v>286.0642</v>
+        <v>117.9554</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="B11" s="0">
-        <v>286.737</v>
+        <v>77.3263</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.32</v>
+        <v>-0.0009</v>
       </c>
       <c r="B12" s="0">
-        <v>287.3187</v>
+        <v>38.0079</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.34</v>
+        <v>0.984</v>
       </c>
       <c r="B13" s="0">
-        <v>287.8545</v>
+        <v>326.3434</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.36</v>
+        <v>0.9466</v>
       </c>
       <c r="B14" s="0">
-        <v>288.392</v>
+        <v>317.1691</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.38</v>
+        <v>0.9084</v>
       </c>
       <c r="B15" s="0">
-        <v>288.9682</v>
+        <v>309.9607</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4</v>
+        <v>0.1539</v>
       </c>
       <c r="B16" s="0">
-        <v>289.6526</v>
+        <v>279.1612</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.42</v>
+        <v>0.1699</v>
       </c>
       <c r="B17" s="0">
-        <v>290.5311</v>
+        <v>281.1271</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.44</v>
+        <v>0.1913</v>
       </c>
       <c r="B18" s="0">
-        <v>291.6959</v>
+        <v>281.7824</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.46</v>
+        <v>0.2286</v>
       </c>
       <c r="B19" s="0">
-        <v>292.8883</v>
+        <v>283.7484</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.48</v>
+        <v>0.2669</v>
       </c>
       <c r="B20" s="0">
-        <v>293.757</v>
+        <v>285.7143</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.52</v>
+        <v>0.2802</v>
       </c>
       <c r="B21" s="0">
-        <v>294.9191</v>
+        <v>285.7143</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.54</v>
+        <v>0.3052</v>
       </c>
       <c r="B22" s="0">
-        <v>295.3135</v>
+        <v>287.6802</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.56</v>
+        <v>0.3327</v>
       </c>
       <c r="B23" s="0">
-        <v>295.6663</v>
+        <v>287.0249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.6</v>
+        <v>0.3514</v>
       </c>
       <c r="B24" s="0">
-        <v>296.4062</v>
+        <v>288.9908</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.62</v>
+        <v>0.3888</v>
       </c>
       <c r="B25" s="0">
-        <v>296.9449</v>
+        <v>289.6461</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.66</v>
+        <v>0.4422</v>
       </c>
       <c r="B26" s="0">
-        <v>298.2008</v>
+        <v>290.3014</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.68</v>
+        <v>0.492</v>
       </c>
       <c r="B27" s="0">
-        <v>298.8363</v>
+        <v>292.9227</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.7</v>
+        <v>0.5391</v>
       </c>
       <c r="B28" s="0">
-        <v>299.429</v>
+        <v>293.578</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.74</v>
+        <v>0.5845</v>
       </c>
       <c r="B29" s="0">
-        <v>300.8296</v>
+        <v>294.8886</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.76</v>
+        <v>0.6326</v>
       </c>
       <c r="B30" s="0">
-        <v>301.6204</v>
+        <v>296.1992</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.8</v>
+        <v>0.6788</v>
       </c>
       <c r="B31" s="0">
-        <v>302.7858</v>
+        <v>297.5098</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.82</v>
+        <v>0.7242</v>
       </c>
       <c r="B32" s="0">
-        <v>303.4808</v>
+        <v>299.4758</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.84</v>
+        <v>0.7714</v>
       </c>
       <c r="B33" s="0">
-        <v>304.4834</v>
+        <v>301.4417</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.88</v>
+        <v>0.8176</v>
       </c>
       <c r="B34" s="0">
-        <v>307.5608</v>
+        <v>302.7523</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.1165</v>
+        <v>0.8639</v>
       </c>
       <c r="B35" s="0">
-        <v>275.2294</v>
+        <v>306.0288</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.0819</v>
+        <v>0.9938</v>
       </c>
       <c r="B36" s="0">
-        <v>269.9869</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.0507</v>
-      </c>
-      <c r="B37" s="0">
-        <v>262.7785</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.0249</v>
-      </c>
-      <c r="B38" s="0">
-        <v>249.017</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.0071</v>
-      </c>
-      <c r="B39" s="0">
-        <v>228.7025</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.0018</v>
-      </c>
-      <c r="B40" s="0">
-        <v>195.2818</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>-0.0018</v>
-      </c>
-      <c r="B41" s="0">
-        <v>158.5845</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0</v>
-      </c>
-      <c r="B42" s="0">
-        <v>117.9554</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0</v>
-      </c>
-      <c r="B43" s="0">
-        <v>77.3263</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>-0.0009</v>
-      </c>
-      <c r="B44" s="0">
-        <v>38.0079</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.984</v>
-      </c>
-      <c r="B45" s="0">
-        <v>326.3434</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9466</v>
-      </c>
-      <c r="B46" s="0">
-        <v>317.1691</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9084</v>
-      </c>
-      <c r="B47" s="0">
-        <v>309.9607</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.8639</v>
-      </c>
-      <c r="B48" s="0">
-        <v>305.3735</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.7722</v>
-      </c>
-      <c r="B49" s="0">
-        <v>300.7864</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.7251</v>
-      </c>
-      <c r="B50" s="0">
-        <v>300.1311</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.6326</v>
-      </c>
-      <c r="B51" s="0">
-        <v>296.8545</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.5863</v>
-      </c>
-      <c r="B52" s="0">
-        <v>294.8886</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.4938</v>
-      </c>
-      <c r="B53" s="0">
-        <v>292.9227</v>
-      </c>
-    </row>
-    <row r="54"/>
+        <v>333.5518</v>
+      </c>
+    </row>
+    <row r="37"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -16173,7 +14989,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16194,421 +15010,293 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.04</v>
+        <v>0.0231</v>
       </c>
       <c r="B3" s="0">
-        <v>244.1611</v>
+        <v>231.979</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.06</v>
+        <v>0.0044</v>
       </c>
       <c r="B4" s="0">
-        <v>253.2418</v>
+        <v>203.1455</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.08</v>
+        <v>0.0009</v>
       </c>
       <c r="B5" s="0">
-        <v>262.0439</v>
+        <v>154.6527</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="0">
-        <v>269.0711</v>
+        <v>100.9174</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.12</v>
+        <v>0.0498</v>
       </c>
       <c r="B7" s="0">
-        <v>274.7338</v>
+        <v>249.017</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.14</v>
+        <v>0.0792</v>
       </c>
       <c r="B8" s="0">
-        <v>279.4154</v>
+        <v>262.1232</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16</v>
+        <v>0.1121</v>
       </c>
       <c r="B9" s="0">
-        <v>284.6403</v>
+        <v>273.2634</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.18</v>
+        <v>0.1459</v>
       </c>
       <c r="B10" s="0">
-        <v>289.3565</v>
+        <v>281.1271</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2</v>
+        <v>0.1779</v>
       </c>
       <c r="B11" s="0">
-        <v>293.3192</v>
+        <v>288.9908</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.22</v>
+        <v>0.1877</v>
       </c>
       <c r="B12" s="0">
-        <v>297.4776</v>
+        <v>292.2674</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.24</v>
+        <v>0.2144</v>
       </c>
       <c r="B13" s="0">
-        <v>301.2085</v>
+        <v>295.5439</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="B14" s="0">
-        <v>303.9919</v>
+        <v>302.097</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.28</v>
+        <v>0.2847</v>
       </c>
       <c r="B15" s="0">
-        <v>306.865</v>
+        <v>307.9948</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3</v>
+        <v>0.2963</v>
       </c>
       <c r="B16" s="0">
-        <v>309.6776</v>
+        <v>308.6501</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.32</v>
+        <v>0.3203</v>
       </c>
       <c r="B17" s="0">
-        <v>312.884</v>
+        <v>313.2372</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.34</v>
+        <v>0.3479</v>
       </c>
       <c r="B18" s="0">
-        <v>315.9801</v>
+        <v>315.8585</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.36</v>
+        <v>0.3639</v>
       </c>
       <c r="B19" s="0">
-        <v>318.8808</v>
+        <v>319.135</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.38</v>
+        <v>0.3986</v>
       </c>
       <c r="B20" s="0">
-        <v>321.9921</v>
+        <v>325.0328</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4</v>
+        <v>0.4075</v>
       </c>
       <c r="B21" s="0">
-        <v>324.8839</v>
+        <v>326.3434</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.42</v>
+        <v>0.452</v>
       </c>
       <c r="B22" s="0">
-        <v>328.7753</v>
+        <v>332.2412</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.44</v>
+        <v>0.4938</v>
       </c>
       <c r="B23" s="0">
-        <v>332.2212</v>
+        <v>337.4836</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.46</v>
+        <v>0.5383</v>
       </c>
       <c r="B24" s="0">
-        <v>333.502</v>
+        <v>343.3814</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.48</v>
+        <v>0.5383</v>
       </c>
       <c r="B25" s="0">
-        <v>335.1533</v>
+        <v>343.3814</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5</v>
+        <v>0.5383</v>
       </c>
       <c r="B26" s="0">
-        <v>337.6843</v>
+        <v>343.3814</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.52</v>
+        <v>0.5819</v>
       </c>
       <c r="B27" s="0">
-        <v>340.2257</v>
+        <v>347.9685</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.54</v>
+        <v>0.6263</v>
       </c>
       <c r="B28" s="0">
-        <v>342.8132</v>
+        <v>354.5216</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.56</v>
+        <v>0.6699</v>
       </c>
       <c r="B29" s="0">
-        <v>345.1231</v>
+        <v>358.4535</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.58</v>
+        <v>0.7153</v>
       </c>
       <c r="B30" s="0">
-        <v>347.548</v>
+        <v>364.3512</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6</v>
+        <v>0.7598</v>
       </c>
       <c r="B31" s="0">
-        <v>349.9656</v>
+        <v>368.2831</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.62</v>
+        <v>0.8034</v>
       </c>
       <c r="B32" s="0">
-        <v>352.6685</v>
+        <v>372.8702</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.64</v>
+        <v>0.8496</v>
       </c>
       <c r="B33" s="0">
-        <v>355.0253</v>
+        <v>376.8021</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.66</v>
+        <v>0.8932</v>
       </c>
       <c r="B34" s="0">
-        <v>357.1556</v>
+        <v>380.0786</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.68</v>
+        <v>0.9324</v>
       </c>
       <c r="B35" s="0">
-        <v>359.4219</v>
+        <v>390.5636</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.7</v>
+        <v>0.9724</v>
       </c>
       <c r="B36" s="0">
-        <v>362.0214</v>
+        <v>401.7038</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.72</v>
+        <v>0.984</v>
       </c>
       <c r="B37" s="0">
-        <v>364.4759</v>
+        <v>406.291</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.74</v>
+        <v>0.9947</v>
       </c>
       <c r="B38" s="0">
-        <v>367.6398</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B39" s="0">
-        <v>369.7345</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B40" s="0">
-        <v>371.0645</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B41" s="0">
-        <v>373.0092</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B42" s="0">
-        <v>374.8083</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B43" s="0">
-        <v>376.8691</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B44" s="0">
-        <v>378.6529</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B45" s="0">
-        <v>380.1804</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B46" s="0">
-        <v>383.0884</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B47" s="0">
-        <v>388.0965</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B48" s="0">
-        <v>394.7285</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B49" s="0">
-        <v>400.6706</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B50" s="0">
-        <v>407.1443</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0231</v>
-      </c>
-      <c r="B51" s="0">
-        <v>231.979</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0044</v>
-      </c>
-      <c r="B52" s="0">
-        <v>203.1455</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0009</v>
-      </c>
-      <c r="B53" s="0">
-        <v>154.6527</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0</v>
-      </c>
-      <c r="B54" s="0">
-        <v>100.9174</v>
-      </c>
-    </row>
-    <row r="55"/>
+        <v>414.81</v>
+      </c>
+    </row>
+    <row r="39"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -16617,7 +15305,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16646,445 +15334,301 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.0142</v>
       </c>
       <c r="B4" s="0">
-        <v>282.268</v>
+        <v>245.0852</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.0062</v>
       </c>
       <c r="B5" s="0">
-        <v>299.5784</v>
+        <v>213.6304</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.0018</v>
       </c>
       <c r="B6" s="0">
-        <v>315.3309</v>
+        <v>173.0013</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>-0.0009</v>
       </c>
       <c r="B7" s="0">
-        <v>327.1511</v>
+        <v>85.8453</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="B8" s="0">
-        <v>338.4696</v>
+        <v>42.595</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="B9" s="0">
-        <v>348.578</v>
+        <v>129.751</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.0311</v>
       </c>
       <c r="B10" s="0">
-        <v>356.4607</v>
+        <v>273.9187</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.0516</v>
       </c>
       <c r="B11" s="0">
-        <v>363.9456</v>
+        <v>294.2333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.0738</v>
       </c>
       <c r="B12" s="0">
-        <v>372.5296</v>
+        <v>313.2372</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.1005</v>
       </c>
       <c r="B13" s="0">
-        <v>379.7902</v>
+        <v>328.3093</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.1254</v>
       </c>
       <c r="B14" s="0">
-        <v>386.1467</v>
+        <v>342.7261</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.1548</v>
       </c>
       <c r="B15" s="0">
-        <v>392.6901</v>
+        <v>355.8322</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.1717</v>
       </c>
       <c r="B16" s="0">
-        <v>397.8257</v>
+        <v>361.0747</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.1842</v>
       </c>
       <c r="B17" s="0">
-        <v>402.9469</v>
+        <v>366.9725</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.2135</v>
       </c>
       <c r="B18" s="0">
-        <v>407.6563</v>
+        <v>378.1127</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.2456</v>
       </c>
       <c r="B19" s="0">
-        <v>411.7876</v>
+        <v>386.6317</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.2767</v>
       </c>
       <c r="B20" s="0">
-        <v>415.7694</v>
+        <v>395.806</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.3096</v>
       </c>
       <c r="B21" s="0">
-        <v>419.4983</v>
+        <v>403.6697</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.3488</v>
       </c>
       <c r="B22" s="0">
-        <v>423.2597</v>
+        <v>412.844</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.3897</v>
       </c>
       <c r="B23" s="0">
-        <v>427.0541</v>
+        <v>422.0183</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.4048</v>
       </c>
       <c r="B24" s="0">
-        <v>431.2089</v>
+        <v>424.6396</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.4324</v>
       </c>
       <c r="B25" s="0">
-        <v>433.3868</v>
+        <v>428.5714</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.4751</v>
       </c>
       <c r="B26" s="0">
-        <v>434.5421</v>
+        <v>435.1245</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.5169</v>
       </c>
       <c r="B27" s="0">
-        <v>437.2552</v>
+        <v>440.367</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.5614</v>
       </c>
       <c r="B28" s="0">
-        <v>440.0738</v>
+        <v>444.9541</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.6041</v>
       </c>
       <c r="B29" s="0">
-        <v>442.0536</v>
+        <v>449.5413</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.6495</v>
       </c>
       <c r="B30" s="0">
-        <v>444.1017</v>
+        <v>453.4731</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.6931</v>
       </c>
       <c r="B31" s="0">
-        <v>446.1714</v>
+        <v>456.7497</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6</v>
+        <v>0.7384</v>
       </c>
       <c r="B32" s="0">
-        <v>448.0321</v>
+        <v>460.0262</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.62</v>
+        <v>0.7829</v>
       </c>
       <c r="B33" s="0">
-        <v>449.8083</v>
+        <v>463.3028</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.64</v>
+        <v>0.8265</v>
       </c>
       <c r="B34" s="0">
-        <v>451.576</v>
+        <v>465.924</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.66</v>
+        <v>0.8728</v>
       </c>
       <c r="B35" s="0">
-        <v>452.9093</v>
+        <v>469.8558</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.68</v>
+        <v>0.9155</v>
       </c>
       <c r="B36" s="0">
-        <v>454.4797</v>
+        <v>473.7877</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7</v>
+        <v>0.9573</v>
       </c>
       <c r="B37" s="0">
-        <v>455.8283</v>
+        <v>480.3408</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.72</v>
+        <v>0.9698</v>
       </c>
       <c r="B38" s="0">
-        <v>457.1519</v>
+        <v>483.6173</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.74</v>
+        <v>0.9831</v>
       </c>
       <c r="B39" s="0">
-        <v>458.7361</v>
+        <v>486.8938</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.76</v>
+        <v>0.9929</v>
       </c>
       <c r="B40" s="0">
-        <v>460.1288</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B41" s="0">
-        <v>461.5241</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>463.1657</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>464.9321</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>466.5236</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>468.1234</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>469.983</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>473.1747</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>475.9368</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>477.8512</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>481.1053</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B51" s="0">
-        <v>486.8364</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0311</v>
-      </c>
-      <c r="B52" s="0">
-        <v>272.6081</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0142</v>
-      </c>
-      <c r="B53" s="0">
-        <v>245.0852</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0062</v>
-      </c>
-      <c r="B54" s="0">
-        <v>213.6304</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.0018</v>
-      </c>
-      <c r="B55" s="0">
-        <v>173.0013</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.0027</v>
-      </c>
-      <c r="B56" s="0">
-        <v>131.7169</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>-0.0009</v>
-      </c>
-      <c r="B57" s="0">
-        <v>85.8453</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0">
-        <v>0</v>
-      </c>
-      <c r="B58" s="0">
-        <v>42.595</v>
-      </c>
-    </row>
-    <row r="59"/>
+        <v>490.8257</v>
+      </c>
+    </row>
+    <row r="41"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -17093,7 +15637,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17114,381 +15658,269 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.18</v>
+        <v>0.1019</v>
       </c>
       <c r="B3" s="0">
-        <v>324.1628</v>
+        <v>282.5203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.2</v>
+        <v>0.0912</v>
       </c>
       <c r="B4" s="0">
-        <v>324.0537</v>
+        <v>245.935</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.22</v>
+        <v>0.0905</v>
       </c>
       <c r="B5" s="0">
-        <v>325.1297</v>
+        <v>198.1707</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.24</v>
+        <v>0.0898</v>
       </c>
       <c r="B6" s="0">
-        <v>327.6194</v>
+        <v>147.3577</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.26</v>
+        <v>0.0914</v>
       </c>
       <c r="B7" s="0">
-        <v>329.6119</v>
+        <v>94.5122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.28</v>
+        <v>0.1211</v>
       </c>
       <c r="B8" s="0">
-        <v>330.4922</v>
+        <v>304.878</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.3</v>
+        <v>0.1511</v>
       </c>
       <c r="B9" s="0">
-        <v>331.3135</v>
+        <v>315.0407</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.32</v>
+        <v>0.1803</v>
       </c>
       <c r="B10" s="0">
-        <v>332.342</v>
+        <v>322.1545</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.34</v>
+        <v>0.2149</v>
       </c>
       <c r="B11" s="0">
-        <v>333.3113</v>
+        <v>326.2195</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.36</v>
+        <v>0.2426</v>
       </c>
       <c r="B12" s="0">
-        <v>334.2864</v>
+        <v>328.252</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.38</v>
+        <v>0.2917</v>
       </c>
       <c r="B13" s="0">
-        <v>335.3743</v>
+        <v>329.2683</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4</v>
+        <v>0.3194</v>
       </c>
       <c r="B14" s="0">
-        <v>336.4733</v>
+        <v>332.3171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.42</v>
+        <v>0.3386</v>
       </c>
       <c r="B15" s="0">
-        <v>337.4448</v>
+        <v>332.3171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.44</v>
+        <v>0.354</v>
       </c>
       <c r="B16" s="0">
-        <v>338.2461</v>
+        <v>334.3496</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.46</v>
+        <v>0.3901</v>
       </c>
       <c r="B17" s="0">
-        <v>338.8185</v>
+        <v>336.3821</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.48</v>
+        <v>0.4355</v>
       </c>
       <c r="B18" s="0">
-        <v>339.2711</v>
+        <v>338.4146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5</v>
+        <v>0.4462</v>
       </c>
       <c r="B19" s="0">
-        <v>339.784</v>
+        <v>338.4146</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.52</v>
+        <v>0.4777</v>
       </c>
       <c r="B20" s="0">
-        <v>340.4049</v>
+        <v>340.4472</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.54</v>
+        <v>0.4954</v>
       </c>
       <c r="B21" s="0">
-        <v>341.0771</v>
+        <v>339.4309</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.56</v>
+        <v>0.5208</v>
       </c>
       <c r="B22" s="0">
-        <v>341.6699</v>
+        <v>341.4634</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.58</v>
+        <v>0.5438</v>
       </c>
       <c r="B23" s="0">
-        <v>342.0532</v>
+        <v>341.4634</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.6</v>
+        <v>0.5638</v>
       </c>
       <c r="B24" s="0">
-        <v>342.4025</v>
+        <v>342.4797</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.62</v>
+        <v>0.593</v>
       </c>
       <c r="B25" s="0">
-        <v>343.0374</v>
+        <v>342.4797</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.64</v>
+        <v>0.6053</v>
       </c>
       <c r="B26" s="0">
-        <v>343.9773</v>
+        <v>343.4959</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.66</v>
+        <v>0.6438</v>
       </c>
       <c r="B27" s="0">
-        <v>345.0279</v>
+        <v>342.4797</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.68</v>
+        <v>0.6937</v>
       </c>
       <c r="B28" s="0">
-        <v>345.9241</v>
+        <v>344.5122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.7</v>
+        <v>0.7437</v>
       </c>
       <c r="B29" s="0">
-        <v>346.3711</v>
+        <v>343.4959</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.72</v>
+        <v>0.7944</v>
       </c>
       <c r="B30" s="0">
-        <v>346.447</v>
+        <v>343.4959</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.74</v>
+        <v>0.819</v>
       </c>
       <c r="B31" s="0">
-        <v>346.4017</v>
+        <v>351.626</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.76</v>
+        <v>0.8498</v>
       </c>
       <c r="B32" s="0">
-        <v>346.5591</v>
+        <v>354.6748</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.78</v>
+        <v>0.9028</v>
       </c>
       <c r="B33" s="0">
-        <v>347.2399</v>
+        <v>355.6911</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.8</v>
+        <v>0.9427</v>
       </c>
       <c r="B34" s="0">
-        <v>348.5301</v>
+        <v>361.7886</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.82</v>
+        <v>0.9804</v>
       </c>
       <c r="B35" s="0">
-        <v>350.3559</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B36" s="0">
-        <v>352.4233</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B37" s="0">
-        <v>354.5196</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B38" s="0">
-        <v>356.6577</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B39" s="0">
-        <v>358.7323</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B40" s="0">
-        <v>361.2304</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B41" s="0">
-        <v>364.7354</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B42" s="0">
-        <v>367.1903</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.1503</v>
-      </c>
-      <c r="B43" s="0">
-        <v>313.0081</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.1234</v>
-      </c>
-      <c r="B44" s="0">
-        <v>302.8455</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.1019</v>
-      </c>
-      <c r="B45" s="0">
-        <v>282.5203</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.0912</v>
-      </c>
-      <c r="B46" s="0">
-        <v>245.935</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.0905</v>
-      </c>
-      <c r="B47" s="0">
-        <v>198.1707</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0898</v>
-      </c>
-      <c r="B48" s="0">
-        <v>147.3577</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0914</v>
-      </c>
-      <c r="B49" s="0">
-        <v>94.5122</v>
-      </c>
-    </row>
-    <row r="50"/>
+        <v>367.8862</v>
+      </c>
+    </row>
+    <row r="36"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -17497,7 +15929,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17518,365 +15950,277 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.1</v>
+        <v>0.9956</v>
       </c>
       <c r="B3" s="0">
-        <v>297.5137</v>
+        <v>590.4472</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.12</v>
+        <v>0.9856</v>
       </c>
       <c r="B4" s="0">
-        <v>414.2559</v>
+        <v>587.3984</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.14</v>
+        <v>0.9717</v>
       </c>
       <c r="B5" s="0">
-        <v>448.4863</v>
+        <v>585.3659</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.16</v>
+        <v>0.9564</v>
       </c>
       <c r="B6" s="0">
-        <v>466.4203</v>
+        <v>582.3171</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.18</v>
+        <v>0.9179</v>
       </c>
       <c r="B7" s="0">
-        <v>481.9299</v>
+        <v>578.252</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.2</v>
+        <v>0.9064</v>
       </c>
       <c r="B8" s="0">
-        <v>491.8847</v>
+        <v>577.2358</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.22</v>
+        <v>0.8757</v>
       </c>
       <c r="B9" s="0">
-        <v>500.9309</v>
+        <v>575.2033</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.24</v>
+        <v>0.8334</v>
       </c>
       <c r="B10" s="0">
-        <v>510.421</v>
+        <v>572.1545</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.26</v>
+        <v>0.7911</v>
       </c>
       <c r="B11" s="0">
-        <v>517.6336</v>
+        <v>568.0894</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.28</v>
+        <v>0.7496</v>
       </c>
       <c r="B12" s="0">
-        <v>523.0577</v>
+        <v>566.0569</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3</v>
+        <v>0.7058</v>
       </c>
       <c r="B13" s="0">
-        <v>527.9818</v>
+        <v>561.9919</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.32</v>
+        <v>0.6643</v>
       </c>
       <c r="B14" s="0">
-        <v>531.7703</v>
+        <v>557.9268</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.34</v>
+        <v>0.622</v>
       </c>
       <c r="B15" s="0">
-        <v>534.2253</v>
+        <v>556.9106</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.36</v>
+        <v>0.5805</v>
       </c>
       <c r="B16" s="0">
-        <v>536.4902</v>
+        <v>553.8618</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.38</v>
+        <v>0.5375</v>
       </c>
       <c r="B17" s="0">
-        <v>539.4465</v>
+        <v>550.813</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4</v>
+        <v>0.4944</v>
       </c>
       <c r="B18" s="0">
-        <v>541.9265</v>
+        <v>549.7967</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.42</v>
+        <v>0.4522</v>
       </c>
       <c r="B19" s="0">
-        <v>544.2412</v>
+        <v>545.7317</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.44</v>
+        <v>0.4107</v>
       </c>
       <c r="B20" s="0">
-        <v>546.7701</v>
+        <v>543.6992</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.46</v>
+        <v>0.3653</v>
       </c>
       <c r="B21" s="0">
-        <v>547.5632</v>
+        <v>536.5854</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.48</v>
+        <v>0.3338</v>
       </c>
       <c r="B22" s="0">
-        <v>547.5894</v>
+        <v>534.5528</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.5</v>
+        <v>0.3092</v>
       </c>
       <c r="B23" s="0">
-        <v>547.799</v>
+        <v>530.4878</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.52</v>
+        <v>0.2992</v>
       </c>
       <c r="B24" s="0">
-        <v>547.408</v>
+        <v>528.4553</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.54</v>
+        <v>0.2623</v>
       </c>
       <c r="B25" s="0">
-        <v>548.7049</v>
+        <v>516.2602</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.56</v>
+        <v>0.237</v>
       </c>
       <c r="B26" s="0">
-        <v>552.6376</v>
+        <v>510.1626</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.58</v>
+        <v>0.2063</v>
       </c>
       <c r="B27" s="0">
-        <v>555.189</v>
+        <v>496.9512</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.6</v>
+        <v>0.1763</v>
       </c>
       <c r="B28" s="0">
-        <v>555.3405</v>
+        <v>479.6748</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.62</v>
+        <v>0.151</v>
       </c>
       <c r="B29" s="0">
-        <v>556.5289</v>
+        <v>457.3171</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.64</v>
+        <v>0.1264</v>
       </c>
       <c r="B30" s="0">
-        <v>557.8289</v>
+        <v>428.8618</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.66</v>
+        <v>0.1057</v>
       </c>
       <c r="B31" s="0">
-        <v>557.8967</v>
+        <v>390.2439</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.68</v>
+        <v>0.0934</v>
       </c>
       <c r="B32" s="0">
-        <v>558.8371</v>
+        <v>335.3659</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.7</v>
+        <v>0.0912</v>
       </c>
       <c r="B33" s="0">
-        <v>559.8613</v>
+        <v>256.0976</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.72</v>
+        <v>0.0905</v>
       </c>
       <c r="B34" s="0">
-        <v>561.031</v>
+        <v>169.7154</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.74</v>
+        <v>0.0905</v>
       </c>
       <c r="B35" s="0">
-        <v>563.1014</v>
+        <v>169.7154</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.76</v>
+        <v>0.0906</v>
       </c>
       <c r="B36" s="0">
-        <v>566.8472</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B37" s="0">
-        <v>568.4228</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B38" s="0">
-        <v>567.5574</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B39" s="0">
-        <v>568.3898</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B40" s="0">
-        <v>570.2648</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B41" s="0">
-        <v>572.2123</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B42" s="0">
-        <v>573.7778</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B43" s="0">
-        <v>576.0012</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B44" s="0">
-        <v>578.1424</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B45" s="0">
-        <v>580.578</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B46" s="0">
-        <v>583.1452</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B47" s="0">
-        <v>586.749</v>
-      </c>
-    </row>
-    <row r="48"/>
+        <v>85.3659</v>
+      </c>
+    </row>
+    <row r="37"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 74 Preparation and evaluation of/Data74_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 74 Preparation and evaluation of/Data74_all_graphs_excel.xlsx
@@ -12,15 +12,15 @@
     <sheet name="Figure 2_2 ACZ-1-6  0&amp;1&amp;0&amp;500 " sheetId="5" r:id="rId7"/>
     <sheet name="Figure 2_2 ACZ-2-6  0&amp;1&amp;0&amp;500 " sheetId="6" r:id="rId8"/>
     <sheet name="Figure 2_2 ACZ-3-6  0&amp;1&amp;0&amp;500 " sheetId="7" r:id="rId9"/>
-    <sheet name="Figure 3 ACZ-3-6  0&amp;1&amp;0&amp;550 " sheetId="8" r:id="rId10"/>
-    <sheet name="Figure 3 ACZ-3-7  0&amp;1&amp;0&amp;550 " sheetId="9" r:id="rId11"/>
-    <sheet name="Figure 3 ACZ-3-8  0&amp;1&amp;0&amp;550 " sheetId="10" r:id="rId12"/>
-    <sheet name="Figure 3_1 ACK-2-6  0&amp;1&amp;0&amp;750 " sheetId="11" r:id="rId13"/>
-    <sheet name="Figure 3_1 ACK-2-7  0&amp;1&amp;0&amp;750 " sheetId="12" r:id="rId14"/>
-    <sheet name="Figure 3_1 ACK-2-8  0&amp;1&amp;0&amp;750 " sheetId="13" r:id="rId15"/>
-    <sheet name="Figure 3_2 ACK-3-6  0&amp;1&amp;0&amp;650 " sheetId="14" r:id="rId16"/>
-    <sheet name="Figure 3_2 ACK-3-7  0&amp;1&amp;0&amp;650 " sheetId="15" r:id="rId17"/>
-    <sheet name="Figure 3_2 ACK-3-8  0&amp;1&amp;0&amp;650 " sheetId="16" r:id="rId18"/>
+    <sheet name="Figure 3_1 ACK-2-6  0&amp;1&amp;0&amp;750 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 3_1 ACK-2-7  0&amp;1&amp;0&amp;750 " sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 3_1 ACK-2-8  0&amp;1&amp;0&amp;750 " sheetId="10" r:id="rId12"/>
+    <sheet name="Figure 3_2 ACK-3-6  0&amp;1&amp;0&amp;650 " sheetId="11" r:id="rId13"/>
+    <sheet name="Figure 3_2 ACK-3-7  0&amp;1&amp;0&amp;650 " sheetId="12" r:id="rId14"/>
+    <sheet name="Figure 3_2 ACK-3-8  0&amp;1&amp;0&amp;650 " sheetId="13" r:id="rId15"/>
+    <sheet name="Figure 3_3 ACZ-3-6  0&amp;1&amp;0&amp;550 " sheetId="14" r:id="rId16"/>
+    <sheet name="Figure 3_3 ACZ-3-7  0&amp;1&amp;0&amp;550 " sheetId="15" r:id="rId17"/>
+    <sheet name="Figure 3_3 ACZ-3-8  0&amp;1&amp;0&amp;550 " sheetId="16" r:id="rId18"/>
     <sheet name="Figure 4 ACK-2-8  0&amp;1&amp;0&amp;850 " sheetId="17" r:id="rId19"/>
     <sheet name="Figure 4 ACK-2-8-1  0&amp;1&amp;0&amp;850 " sheetId="18" r:id="rId20"/>
     <sheet name="Figure 4 ACK-2-8-2  0&amp;1&amp;0&amp;850 " sheetId="19" r:id="rId21"/>
@@ -60,12 +60,6 @@
     <t>ACZ-3-6</t>
   </si>
   <si>
-    <t>ACZ-3-7</t>
-  </si>
-  <si>
-    <t>ACZ-3-8</t>
-  </si>
-  <si>
     <t>ACK-2-7</t>
   </si>
   <si>
@@ -76,6 +70,12 @@
   </si>
   <si>
     <t>ACK-3-8</t>
+  </si>
+  <si>
+    <t>ACZ-3-7</t>
+  </si>
+  <si>
+    <t>ACZ-3-8</t>
   </si>
   <si>
     <t>ACK-2-8-1</t>
@@ -475,948 +475,6 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ACZ-3-8 z wykresu 'Figure 3' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 3 ACZ-3-8  0&amp;1&amp;0&amp;550 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 3 ACZ-3-8  0&amp;1&amp;0&amp;550 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="550"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ACK-2-6 z wykresu 'Figure 3_1' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 3_1 ACK-2-6  0&amp;1&amp;0&amp;750 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 3_1 ACK-2-6  0&amp;1&amp;0&amp;750 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="750"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ACK-2-7 z wykresu 'Figure 3_1' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 3_1 ACK-2-7  0&amp;1&amp;0&amp;750 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 3_1 ACK-2-7  0&amp;1&amp;0&amp;750 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="750"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
               <a:t>Izoterma adsorpcji probki ACK-2-8 z wykresu 'Figure 3_1' </a:t>
             </a:r>
           </a:p>
@@ -1698,7 +756,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2012,7 +1070,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2326,7 +1384,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2508,6 +1566,948 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="650"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki ACZ-3-6 z wykresu 'Figure 3_3' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3_3 ACZ-3-6  0&amp;1&amp;0&amp;550 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3_3 ACZ-3-6  0&amp;1&amp;0&amp;550 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="550"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki ACZ-3-7 z wykresu 'Figure 3_3' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3_3 ACZ-3-7  0&amp;1&amp;0&amp;550 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3_3 ACZ-3-7  0&amp;1&amp;0&amp;550 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="550"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki ACZ-3-8 z wykresu 'Figure 3_3' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3_3 ACZ-3-8  0&amp;1&amp;0&amp;550 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3_3 ACZ-3-8  0&amp;1&amp;0&amp;550 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="550"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5813,7 +5813,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ACZ-3-6 z wykresu 'Figure 3' </a:t>
+              <a:t>Izoterma adsorpcji probki ACK-2-6 z wykresu 'Figure 3_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5872,12 +5872,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 ACZ-3-6  0&amp;1&amp;0&amp;550 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3_1 ACK-2-6  0&amp;1&amp;0&amp;750 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 ACZ-3-6  0&amp;1&amp;0&amp;550 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3_1 ACK-2-6  0&amp;1&amp;0&amp;750 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -5961,7 +5961,7 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="550"/>
+          <c:max val="750"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6127,7 +6127,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ACZ-3-7 z wykresu 'Figure 3' </a:t>
+              <a:t>Izoterma adsorpcji probki ACK-2-7 z wykresu 'Figure 3_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6186,12 +6186,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 ACZ-3-7  0&amp;1&amp;0&amp;550 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3_1 ACK-2-7  0&amp;1&amp;0&amp;750 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 ACZ-3-7  0&amp;1&amp;0&amp;550 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3_1 ACK-2-7  0&amp;1&amp;0&amp;750 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -6275,7 +6275,7 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="550"/>
+          <c:max val="750"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -18909,7 +18909,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18930,285 +18930,301 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9817</v>
+        <v>0.1702</v>
       </c>
       <c r="B3" s="0">
-        <v>512.1298</v>
+        <v>464.4309</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9509</v>
+        <v>0.1563</v>
       </c>
       <c r="B4" s="0">
-        <v>512.5238</v>
+        <v>451.2195</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8922</v>
+        <v>0.1425</v>
       </c>
       <c r="B5" s="0">
-        <v>503.7554</v>
+        <v>433.9431</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.847</v>
+        <v>0.1302</v>
       </c>
       <c r="B6" s="0">
-        <v>500.3328</v>
+        <v>419.7154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8004</v>
+        <v>0.118</v>
       </c>
       <c r="B7" s="0">
-        <v>498.0573</v>
+        <v>402.439</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7543</v>
+        <v>0.1072</v>
       </c>
       <c r="B8" s="0">
-        <v>494.6351</v>
+        <v>380.0813</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7091</v>
+        <v>0.098</v>
       </c>
       <c r="B9" s="0">
-        <v>491.9769</v>
+        <v>353.6585</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6626</v>
+        <v>0.0919</v>
       </c>
       <c r="B10" s="0">
-        <v>488.1726</v>
+        <v>320.122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6178</v>
+        <v>0.0904</v>
       </c>
       <c r="B11" s="0">
-        <v>485.132</v>
+        <v>268.2927</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5735</v>
+        <v>0.0905</v>
       </c>
       <c r="B12" s="0">
-        <v>479.4158</v>
+        <v>214.4309</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.53</v>
+        <v>0.0905</v>
       </c>
       <c r="B13" s="0">
-        <v>474.8459</v>
+        <v>161.5854</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.5183</v>
+        <v>0.0914</v>
       </c>
       <c r="B14" s="0">
-        <v>474.4682</v>
+        <v>106.7073</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.487</v>
+        <v>0.0906</v>
       </c>
       <c r="B15" s="0">
-        <v>467.9826</v>
+        <v>52.8455</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4691</v>
+        <v>0.184</v>
       </c>
       <c r="B16" s="0">
-        <v>467.6072</v>
+        <v>478.6585</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4452</v>
+        <v>0.2132</v>
       </c>
       <c r="B17" s="0">
-        <v>459.9721</v>
+        <v>503.0488</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4017</v>
+        <v>0.2416</v>
       </c>
       <c r="B18" s="0">
-        <v>450.0513</v>
+        <v>525.4065</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3626</v>
+        <v>0.2708</v>
       </c>
       <c r="B19" s="0">
-        <v>440.1288</v>
+        <v>544.7154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3226</v>
+        <v>0.3023</v>
       </c>
       <c r="B20" s="0">
-        <v>429.06</v>
+        <v>561.9919</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.29</v>
+        <v>0.3315</v>
       </c>
       <c r="B21" s="0">
-        <v>417.6062</v>
+        <v>582.3171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.2761</v>
+        <v>0.3637</v>
       </c>
       <c r="B22" s="0">
-        <v>415.7004</v>
+        <v>596.5447</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.2574</v>
+        <v>0.3768</v>
       </c>
       <c r="B23" s="0">
-        <v>406.5345</v>
+        <v>601.626</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.2296</v>
+        <v>0.4029</v>
       </c>
       <c r="B24" s="0">
-        <v>395.4611</v>
+        <v>605.6911</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.197</v>
+        <v>0.4421</v>
       </c>
       <c r="B25" s="0">
-        <v>382.0962</v>
+        <v>616.8699</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.1887</v>
+        <v>0.4836</v>
       </c>
       <c r="B26" s="0">
-        <v>375.984</v>
+        <v>632.1138</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.1661</v>
+        <v>0.5243</v>
       </c>
       <c r="B27" s="0">
-        <v>368.7307</v>
+        <v>639.2276</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.1365</v>
+        <v>0.5658</v>
       </c>
       <c r="B28" s="0">
-        <v>354.6002</v>
+        <v>645.3252</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.1083</v>
+        <v>0.6066</v>
       </c>
       <c r="B29" s="0">
-        <v>339.3226</v>
+        <v>649.3902</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0804</v>
+        <v>0.6481</v>
       </c>
       <c r="B30" s="0">
-        <v>321.7516</v>
+        <v>656.5041</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0543</v>
+        <v>0.6911</v>
       </c>
       <c r="B31" s="0">
-        <v>302.6511</v>
+        <v>659.5528</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0291</v>
+        <v>0.7318</v>
       </c>
       <c r="B32" s="0">
-        <v>279.7281</v>
+        <v>664.6341</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0096</v>
+        <v>0.7741</v>
       </c>
       <c r="B33" s="0">
-        <v>252.2165</v>
+        <v>667.6829</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0</v>
+        <v>0.8156</v>
       </c>
       <c r="B34" s="0">
-        <v>212.4703</v>
+        <v>674.7967</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>-0.0009</v>
+        <v>0.8571</v>
       </c>
       <c r="B35" s="0">
-        <v>159.7257</v>
+        <v>680.8943</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>-0.0004</v>
+        <v>0.8971</v>
       </c>
       <c r="B36" s="0">
-        <v>107.3628</v>
+        <v>685.9756</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0</v>
+        <v>0.9386</v>
       </c>
       <c r="B37" s="0">
-        <v>53.8532</v>
-      </c>
-    </row>
-    <row r="38"/>
+        <v>694.1057</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.9785</v>
+      </c>
+      <c r="B38" s="0">
+        <v>704.2683</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.9885</v>
+      </c>
+      <c r="B39" s="0">
+        <v>711.3821</v>
+      </c>
+    </row>
+    <row r="40"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -19216,6 +19232,338 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0897</v>
+      </c>
+      <c r="B3" s="0">
+        <v>71.9149</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0889</v>
+      </c>
+      <c r="B4" s="0">
+        <v>23.9716</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0897</v>
+      </c>
+      <c r="B5" s="0">
+        <v>150.2837</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0889</v>
+      </c>
+      <c r="B6" s="0">
+        <v>196.383</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0928</v>
+      </c>
+      <c r="B7" s="0">
+        <v>239.7163</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.0982</v>
+      </c>
+      <c r="B8" s="0">
+        <v>251.7021</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1067</v>
+      </c>
+      <c r="B9" s="0">
+        <v>261.844</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1183</v>
+      </c>
+      <c r="B10" s="0">
+        <v>268.2979</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1261</v>
+      </c>
+      <c r="B11" s="0">
+        <v>271.9858</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1338</v>
+      </c>
+      <c r="B12" s="0">
+        <v>276.5957</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.1415</v>
+      </c>
+      <c r="B13" s="0">
+        <v>279.3617</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.1485</v>
+      </c>
+      <c r="B14" s="0">
+        <v>281.2057</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.1562</v>
+      </c>
+      <c r="B15" s="0">
+        <v>283.0496</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.1663</v>
+      </c>
+      <c r="B16" s="0">
+        <v>284.8936</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.1748</v>
+      </c>
+      <c r="B17" s="0">
+        <v>286.7376</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.1825</v>
+      </c>
+      <c r="B18" s="0">
+        <v>287.6596</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.215</v>
+      </c>
+      <c r="B19" s="0">
+        <v>292.2695</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.2405</v>
+      </c>
+      <c r="B20" s="0">
+        <v>294.1135</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.2514</v>
+      </c>
+      <c r="B21" s="0">
+        <v>294.1135</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.2838</v>
+      </c>
+      <c r="B22" s="0">
+        <v>295.9574</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.3202</v>
+      </c>
+      <c r="B23" s="0">
+        <v>298.7234</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.355</v>
+      </c>
+      <c r="B24" s="0">
+        <v>300.5674</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.3906</v>
+      </c>
+      <c r="B25" s="0">
+        <v>301.4894</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.4339</v>
+      </c>
+      <c r="B26" s="0">
+        <v>303.3333</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.4764</v>
+      </c>
+      <c r="B27" s="0">
+        <v>305.1773</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.5197</v>
+      </c>
+      <c r="B28" s="0">
+        <v>307.9433</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.5615</v>
+      </c>
+      <c r="B29" s="0">
+        <v>307.9433</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.6056</v>
+      </c>
+      <c r="B30" s="0">
+        <v>308.8652</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.6481</v>
+      </c>
+      <c r="B31" s="0">
+        <v>310.7092</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.6899</v>
+      </c>
+      <c r="B32" s="0">
+        <v>312.5532</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.7316</v>
+      </c>
+      <c r="B33" s="0">
+        <v>315.3191</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.7749</v>
+      </c>
+      <c r="B34" s="0">
+        <v>317.1631</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.8167</v>
+      </c>
+      <c r="B35" s="0">
+        <v>319.0071</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.8585</v>
+      </c>
+      <c r="B36" s="0">
+        <v>321.773</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.8995</v>
+      </c>
+      <c r="B37" s="0">
+        <v>325.461</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.942</v>
+      </c>
+      <c r="B38" s="0">
+        <v>329.1489</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.9799</v>
+      </c>
+      <c r="B39" s="0">
+        <v>341.1348</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.9907</v>
+      </c>
+      <c r="B40" s="0">
+        <v>349.4326</v>
+      </c>
+    </row>
+    <row r="41"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B36"/>
   <sheetViews>
@@ -19225,7 +19573,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
@@ -19238,569 +19586,269 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.1019</v>
+        <v>0.1632</v>
       </c>
       <c r="B3" s="0">
-        <v>282.5203</v>
+        <v>305.1773</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0912</v>
+        <v>0.1477</v>
       </c>
       <c r="B4" s="0">
-        <v>245.935</v>
+        <v>301.0284</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0905</v>
+        <v>0.133</v>
       </c>
       <c r="B5" s="0">
-        <v>198.1707</v>
+        <v>293.1915</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0898</v>
+        <v>0.1199</v>
       </c>
       <c r="B6" s="0">
-        <v>147.3577</v>
+        <v>283.9716</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0914</v>
+        <v>0.1067</v>
       </c>
       <c r="B7" s="0">
-        <v>94.5122</v>
+        <v>270.1418</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1211</v>
+        <v>0.0951</v>
       </c>
       <c r="B8" s="0">
-        <v>304.878</v>
+        <v>252.6241</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1511</v>
+        <v>0.0905</v>
       </c>
       <c r="B9" s="0">
-        <v>315.0407</v>
+        <v>220.3546</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1803</v>
+        <v>0.0897</v>
       </c>
       <c r="B10" s="0">
-        <v>322.1545</v>
+        <v>177.0213</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2149</v>
+        <v>0.0913</v>
       </c>
       <c r="B11" s="0">
-        <v>326.2195</v>
+        <v>133.6879</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2426</v>
+        <v>0.0913</v>
       </c>
       <c r="B12" s="0">
-        <v>328.252</v>
+        <v>89.4326</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2917</v>
+        <v>0.0913</v>
       </c>
       <c r="B13" s="0">
-        <v>329.2683</v>
+        <v>45.1773</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3194</v>
+        <v>0.1794</v>
       </c>
       <c r="B14" s="0">
-        <v>332.3171</v>
+        <v>311.6312</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3386</v>
+        <v>0.1964</v>
       </c>
       <c r="B15" s="0">
-        <v>332.3171</v>
+        <v>316.2411</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.354</v>
+        <v>0.2312</v>
       </c>
       <c r="B16" s="0">
-        <v>334.3496</v>
+        <v>320.8511</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3901</v>
+        <v>0.2622</v>
       </c>
       <c r="B17" s="0">
-        <v>336.3821</v>
+        <v>322.695</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4355</v>
+        <v>0.3109</v>
       </c>
       <c r="B18" s="0">
-        <v>338.4146</v>
+        <v>323.617</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4462</v>
+        <v>0.3627</v>
       </c>
       <c r="B19" s="0">
-        <v>338.4146</v>
+        <v>324.539</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4777</v>
+        <v>0.4215</v>
       </c>
       <c r="B20" s="0">
-        <v>340.4472</v>
+        <v>332.8369</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4954</v>
+        <v>0.4578</v>
       </c>
       <c r="B21" s="0">
-        <v>339.4309</v>
+        <v>335.6028</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.5208</v>
+        <v>0.5004</v>
       </c>
       <c r="B22" s="0">
-        <v>341.4634</v>
+        <v>339.2908</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.5438</v>
+        <v>0.5437</v>
       </c>
       <c r="B23" s="0">
-        <v>341.4634</v>
+        <v>341.1348</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5638</v>
+        <v>0.587</v>
       </c>
       <c r="B24" s="0">
-        <v>342.4797</v>
+        <v>342.9787</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.593</v>
+        <v>0.6303</v>
       </c>
       <c r="B25" s="0">
-        <v>342.4797</v>
+        <v>344.8227</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.6053</v>
+        <v>0.6721</v>
       </c>
       <c r="B26" s="0">
-        <v>343.4959</v>
+        <v>346.6667</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.6438</v>
+        <v>0.7162</v>
       </c>
       <c r="B27" s="0">
-        <v>342.4797</v>
+        <v>348.5106</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.6937</v>
+        <v>0.7572</v>
       </c>
       <c r="B28" s="0">
-        <v>344.5122</v>
+        <v>350.3546</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.7437</v>
+        <v>0.7997</v>
       </c>
       <c r="B29" s="0">
-        <v>343.4959</v>
+        <v>354.9645</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.7944</v>
+        <v>0.8438</v>
       </c>
       <c r="B30" s="0">
-        <v>343.4959</v>
+        <v>356.8085</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.819</v>
+        <v>0.8863</v>
       </c>
       <c r="B31" s="0">
-        <v>351.626</v>
+        <v>360.4965</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.8498</v>
+        <v>0.9281</v>
       </c>
       <c r="B32" s="0">
-        <v>354.6748</v>
+        <v>366.0284</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9028</v>
+        <v>0.9683</v>
       </c>
       <c r="B33" s="0">
-        <v>355.6911</v>
+        <v>372.4823</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.9427</v>
+        <v>0.9807</v>
       </c>
       <c r="B34" s="0">
-        <v>361.7886</v>
+        <v>378.0142</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.9804</v>
+        <v>0.993</v>
       </c>
       <c r="B35" s="0">
-        <v>367.8862</v>
+        <v>383.5461</v>
       </c>
     </row>
     <row r="36"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.9956</v>
-      </c>
-      <c r="B3" s="0">
-        <v>590.4472</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.9856</v>
-      </c>
-      <c r="B4" s="0">
-        <v>587.3984</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.9717</v>
-      </c>
-      <c r="B5" s="0">
-        <v>585.3659</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.9564</v>
-      </c>
-      <c r="B6" s="0">
-        <v>582.3171</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.9179</v>
-      </c>
-      <c r="B7" s="0">
-        <v>578.252</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.9064</v>
-      </c>
-      <c r="B8" s="0">
-        <v>577.2358</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.8757</v>
-      </c>
-      <c r="B9" s="0">
-        <v>575.2033</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.8334</v>
-      </c>
-      <c r="B10" s="0">
-        <v>572.1545</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.7911</v>
-      </c>
-      <c r="B11" s="0">
-        <v>568.0894</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.7496</v>
-      </c>
-      <c r="B12" s="0">
-        <v>566.0569</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.7058</v>
-      </c>
-      <c r="B13" s="0">
-        <v>561.9919</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.6643</v>
-      </c>
-      <c r="B14" s="0">
-        <v>557.9268</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.622</v>
-      </c>
-      <c r="B15" s="0">
-        <v>556.9106</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.5805</v>
-      </c>
-      <c r="B16" s="0">
-        <v>553.8618</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.5375</v>
-      </c>
-      <c r="B17" s="0">
-        <v>550.813</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.4944</v>
-      </c>
-      <c r="B18" s="0">
-        <v>549.7967</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.4522</v>
-      </c>
-      <c r="B19" s="0">
-        <v>545.7317</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.4107</v>
-      </c>
-      <c r="B20" s="0">
-        <v>543.6992</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.3653</v>
-      </c>
-      <c r="B21" s="0">
-        <v>536.5854</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.3338</v>
-      </c>
-      <c r="B22" s="0">
-        <v>534.5528</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.3092</v>
-      </c>
-      <c r="B23" s="0">
-        <v>530.4878</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.2992</v>
-      </c>
-      <c r="B24" s="0">
-        <v>528.4553</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.2623</v>
-      </c>
-      <c r="B25" s="0">
-        <v>516.2602</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.237</v>
-      </c>
-      <c r="B26" s="0">
-        <v>510.1626</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.2063</v>
-      </c>
-      <c r="B27" s="0">
-        <v>496.9512</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.1763</v>
-      </c>
-      <c r="B28" s="0">
-        <v>479.6748</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.151</v>
-      </c>
-      <c r="B29" s="0">
-        <v>457.3171</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.1264</v>
-      </c>
-      <c r="B30" s="0">
-        <v>428.8618</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.1057</v>
-      </c>
-      <c r="B31" s="0">
-        <v>390.2439</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.0934</v>
-      </c>
-      <c r="B32" s="0">
-        <v>335.3659</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.0912</v>
-      </c>
-      <c r="B33" s="0">
-        <v>256.0976</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.0905</v>
-      </c>
-      <c r="B34" s="0">
-        <v>169.7154</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.0905</v>
-      </c>
-      <c r="B35" s="0">
-        <v>169.7154</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.0906</v>
-      </c>
-      <c r="B36" s="0">
-        <v>85.3659</v>
-      </c>
-    </row>
-    <row r="37"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -19830,298 +19878,298 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.1702</v>
+        <v>0.1481</v>
       </c>
       <c r="B3" s="0">
-        <v>464.4309</v>
+        <v>437.9433</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1563</v>
+        <v>0.135</v>
       </c>
       <c r="B4" s="0">
-        <v>451.2195</v>
+        <v>422.7305</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1425</v>
+        <v>0.1222</v>
       </c>
       <c r="B5" s="0">
-        <v>433.9431</v>
+        <v>406.1348</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1302</v>
+        <v>0.1102</v>
       </c>
       <c r="B6" s="0">
-        <v>419.7154</v>
+        <v>385.8511</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.118</v>
+        <v>0.1002</v>
       </c>
       <c r="B7" s="0">
-        <v>402.439</v>
+        <v>361.4184</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1072</v>
+        <v>0.0928</v>
       </c>
       <c r="B8" s="0">
-        <v>380.0813</v>
+        <v>329.6099</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.098</v>
+        <v>0.0913</v>
       </c>
       <c r="B9" s="0">
-        <v>353.6585</v>
+        <v>278.9007</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0919</v>
+        <v>0.0905</v>
       </c>
       <c r="B10" s="0">
-        <v>320.122</v>
+        <v>224.0426</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0904</v>
+        <v>0.0905</v>
       </c>
       <c r="B11" s="0">
-        <v>268.2927</v>
+        <v>167.8014</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0905</v>
+        <v>0.0913</v>
       </c>
       <c r="B12" s="0">
-        <v>214.4309</v>
+        <v>113.4043</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0905</v>
+        <v>0.0913</v>
       </c>
       <c r="B13" s="0">
-        <v>161.5854</v>
+        <v>58.0851</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0914</v>
+        <v>0.1632</v>
       </c>
       <c r="B14" s="0">
-        <v>106.7073</v>
+        <v>451.773</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0906</v>
+        <v>0.1756</v>
       </c>
       <c r="B15" s="0">
-        <v>52.8455</v>
+        <v>463.7589</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.184</v>
+        <v>0.1903</v>
       </c>
       <c r="B16" s="0">
-        <v>478.6585</v>
+        <v>476.6667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2132</v>
+        <v>0.2212</v>
       </c>
       <c r="B17" s="0">
-        <v>503.0488</v>
+        <v>495.1064</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2416</v>
+        <v>0.2398</v>
       </c>
       <c r="B18" s="0">
-        <v>525.4065</v>
+        <v>503.4043</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2708</v>
+        <v>0.2514</v>
       </c>
       <c r="B19" s="0">
-        <v>544.7154</v>
+        <v>511.7021</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3023</v>
+        <v>0.2846</v>
       </c>
       <c r="B20" s="0">
-        <v>561.9919</v>
+        <v>524.6099</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3315</v>
+        <v>0.3179</v>
       </c>
       <c r="B21" s="0">
-        <v>582.3171</v>
+        <v>535.6738</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3637</v>
+        <v>0.331</v>
       </c>
       <c r="B22" s="0">
-        <v>596.5447</v>
+        <v>538.4397</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3768</v>
+        <v>0.3519</v>
       </c>
       <c r="B23" s="0">
-        <v>601.626</v>
+        <v>544.8936</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4029</v>
+        <v>0.3797</v>
       </c>
       <c r="B24" s="0">
-        <v>605.6911</v>
+        <v>549.5035</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4421</v>
+        <v>0.4292</v>
       </c>
       <c r="B25" s="0">
-        <v>616.8699</v>
+        <v>556.8794</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4836</v>
+        <v>0.478</v>
       </c>
       <c r="B26" s="0">
-        <v>632.1138</v>
+        <v>562.4113</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5243</v>
+        <v>0.5282</v>
       </c>
       <c r="B27" s="0">
-        <v>639.2276</v>
+        <v>567.0213</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5658</v>
+        <v>0.5545</v>
       </c>
       <c r="B28" s="0">
-        <v>645.3252</v>
+        <v>570.7092</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6066</v>
+        <v>0.5986</v>
       </c>
       <c r="B29" s="0">
-        <v>649.3902</v>
+        <v>573.4752</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6481</v>
+        <v>0.6404</v>
       </c>
       <c r="B30" s="0">
-        <v>656.5041</v>
+        <v>578.0851</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6911</v>
+        <v>0.6821</v>
       </c>
       <c r="B31" s="0">
-        <v>659.5528</v>
+        <v>579.9291</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.7318</v>
+        <v>0.7262</v>
       </c>
       <c r="B32" s="0">
-        <v>664.6341</v>
+        <v>584.539</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.7741</v>
+        <v>0.7672</v>
       </c>
       <c r="B33" s="0">
-        <v>667.6829</v>
+        <v>586.383</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.8156</v>
+        <v>0.8105</v>
       </c>
       <c r="B34" s="0">
-        <v>674.7967</v>
+        <v>590.9929</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.8571</v>
+        <v>0.8531</v>
       </c>
       <c r="B35" s="0">
-        <v>680.8943</v>
+        <v>596.5248</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.8971</v>
+        <v>0.8948</v>
       </c>
       <c r="B36" s="0">
-        <v>685.9756</v>
+        <v>600.2128</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.9386</v>
+        <v>0.9366</v>
       </c>
       <c r="B37" s="0">
-        <v>694.1057</v>
+        <v>606.6667</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.9785</v>
+        <v>0.976</v>
       </c>
       <c r="B38" s="0">
-        <v>704.2683</v>
+        <v>616.8085</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.9885</v>
+        <v>0.9884</v>
       </c>
       <c r="B39" s="0">
-        <v>711.3821</v>
+        <v>626.9504</v>
       </c>
     </row>
     <row r="40"/>
@@ -20133,7 +20181,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20141,7 +20189,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
@@ -20154,309 +20202,397 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0897</v>
+        <v>0.9743</v>
       </c>
       <c r="B3" s="0">
-        <v>71.9149</v>
+        <v>460.5343</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0889</v>
+        <v>0.9609</v>
       </c>
       <c r="B4" s="0">
-        <v>23.9716</v>
+        <v>455.9529</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0897</v>
+        <v>0.9213</v>
       </c>
       <c r="B5" s="0">
-        <v>150.2837</v>
+        <v>448.3239</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0889</v>
+        <v>0.8774</v>
       </c>
       <c r="B6" s="0">
-        <v>196.383</v>
+        <v>442.9897</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0928</v>
+        <v>0.8335</v>
       </c>
       <c r="B7" s="0">
-        <v>239.7163</v>
+        <v>439.9488</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0982</v>
+        <v>0.79</v>
       </c>
       <c r="B8" s="0">
-        <v>251.7021</v>
+        <v>436.9078</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1067</v>
+        <v>0.7448</v>
       </c>
       <c r="B9" s="0">
-        <v>261.844</v>
+        <v>433.1029</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1183</v>
+        <v>0.7004</v>
       </c>
       <c r="B10" s="0">
-        <v>268.2979</v>
+        <v>429.68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1261</v>
+        <v>0.6561</v>
       </c>
       <c r="B11" s="0">
-        <v>271.9858</v>
+        <v>426.2571</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1338</v>
+        <v>0.6104</v>
       </c>
       <c r="B12" s="0">
-        <v>276.5957</v>
+        <v>423.2168</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1415</v>
+        <v>0.5657</v>
       </c>
       <c r="B13" s="0">
-        <v>279.3617</v>
+        <v>419.4119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1485</v>
+        <v>0.5239</v>
       </c>
       <c r="B14" s="0">
-        <v>281.2057</v>
+        <v>414.8413</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.1562</v>
+        <v>0.4809</v>
       </c>
       <c r="B15" s="0">
-        <v>283.0496</v>
+        <v>409.889</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.1663</v>
+        <v>0.4383</v>
       </c>
       <c r="B16" s="0">
-        <v>284.8936</v>
+        <v>403.4077</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.1748</v>
+        <v>0.3957</v>
       </c>
       <c r="B17" s="0">
-        <v>286.7376</v>
+        <v>397.3087</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.1825</v>
+        <v>0.3539</v>
       </c>
       <c r="B18" s="0">
-        <v>287.6596</v>
+        <v>390.0626</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.215</v>
+        <v>0.3148</v>
       </c>
       <c r="B19" s="0">
-        <v>292.2695</v>
+        <v>381.669</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2405</v>
+        <v>0.2822</v>
       </c>
       <c r="B20" s="0">
-        <v>294.1135</v>
+        <v>372.8906</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.2514</v>
+        <v>0.25</v>
       </c>
       <c r="B21" s="0">
-        <v>294.1135</v>
+        <v>364.4943</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.2838</v>
+        <v>0.2183</v>
       </c>
       <c r="B22" s="0">
-        <v>295.9574</v>
+        <v>355.3334</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3202</v>
+        <v>0.1861</v>
       </c>
       <c r="B23" s="0">
-        <v>298.7234</v>
+        <v>346.5548</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.355</v>
+        <v>0.1565</v>
       </c>
       <c r="B24" s="0">
-        <v>300.5674</v>
+        <v>333.571</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.3906</v>
+        <v>0.127</v>
       </c>
       <c r="B25" s="0">
-        <v>301.4894</v>
+        <v>321.3516</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4339</v>
+        <v>0.0991</v>
       </c>
       <c r="B26" s="0">
-        <v>303.3333</v>
+        <v>309.1315</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.4764</v>
+        <v>0.0909</v>
       </c>
       <c r="B27" s="0">
-        <v>305.1773</v>
+        <v>304.9304</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5197</v>
+        <v>0.0813</v>
       </c>
       <c r="B28" s="0">
-        <v>307.9433</v>
+        <v>298.8187</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.5615</v>
+        <v>0.0726</v>
       </c>
       <c r="B29" s="0">
-        <v>307.9433</v>
+        <v>293.471</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6056</v>
+        <v>0.0639</v>
       </c>
       <c r="B30" s="0">
-        <v>308.8652</v>
+        <v>288.1234</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6481</v>
+        <v>0.0543</v>
       </c>
       <c r="B31" s="0">
-        <v>310.7092</v>
+        <v>280.4829</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6899</v>
+        <v>0.0448</v>
       </c>
       <c r="B32" s="0">
-        <v>312.5532</v>
+        <v>273.6068</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.7316</v>
+        <v>0.037</v>
       </c>
       <c r="B33" s="0">
-        <v>315.3191</v>
+        <v>265.9656</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.7749</v>
+        <v>0.0278</v>
       </c>
       <c r="B34" s="0">
-        <v>317.1631</v>
+        <v>259.4715</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.8167</v>
+        <v>0.0222</v>
       </c>
       <c r="B35" s="0">
-        <v>319.0071</v>
+        <v>250.3006</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.8585</v>
+        <v>0.0152</v>
       </c>
       <c r="B36" s="0">
-        <v>321.773</v>
+        <v>239.9836</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.8995</v>
+        <v>0.0104</v>
       </c>
       <c r="B37" s="0">
-        <v>325.461</v>
+        <v>230.8124</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.942</v>
+        <v>0.0061</v>
       </c>
       <c r="B38" s="0">
-        <v>329.1489</v>
+        <v>219.3478</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.9799</v>
+        <v>0.0013</v>
       </c>
       <c r="B39" s="0">
-        <v>341.1348</v>
+        <v>207.8833</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.9907</v>
+        <v>-0.0013</v>
       </c>
       <c r="B40" s="0">
-        <v>349.4326</v>
-      </c>
-    </row>
-    <row r="41"/>
+        <v>194.8891</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>-0.0022</v>
+      </c>
+      <c r="B41" s="0">
+        <v>181.5121</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>-0.0013</v>
+      </c>
+      <c r="B42" s="0">
+        <v>170.0455</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>-0.0017</v>
+      </c>
+      <c r="B43" s="0">
+        <v>157.4327</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>-0.0013</v>
+      </c>
+      <c r="B44" s="0">
+        <v>142.9086</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>-0.0013</v>
+      </c>
+      <c r="B45" s="0">
+        <v>128.3846</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>-0.0013</v>
+      </c>
+      <c r="B46" s="0">
+        <v>116.1539</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>-0.0017</v>
+      </c>
+      <c r="B47" s="0">
+        <v>94.3681</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>-0.0017</v>
+      </c>
+      <c r="B48" s="0">
+        <v>81.7552</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>-0.0013</v>
+      </c>
+      <c r="B49" s="0">
+        <v>67.231</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>-0.0017</v>
+      </c>
+      <c r="B50" s="0">
+        <v>38.9477</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>-0.0013</v>
+      </c>
+      <c r="B51" s="0">
+        <v>21.3659</v>
+      </c>
+    </row>
+    <row r="52"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -20465,7 +20601,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20486,269 +20622,253 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.1632</v>
+        <v>0.9896</v>
       </c>
       <c r="B3" s="0">
-        <v>305.1773</v>
+        <v>465.115</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1477</v>
+        <v>0.9487</v>
       </c>
       <c r="B4" s="0">
-        <v>301.0284</v>
+        <v>457.4864</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.133</v>
+        <v>0.9039</v>
       </c>
       <c r="B5" s="0">
-        <v>293.1915</v>
+        <v>452.5348</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1199</v>
+        <v>0.8591</v>
       </c>
       <c r="B6" s="0">
-        <v>283.9716</v>
+        <v>448.7298</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1067</v>
+        <v>0.8135</v>
       </c>
       <c r="B7" s="0">
-        <v>270.1418</v>
+        <v>444.9252</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0951</v>
+        <v>0.7687</v>
       </c>
       <c r="B8" s="0">
-        <v>252.6241</v>
+        <v>441.8846</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0905</v>
+        <v>0.7222</v>
       </c>
       <c r="B9" s="0">
-        <v>220.3546</v>
+        <v>438.4625</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0897</v>
+        <v>0.677</v>
       </c>
       <c r="B10" s="0">
-        <v>177.0213</v>
+        <v>436.1865</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0913</v>
+        <v>0.6317</v>
       </c>
       <c r="B11" s="0">
-        <v>133.6879</v>
+        <v>432.3817</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0913</v>
+        <v>0.5857</v>
       </c>
       <c r="B12" s="0">
-        <v>89.4326</v>
+        <v>429.3417</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0913</v>
+        <v>0.5422</v>
       </c>
       <c r="B13" s="0">
-        <v>45.1773</v>
+        <v>424.7718</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1794</v>
+        <v>0.4983</v>
       </c>
       <c r="B14" s="0">
-        <v>311.6312</v>
+        <v>418.6732</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.1964</v>
+        <v>0.4565</v>
       </c>
       <c r="B15" s="0">
-        <v>316.2411</v>
+        <v>412.1916</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2312</v>
+        <v>0.4109</v>
       </c>
       <c r="B16" s="0">
-        <v>320.8511</v>
+        <v>405.3292</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2622</v>
+        <v>0.37</v>
       </c>
       <c r="B17" s="0">
-        <v>322.695</v>
+        <v>396.554</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3109</v>
+        <v>0.3287</v>
       </c>
       <c r="B18" s="0">
-        <v>323.617</v>
+        <v>387.779</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3627</v>
+        <v>0.2957</v>
       </c>
       <c r="B19" s="0">
-        <v>324.539</v>
+        <v>379.383</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4215</v>
+        <v>0.2626</v>
       </c>
       <c r="B20" s="0">
-        <v>332.8369</v>
+        <v>370.6048</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4578</v>
+        <v>0.23</v>
       </c>
       <c r="B21" s="0">
-        <v>335.6028</v>
+        <v>360.2976</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.5004</v>
+        <v>0.1978</v>
       </c>
       <c r="B22" s="0">
-        <v>339.2908</v>
+        <v>350.7547</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.5437</v>
+        <v>0.1661</v>
       </c>
       <c r="B23" s="0">
-        <v>341.1348</v>
+        <v>338.1539</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.587</v>
+        <v>0.1357</v>
       </c>
       <c r="B24" s="0">
-        <v>342.9787</v>
+        <v>327.0814</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.6303</v>
+        <v>0.1061</v>
       </c>
       <c r="B25" s="0">
-        <v>344.8227</v>
+        <v>313.7154</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.6721</v>
+        <v>0.0783</v>
       </c>
       <c r="B26" s="0">
-        <v>346.6667</v>
+        <v>298.0554</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.7162</v>
+        <v>0.0513</v>
       </c>
       <c r="B27" s="0">
-        <v>348.5106</v>
+        <v>281.2485</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.7572</v>
+        <v>0.0291</v>
       </c>
       <c r="B28" s="0">
-        <v>350.3546</v>
+        <v>260.2354</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.7997</v>
+        <v>0.0096</v>
       </c>
       <c r="B29" s="0">
-        <v>354.9645</v>
+        <v>234.6348</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.8438</v>
+        <v>-0.0013</v>
       </c>
       <c r="B30" s="0">
-        <v>356.8085</v>
+        <v>197.1824</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.8863</v>
+        <v>-0.0004</v>
       </c>
       <c r="B31" s="0">
-        <v>360.4965</v>
+        <v>148.2592</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9281</v>
+        <v>-0.0004</v>
       </c>
       <c r="B32" s="0">
-        <v>366.0284</v>
+        <v>98.9541</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9683</v>
+        <v>-0.0009</v>
       </c>
       <c r="B33" s="0">
-        <v>372.4823</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.9807</v>
-      </c>
-      <c r="B34" s="0">
-        <v>378.0142</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.993</v>
-      </c>
-      <c r="B35" s="0">
-        <v>383.5461</v>
-      </c>
-    </row>
-    <row r="36"/>
+        <v>49.267</v>
+      </c>
+    </row>
+    <row r="34"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -20757,7 +20877,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20778,301 +20898,285 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.1481</v>
+        <v>0.9817</v>
       </c>
       <c r="B3" s="0">
-        <v>437.9433</v>
+        <v>512.1298</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.135</v>
+        <v>0.9509</v>
       </c>
       <c r="B4" s="0">
-        <v>422.7305</v>
+        <v>512.5238</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1222</v>
+        <v>0.8922</v>
       </c>
       <c r="B5" s="0">
-        <v>406.1348</v>
+        <v>503.7554</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1102</v>
+        <v>0.847</v>
       </c>
       <c r="B6" s="0">
-        <v>385.8511</v>
+        <v>500.3328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1002</v>
+        <v>0.8004</v>
       </c>
       <c r="B7" s="0">
-        <v>361.4184</v>
+        <v>498.0573</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0928</v>
+        <v>0.7543</v>
       </c>
       <c r="B8" s="0">
-        <v>329.6099</v>
+        <v>494.6351</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0913</v>
+        <v>0.7091</v>
       </c>
       <c r="B9" s="0">
-        <v>278.9007</v>
+        <v>491.9769</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0905</v>
+        <v>0.6626</v>
       </c>
       <c r="B10" s="0">
-        <v>224.0426</v>
+        <v>488.1726</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0905</v>
+        <v>0.6178</v>
       </c>
       <c r="B11" s="0">
-        <v>167.8014</v>
+        <v>485.132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0913</v>
+        <v>0.5735</v>
       </c>
       <c r="B12" s="0">
-        <v>113.4043</v>
+        <v>479.4158</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0913</v>
+        <v>0.53</v>
       </c>
       <c r="B13" s="0">
-        <v>58.0851</v>
+        <v>474.8459</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1632</v>
+        <v>0.5183</v>
       </c>
       <c r="B14" s="0">
-        <v>451.773</v>
+        <v>474.4682</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.1756</v>
+        <v>0.487</v>
       </c>
       <c r="B15" s="0">
-        <v>463.7589</v>
+        <v>467.9826</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.1903</v>
+        <v>0.4691</v>
       </c>
       <c r="B16" s="0">
-        <v>476.6667</v>
+        <v>467.6072</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2212</v>
+        <v>0.4452</v>
       </c>
       <c r="B17" s="0">
-        <v>495.1064</v>
+        <v>459.9721</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2398</v>
+        <v>0.4017</v>
       </c>
       <c r="B18" s="0">
-        <v>503.4043</v>
+        <v>450.0513</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2514</v>
+        <v>0.3626</v>
       </c>
       <c r="B19" s="0">
-        <v>511.7021</v>
+        <v>440.1288</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2846</v>
+        <v>0.3226</v>
       </c>
       <c r="B20" s="0">
-        <v>524.6099</v>
+        <v>429.06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3179</v>
+        <v>0.29</v>
       </c>
       <c r="B21" s="0">
-        <v>535.6738</v>
+        <v>417.6062</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.331</v>
+        <v>0.2761</v>
       </c>
       <c r="B22" s="0">
-        <v>538.4397</v>
+        <v>415.7004</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3519</v>
+        <v>0.2574</v>
       </c>
       <c r="B23" s="0">
-        <v>544.8936</v>
+        <v>406.5345</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3797</v>
+        <v>0.2296</v>
       </c>
       <c r="B24" s="0">
-        <v>549.5035</v>
+        <v>395.4611</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4292</v>
+        <v>0.197</v>
       </c>
       <c r="B25" s="0">
-        <v>556.8794</v>
+        <v>382.0962</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.478</v>
+        <v>0.1887</v>
       </c>
       <c r="B26" s="0">
-        <v>562.4113</v>
+        <v>375.984</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5282</v>
+        <v>0.1661</v>
       </c>
       <c r="B27" s="0">
-        <v>567.0213</v>
+        <v>368.7307</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5545</v>
+        <v>0.1365</v>
       </c>
       <c r="B28" s="0">
-        <v>570.7092</v>
+        <v>354.6002</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.5986</v>
+        <v>0.1083</v>
       </c>
       <c r="B29" s="0">
-        <v>573.4752</v>
+        <v>339.3226</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6404</v>
+        <v>0.0804</v>
       </c>
       <c r="B30" s="0">
-        <v>578.0851</v>
+        <v>321.7516</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6821</v>
+        <v>0.0543</v>
       </c>
       <c r="B31" s="0">
-        <v>579.9291</v>
+        <v>302.6511</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.7262</v>
+        <v>0.0291</v>
       </c>
       <c r="B32" s="0">
-        <v>584.539</v>
+        <v>279.7281</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.7672</v>
+        <v>0.0096</v>
       </c>
       <c r="B33" s="0">
-        <v>586.383</v>
+        <v>252.2165</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.8105</v>
+        <v>0</v>
       </c>
       <c r="B34" s="0">
-        <v>590.9929</v>
+        <v>212.4703</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.8531</v>
+        <v>-0.0009</v>
       </c>
       <c r="B35" s="0">
-        <v>596.5248</v>
+        <v>159.7257</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.8948</v>
+        <v>-0.0004</v>
       </c>
       <c r="B36" s="0">
-        <v>600.2128</v>
+        <v>107.3628</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.9366</v>
+        <v>0</v>
       </c>
       <c r="B37" s="0">
-        <v>606.6667</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.976</v>
-      </c>
-      <c r="B38" s="0">
-        <v>616.8085</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.9884</v>
-      </c>
-      <c r="B39" s="0">
-        <v>626.9504</v>
-      </c>
-    </row>
-    <row r="40"/>
+        <v>53.8532</v>
+      </c>
+    </row>
+    <row r="38"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -21089,7 +21193,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -24473,7 +24577,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24481,7 +24585,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -24494,397 +24598,269 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9743</v>
+        <v>0.1019</v>
       </c>
       <c r="B3" s="0">
-        <v>460.5343</v>
+        <v>282.5203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9609</v>
+        <v>0.0912</v>
       </c>
       <c r="B4" s="0">
-        <v>455.9529</v>
+        <v>245.935</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9213</v>
+        <v>0.0905</v>
       </c>
       <c r="B5" s="0">
-        <v>448.3239</v>
+        <v>198.1707</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8774</v>
+        <v>0.0898</v>
       </c>
       <c r="B6" s="0">
-        <v>442.9897</v>
+        <v>147.3577</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8335</v>
+        <v>0.0914</v>
       </c>
       <c r="B7" s="0">
-        <v>439.9488</v>
+        <v>94.5122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.79</v>
+        <v>0.1211</v>
       </c>
       <c r="B8" s="0">
-        <v>436.9078</v>
+        <v>304.878</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7448</v>
+        <v>0.1511</v>
       </c>
       <c r="B9" s="0">
-        <v>433.1029</v>
+        <v>315.0407</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.7004</v>
+        <v>0.1803</v>
       </c>
       <c r="B10" s="0">
-        <v>429.68</v>
+        <v>322.1545</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6561</v>
+        <v>0.2149</v>
       </c>
       <c r="B11" s="0">
-        <v>426.2571</v>
+        <v>326.2195</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.6104</v>
+        <v>0.2426</v>
       </c>
       <c r="B12" s="0">
-        <v>423.2168</v>
+        <v>328.252</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5657</v>
+        <v>0.2917</v>
       </c>
       <c r="B13" s="0">
-        <v>419.4119</v>
+        <v>329.2683</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.5239</v>
+        <v>0.3194</v>
       </c>
       <c r="B14" s="0">
-        <v>414.8413</v>
+        <v>332.3171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4809</v>
+        <v>0.3386</v>
       </c>
       <c r="B15" s="0">
-        <v>409.889</v>
+        <v>332.3171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4383</v>
+        <v>0.354</v>
       </c>
       <c r="B16" s="0">
-        <v>403.4077</v>
+        <v>334.3496</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3957</v>
+        <v>0.3901</v>
       </c>
       <c r="B17" s="0">
-        <v>397.3087</v>
+        <v>336.3821</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3539</v>
+        <v>0.4355</v>
       </c>
       <c r="B18" s="0">
-        <v>390.0626</v>
+        <v>338.4146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3148</v>
+        <v>0.4462</v>
       </c>
       <c r="B19" s="0">
-        <v>381.669</v>
+        <v>338.4146</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2822</v>
+        <v>0.4777</v>
       </c>
       <c r="B20" s="0">
-        <v>372.8906</v>
+        <v>340.4472</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.25</v>
+        <v>0.4954</v>
       </c>
       <c r="B21" s="0">
-        <v>364.4943</v>
+        <v>339.4309</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.2183</v>
+        <v>0.5208</v>
       </c>
       <c r="B22" s="0">
-        <v>355.3334</v>
+        <v>341.4634</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1861</v>
+        <v>0.5438</v>
       </c>
       <c r="B23" s="0">
-        <v>346.5548</v>
+        <v>341.4634</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1565</v>
+        <v>0.5638</v>
       </c>
       <c r="B24" s="0">
-        <v>333.571</v>
+        <v>342.4797</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.127</v>
+        <v>0.593</v>
       </c>
       <c r="B25" s="0">
-        <v>321.3516</v>
+        <v>342.4797</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0991</v>
+        <v>0.6053</v>
       </c>
       <c r="B26" s="0">
-        <v>309.1315</v>
+        <v>343.4959</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0909</v>
+        <v>0.6438</v>
       </c>
       <c r="B27" s="0">
-        <v>304.9304</v>
+        <v>342.4797</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0813</v>
+        <v>0.6937</v>
       </c>
       <c r="B28" s="0">
-        <v>298.8187</v>
+        <v>344.5122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0726</v>
+        <v>0.7437</v>
       </c>
       <c r="B29" s="0">
-        <v>293.471</v>
+        <v>343.4959</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0639</v>
+        <v>0.7944</v>
       </c>
       <c r="B30" s="0">
-        <v>288.1234</v>
+        <v>343.4959</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0543</v>
+        <v>0.819</v>
       </c>
       <c r="B31" s="0">
-        <v>280.4829</v>
+        <v>351.626</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0448</v>
+        <v>0.8498</v>
       </c>
       <c r="B32" s="0">
-        <v>273.6068</v>
+        <v>354.6748</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.037</v>
+        <v>0.9028</v>
       </c>
       <c r="B33" s="0">
-        <v>265.9656</v>
+        <v>355.6911</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0278</v>
+        <v>0.9427</v>
       </c>
       <c r="B34" s="0">
-        <v>259.4715</v>
+        <v>361.7886</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.0222</v>
+        <v>0.9804</v>
       </c>
       <c r="B35" s="0">
-        <v>250.3006</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.0152</v>
-      </c>
-      <c r="B36" s="0">
-        <v>239.9836</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.0104</v>
-      </c>
-      <c r="B37" s="0">
-        <v>230.8124</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.0061</v>
-      </c>
-      <c r="B38" s="0">
-        <v>219.3478</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.0013</v>
-      </c>
-      <c r="B39" s="0">
-        <v>207.8833</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>-0.0013</v>
-      </c>
-      <c r="B40" s="0">
-        <v>194.8891</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>-0.0022</v>
-      </c>
-      <c r="B41" s="0">
-        <v>181.5121</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>-0.0013</v>
-      </c>
-      <c r="B42" s="0">
-        <v>170.0455</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>-0.0017</v>
-      </c>
-      <c r="B43" s="0">
-        <v>157.4327</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>-0.0013</v>
-      </c>
-      <c r="B44" s="0">
-        <v>142.9086</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>-0.0013</v>
-      </c>
-      <c r="B45" s="0">
-        <v>128.3846</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>-0.0013</v>
-      </c>
-      <c r="B46" s="0">
-        <v>116.1539</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>-0.0017</v>
-      </c>
-      <c r="B47" s="0">
-        <v>94.3681</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>-0.0017</v>
-      </c>
-      <c r="B48" s="0">
-        <v>81.7552</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>-0.0013</v>
-      </c>
-      <c r="B49" s="0">
-        <v>67.231</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>-0.0017</v>
-      </c>
-      <c r="B50" s="0">
-        <v>38.9477</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>-0.0013</v>
-      </c>
-      <c r="B51" s="0">
-        <v>21.3659</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>367.8862</v>
+      </c>
+    </row>
+    <row r="36"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -24893,7 +24869,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24914,253 +24890,277 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9896</v>
+        <v>0.9956</v>
       </c>
       <c r="B3" s="0">
-        <v>465.115</v>
+        <v>590.4472</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9487</v>
+        <v>0.9856</v>
       </c>
       <c r="B4" s="0">
-        <v>457.4864</v>
+        <v>587.3984</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9039</v>
+        <v>0.9717</v>
       </c>
       <c r="B5" s="0">
-        <v>452.5348</v>
+        <v>585.3659</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8591</v>
+        <v>0.9564</v>
       </c>
       <c r="B6" s="0">
-        <v>448.7298</v>
+        <v>582.3171</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8135</v>
+        <v>0.9179</v>
       </c>
       <c r="B7" s="0">
-        <v>444.9252</v>
+        <v>578.252</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7687</v>
+        <v>0.9064</v>
       </c>
       <c r="B8" s="0">
-        <v>441.8846</v>
+        <v>577.2358</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7222</v>
+        <v>0.8757</v>
       </c>
       <c r="B9" s="0">
-        <v>438.4625</v>
+        <v>575.2033</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.677</v>
+        <v>0.8334</v>
       </c>
       <c r="B10" s="0">
-        <v>436.1865</v>
+        <v>572.1545</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6317</v>
+        <v>0.7911</v>
       </c>
       <c r="B11" s="0">
-        <v>432.3817</v>
+        <v>568.0894</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5857</v>
+        <v>0.7496</v>
       </c>
       <c r="B12" s="0">
-        <v>429.3417</v>
+        <v>566.0569</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5422</v>
+        <v>0.7058</v>
       </c>
       <c r="B13" s="0">
-        <v>424.7718</v>
+        <v>561.9919</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4983</v>
+        <v>0.6643</v>
       </c>
       <c r="B14" s="0">
-        <v>418.6732</v>
+        <v>557.9268</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4565</v>
+        <v>0.622</v>
       </c>
       <c r="B15" s="0">
-        <v>412.1916</v>
+        <v>556.9106</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4109</v>
+        <v>0.5805</v>
       </c>
       <c r="B16" s="0">
-        <v>405.3292</v>
+        <v>553.8618</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.37</v>
+        <v>0.5375</v>
       </c>
       <c r="B17" s="0">
-        <v>396.554</v>
+        <v>550.813</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3287</v>
+        <v>0.4944</v>
       </c>
       <c r="B18" s="0">
-        <v>387.779</v>
+        <v>549.7967</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2957</v>
+        <v>0.4522</v>
       </c>
       <c r="B19" s="0">
-        <v>379.383</v>
+        <v>545.7317</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2626</v>
+        <v>0.4107</v>
       </c>
       <c r="B20" s="0">
-        <v>370.6048</v>
+        <v>543.6992</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.23</v>
+        <v>0.3653</v>
       </c>
       <c r="B21" s="0">
-        <v>360.2976</v>
+        <v>536.5854</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1978</v>
+        <v>0.3338</v>
       </c>
       <c r="B22" s="0">
-        <v>350.7547</v>
+        <v>534.5528</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1661</v>
+        <v>0.3092</v>
       </c>
       <c r="B23" s="0">
-        <v>338.1539</v>
+        <v>530.4878</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1357</v>
+        <v>0.2992</v>
       </c>
       <c r="B24" s="0">
-        <v>327.0814</v>
+        <v>528.4553</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.1061</v>
+        <v>0.2623</v>
       </c>
       <c r="B25" s="0">
-        <v>313.7154</v>
+        <v>516.2602</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0783</v>
+        <v>0.237</v>
       </c>
       <c r="B26" s="0">
-        <v>298.0554</v>
+        <v>510.1626</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0513</v>
+        <v>0.2063</v>
       </c>
       <c r="B27" s="0">
-        <v>281.2485</v>
+        <v>496.9512</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0291</v>
+        <v>0.1763</v>
       </c>
       <c r="B28" s="0">
-        <v>260.2354</v>
+        <v>479.6748</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0096</v>
+        <v>0.151</v>
       </c>
       <c r="B29" s="0">
-        <v>234.6348</v>
+        <v>457.3171</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.0013</v>
+        <v>0.1264</v>
       </c>
       <c r="B30" s="0">
-        <v>197.1824</v>
+        <v>428.8618</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0004</v>
+        <v>0.1057</v>
       </c>
       <c r="B31" s="0">
-        <v>148.2592</v>
+        <v>390.2439</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0004</v>
+        <v>0.0934</v>
       </c>
       <c r="B32" s="0">
-        <v>98.9541</v>
+        <v>335.3659</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0009</v>
+        <v>0.0912</v>
       </c>
       <c r="B33" s="0">
-        <v>49.267</v>
-      </c>
-    </row>
-    <row r="34"/>
+        <v>256.0976</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.0905</v>
+      </c>
+      <c r="B34" s="0">
+        <v>169.7154</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0905</v>
+      </c>
+      <c r="B35" s="0">
+        <v>169.7154</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0906</v>
+      </c>
+      <c r="B36" s="0">
+        <v>85.3659</v>
+      </c>
+    </row>
+    <row r="37"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
